--- a/Citrix.WEMSDK.xlsx
+++ b/Citrix.WEMSDK.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE01711-06B0-4B7D-945A-C4A835D9864C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DC824E-CD66-48C7-ADC7-45D10DFC4368}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="21600" windowHeight="12855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commands and Aliasses" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="122">
   <si>
     <t>Command</t>
   </si>
@@ -381,6 +381,12 @@
   </si>
   <si>
     <t>In Development</t>
+  </si>
+  <si>
+    <t>Password is not decoded!</t>
+  </si>
+  <si>
+    <t>Cannot set password yet: need encryption algorythm (Base64 and something else)</t>
   </si>
 </sst>
 </file>
@@ -709,9 +715,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,6 +887,9 @@
       <c r="D12" t="s">
         <v>68</v>
       </c>
+      <c r="E12" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -929,7 +938,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -940,7 +949,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -951,7 +960,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>118</v>
       </c>
@@ -965,7 +974,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>119</v>
       </c>
@@ -979,7 +988,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>119</v>
       </c>
@@ -993,7 +1002,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>119</v>
       </c>
@@ -1007,7 +1016,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>119</v>
       </c>
@@ -1021,7 +1030,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>119</v>
       </c>
@@ -1035,7 +1044,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>119</v>
       </c>
@@ -1046,7 +1055,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -1056,8 +1065,11 @@
       <c r="D26" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>119</v>
       </c>
@@ -1071,7 +1083,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>119</v>
       </c>
@@ -1082,7 +1094,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>119</v>
       </c>
@@ -1093,7 +1105,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -1104,7 +1116,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -1115,7 +1127,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -1129,7 +1141,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -1140,7 +1152,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>119</v>
       </c>
@@ -1154,7 +1166,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>119</v>
       </c>
@@ -1168,7 +1180,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>119</v>
       </c>
@@ -1182,7 +1194,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>119</v>
       </c>
@@ -1196,7 +1208,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>119</v>
       </c>
@@ -1210,7 +1222,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>119</v>
       </c>
@@ -1224,7 +1236,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>119</v>
       </c>
@@ -1235,7 +1247,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>119</v>
       </c>
@@ -1245,8 +1257,11 @@
       <c r="D41" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>119</v>
       </c>
@@ -1260,7 +1275,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>119</v>
       </c>
@@ -1271,7 +1286,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>119</v>
       </c>

--- a/Citrix.WEMSDK.xlsx
+++ b/Citrix.WEMSDK.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DC824E-CD66-48C7-ADC7-45D10DFC4368}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A673E96-1292-4E04-862E-2DFE3151C3D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="21600" windowHeight="12855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commands and Aliasses" sheetId="1" r:id="rId1"/>
@@ -715,9 +715,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
         <v>47</v>

--- a/Citrix.WEMSDK.xlsx
+++ b/Citrix.WEMSDK.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A673E96-1292-4E04-862E-2DFE3151C3D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F380F31-48E1-4698-90B8-248261260450}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="123">
   <si>
     <t>Command</t>
   </si>
@@ -387,6 +387,9 @@
   </si>
   <si>
     <t>Cannot set password yet: need encryption algorythm (Base64 and something else)</t>
+  </si>
+  <si>
+    <t>New-WEMApp</t>
   </si>
 </sst>
 </file>
@@ -717,7 +720,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,6 +936,9 @@
       </c>
       <c r="B16" t="s">
         <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>122</v>
       </c>
       <c r="D16" t="s">
         <v>33</v>

--- a/Citrix.WEMSDK.xlsx
+++ b/Citrix.WEMSDK.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F380F31-48E1-4698-90B8-248261260450}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B101BA89-9726-4CEA-BFA4-C67FAF4F6878}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commands and Aliasses" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="123">
   <si>
     <t>Command</t>
   </si>
@@ -719,8 +719,8 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,6 +868,9 @@
       <c r="D10" t="s">
         <v>66</v>
       </c>
+      <c r="E10" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -917,6 +920,9 @@
       </c>
       <c r="D14" t="s">
         <v>70</v>
+      </c>
+      <c r="E14" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1038,7 +1044,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
         <v>98</v>
@@ -1049,6 +1055,9 @@
       <c r="D24" t="s">
         <v>110</v>
       </c>
+      <c r="E24" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -1099,6 +1108,9 @@
       <c r="D28" t="s">
         <v>113</v>
       </c>
+      <c r="E28" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -1241,6 +1253,9 @@
       <c r="D39" t="s">
         <v>79</v>
       </c>
+      <c r="E39" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -1290,6 +1305,9 @@
       </c>
       <c r="D43" t="s">
         <v>83</v>
+      </c>
+      <c r="E43" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">

--- a/Citrix.WEMSDK.xlsx
+++ b/Citrix.WEMSDK.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B101BA89-9726-4CEA-BFA4-C67FAF4F6878}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45831992-E002-4A3A-967E-B1E3FBF762D7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -719,8 +719,8 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
         <v>45</v>

--- a/Citrix.WEMSDK.xlsx
+++ b/Citrix.WEMSDK.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45831992-E002-4A3A-967E-B1E3FBF762D7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EBE1FA-C431-497F-A31A-7DAF1CF86D31}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commands and Aliasses" sheetId="1" r:id="rId1"/>
@@ -720,7 +720,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
+      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
         <v>104</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="B44" t="s">
         <v>50</v>

--- a/Citrix.WEMSDK.xlsx
+++ b/Citrix.WEMSDK.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EBE1FA-C431-497F-A31A-7DAF1CF86D31}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B5A0CE-D861-4FC4-BB8C-AE86545EECAF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="124">
   <si>
     <t>Command</t>
   </si>
@@ -390,6 +390,9 @@
   </si>
   <si>
     <t>New-WEMApp</t>
+  </si>
+  <si>
+    <t>TODO: include the Confirm functionality</t>
   </si>
 </sst>
 </file>
@@ -719,8 +722,8 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,7 +1089,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
         <v>101</v>
@@ -1133,6 +1136,9 @@
       <c r="D30" t="s">
         <v>73</v>
       </c>
+      <c r="E30" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -1143,6 +1149,9 @@
       </c>
       <c r="D31" t="s">
         <v>74</v>
+      </c>
+      <c r="E31" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">

--- a/Citrix.WEMSDK.xlsx
+++ b/Citrix.WEMSDK.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B5A0CE-D861-4FC4-BB8C-AE86545EECAF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318C6711-11EB-4D30-8817-1620465F6872}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="125">
   <si>
     <t>Command</t>
   </si>
@@ -393,6 +393,9 @@
   </si>
   <si>
     <t>TODO: include the Confirm functionality</t>
+  </si>
+  <si>
+    <t>Supports "REG_DWORD", "REG_QDWORD", "REG_SZ", "REG_EXPAND_SZ"</t>
   </si>
 </sst>
 </file>
@@ -723,7 +726,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,6 +1102,9 @@
       </c>
       <c r="D27" t="s">
         <v>112</v>
+      </c>
+      <c r="E27" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">

--- a/Citrix.WEMSDK.xlsx
+++ b/Citrix.WEMSDK.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318C6711-11EB-4D30-8817-1620465F6872}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629C2DC4-E7D2-49BE-A898-B6256582E8B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commands and Aliasses" sheetId="1" r:id="rId1"/>
@@ -726,7 +726,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="B42" t="s">
         <v>48</v>

--- a/Citrix.WEMSDK.xlsx
+++ b/Citrix.WEMSDK.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629C2DC4-E7D2-49BE-A898-B6256582E8B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C248BE6-24D7-4340-A124-C0E0633DC96F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="157">
   <si>
     <t>Command</t>
   </si>
@@ -396,6 +396,102 @@
   </si>
   <si>
     <t>Supports "REG_DWORD", "REG_QDWORD", "REG_SZ", "REG_EXPAND_SZ"</t>
+  </si>
+  <si>
+    <t>Remove-WEMApp</t>
+  </si>
+  <si>
+    <t>Remove-WEMEnvironmentVariable</t>
+  </si>
+  <si>
+    <t>Remove-WEMEnvVariable</t>
+  </si>
+  <si>
+    <t>Remove-WEMExternalTask</t>
+  </si>
+  <si>
+    <t>Remove-WEMExtTask</t>
+  </si>
+  <si>
+    <t>Remove-WEMFileAssociation</t>
+  </si>
+  <si>
+    <t>Remove-WEMFileAssoc</t>
+  </si>
+  <si>
+    <t>Remove-WEMFileSystemOperation</t>
+  </si>
+  <si>
+    <t>Remove-WEMFileSystemOp</t>
+  </si>
+  <si>
+    <t>Remove-WEMIniFileOperation</t>
+  </si>
+  <si>
+    <t>Remove-WEMIniFilesOp</t>
+  </si>
+  <si>
+    <t>Remove-WEMNetworkDrive</t>
+  </si>
+  <si>
+    <t>Remove-WEMNetDrive</t>
+  </si>
+  <si>
+    <t>Remove-WEMPort</t>
+  </si>
+  <si>
+    <t>Remove-WEMPrinter</t>
+  </si>
+  <si>
+    <t>Remove-WEMRegistryEntry</t>
+  </si>
+  <si>
+    <t>Remove-WEMRegValue</t>
+  </si>
+  <si>
+    <t>Remove-WEMUserDSN</t>
+  </si>
+  <si>
+    <t>Remove-WEMVirtualDrive</t>
+  </si>
+  <si>
+    <t>Removes an Environment Variable Action object in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Removes an External Task Action object in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Removes a File Association Action object in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Removes a File System Operation Action object in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Removes an Ini File Operation Action object in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Removes a Network Drive Action object in the WEM Database based on Category.</t>
+  </si>
+  <si>
+    <t>Removes a Port Action object in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Removes a Printer Action object in the WEM Database based on Category.</t>
+  </si>
+  <si>
+    <t>Removes a Registry Entry Action object in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Removes a User DSN Action object in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Removes a Virtual Drive Action object in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Removes an Application object from the WEM Database.</t>
+  </si>
+  <si>
+    <t>Remove-WEMApplication</t>
   </si>
 </sst>
 </file>
@@ -722,18 +818,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="92.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="90" customWidth="1"/>
   </cols>
@@ -1151,10 +1247,13 @@
         <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>156</v>
+      </c>
+      <c r="C31" t="s">
+        <v>125</v>
       </c>
       <c r="D31" t="s">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="E31" t="s">
         <v>123</v>
@@ -1165,13 +1264,13 @@
         <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D32" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="E32" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1179,80 +1278,101 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>126</v>
+      </c>
+      <c r="C33" t="s">
+        <v>127</v>
       </c>
       <c r="D33" t="s">
-        <v>76</v>
+        <v>144</v>
+      </c>
+      <c r="E33" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="C34" t="s">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c r="D34" t="s">
-        <v>85</v>
+        <v>145</v>
+      </c>
+      <c r="E34" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="D35" t="s">
-        <v>86</v>
+        <v>146</v>
+      </c>
+      <c r="E35" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="C36" t="s">
-        <v>53</v>
+        <v>133</v>
       </c>
       <c r="D36" t="s">
-        <v>77</v>
+        <v>147</v>
+      </c>
+      <c r="E36" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>134</v>
       </c>
       <c r="C37" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="D37" t="s">
-        <v>78</v>
+        <v>148</v>
+      </c>
+      <c r="E37" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="C38" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="D38" t="s">
-        <v>87</v>
+        <v>149</v>
+      </c>
+      <c r="E38" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1260,27 +1380,27 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="D39" t="s">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="E39" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>139</v>
       </c>
       <c r="D40" t="s">
-        <v>80</v>
+        <v>151</v>
+      </c>
+      <c r="E40" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1288,13 +1408,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>140</v>
+      </c>
+      <c r="C41" t="s">
+        <v>141</v>
       </c>
       <c r="D41" t="s">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="E41" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1302,27 +1425,27 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="D42" t="s">
-        <v>82</v>
+        <v>153</v>
+      </c>
+      <c r="E42" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="D43" t="s">
-        <v>83</v>
+        <v>154</v>
       </c>
       <c r="E43" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1330,9 +1453,174 @@
         <v>39</v>
       </c>
       <c r="B44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>119</v>
+      </c>
+      <c r="B46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>119</v>
+      </c>
+      <c r="B49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>119</v>
+      </c>
+      <c r="B50" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" t="s">
+        <v>79</v>
+      </c>
+      <c r="E51" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>119</v>
+      </c>
+      <c r="B52" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53" t="s">
+        <v>81</v>
+      </c>
+      <c r="E53" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>119</v>
+      </c>
+      <c r="B55" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" t="s">
+        <v>83</v>
+      </c>
+      <c r="E55" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" t="s">
         <v>50</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D56" t="s">
         <v>84</v>
       </c>
     </row>

--- a/Citrix.WEMSDK.xlsx
+++ b/Citrix.WEMSDK.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C248BE6-24D7-4340-A124-C0E0633DC96F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601C20F3-9860-44E8-BFDE-70038A83C8AC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commands and Aliasses" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="156">
   <si>
     <t>Command</t>
   </si>
@@ -375,9 +375,6 @@
   </si>
   <si>
     <t>Command / Alias</t>
-  </si>
-  <si>
-    <t>In development</t>
   </si>
   <si>
     <t>In Development</t>
@@ -821,8 +818,8 @@
   <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -971,7 +968,7 @@
         <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -996,7 +993,7 @@
         <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1024,7 +1021,7 @@
         <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1046,7 +1043,7 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D16" t="s">
         <v>33</v>
@@ -1076,7 +1073,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>118</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
         <v>88</v>
@@ -1090,7 +1087,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B20" t="s">
         <v>90</v>
@@ -1104,7 +1101,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B21" t="s">
         <v>92</v>
@@ -1118,7 +1115,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B22" t="s">
         <v>94</v>
@@ -1132,7 +1129,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B23" t="s">
         <v>96</v>
@@ -1158,12 +1155,12 @@
         <v>110</v>
       </c>
       <c r="E24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B25" t="s">
         <v>100</v>
@@ -1183,7 +1180,7 @@
         <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1200,12 +1197,12 @@
         <v>112</v>
       </c>
       <c r="E27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B28" t="s">
         <v>103</v>
@@ -1214,7 +1211,7 @@
         <v>113</v>
       </c>
       <c r="E28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1239,7 +1236,7 @@
         <v>73</v>
       </c>
       <c r="E30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1247,16 +1244,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1270,7 +1267,7 @@
         <v>74</v>
       </c>
       <c r="E32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1278,16 +1275,16 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" t="s">
         <v>126</v>
       </c>
-      <c r="C33" t="s">
-        <v>127</v>
-      </c>
       <c r="D33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1295,16 +1292,16 @@
         <v>39</v>
       </c>
       <c r="B34" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" t="s">
         <v>128</v>
       </c>
-      <c r="C34" t="s">
-        <v>129</v>
-      </c>
       <c r="D34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1312,16 +1309,16 @@
         <v>39</v>
       </c>
       <c r="B35" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" t="s">
         <v>130</v>
       </c>
-      <c r="C35" t="s">
-        <v>131</v>
-      </c>
       <c r="D35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1329,16 +1326,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" t="s">
         <v>132</v>
       </c>
-      <c r="C36" t="s">
-        <v>133</v>
-      </c>
       <c r="D36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1346,16 +1343,16 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
+        <v>133</v>
+      </c>
+      <c r="C37" t="s">
         <v>134</v>
       </c>
-      <c r="C37" t="s">
-        <v>135</v>
-      </c>
       <c r="D37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1363,16 +1360,16 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38" t="s">
         <v>136</v>
       </c>
-      <c r="C38" t="s">
-        <v>137</v>
-      </c>
       <c r="D38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1380,13 +1377,13 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1394,13 +1391,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1408,16 +1405,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
+        <v>139</v>
+      </c>
+      <c r="C41" t="s">
         <v>140</v>
       </c>
-      <c r="C41" t="s">
-        <v>141</v>
-      </c>
       <c r="D41" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E41" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1425,13 +1422,13 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1439,13 +1436,13 @@
         <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1475,7 +1472,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="B46" t="s">
         <v>40</v>
@@ -1489,7 +1486,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B47" t="s">
         <v>41</v>
@@ -1503,7 +1500,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B48" t="s">
         <v>42</v>
@@ -1517,7 +1514,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B49" t="s">
         <v>43</v>
@@ -1531,7 +1528,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B50" t="s">
         <v>44</v>
@@ -1557,12 +1554,12 @@
         <v>79</v>
       </c>
       <c r="E51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B52" t="s">
         <v>46</v>
@@ -1582,7 +1579,7 @@
         <v>81</v>
       </c>
       <c r="E53" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1601,7 +1598,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B55" t="s">
         <v>49</v>
@@ -1610,7 +1607,7 @@
         <v>83</v>
       </c>
       <c r="E55" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">

--- a/Citrix.WEMSDK.xlsx
+++ b/Citrix.WEMSDK.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601C20F3-9860-44E8-BFDE-70038A83C8AC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07C18B3-0F10-4377-83E3-C0BE0D00AE47}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -819,7 +819,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,7 +1160,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>118</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
         <v>100</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>118</v>
+        <v>39</v>
       </c>
       <c r="B52" t="s">
         <v>46</v>

--- a/Citrix.WEMSDK.xlsx
+++ b/Citrix.WEMSDK.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07C18B3-0F10-4377-83E3-C0BE0D00AE47}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE0847B-28D4-4886-A3A6-0F0CF4ADD47E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -819,7 +819,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
+      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>118</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
         <v>96</v>
@@ -1528,7 +1528,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>118</v>
+        <v>39</v>
       </c>
       <c r="B50" t="s">
         <v>44</v>

--- a/Citrix.WEMSDK.xlsx
+++ b/Citrix.WEMSDK.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE0847B-28D4-4886-A3A6-0F0CF4ADD47E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FD575B-6272-44A3-9ADA-9B4F3F849CAC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -818,8 +818,8 @@
   <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
         <v>90</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>118</v>
+        <v>39</v>
       </c>
       <c r="B47" t="s">
         <v>41</v>

--- a/Citrix.WEMSDK.xlsx
+++ b/Citrix.WEMSDK.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FD575B-6272-44A3-9ADA-9B4F3F849CAC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDAFECA-16D0-42A5-8DDB-3A2C975779F0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,6 +11,9 @@
     <sheet name="Commands and Aliasses" sheetId="1" r:id="rId1"/>
     <sheet name="Issues" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Commands and Aliasses'!$A$1:$E$56</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -815,11 +818,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,7 +852,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -859,7 +863,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -873,7 +877,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -884,7 +888,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -898,7 +902,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -912,7 +916,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -926,7 +930,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -940,7 +944,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -954,7 +958,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -971,7 +975,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -982,7 +986,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -996,7 +1000,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -1010,7 +1014,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -1024,7 +1028,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -1035,7 +1039,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -1049,7 +1053,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1060,7 +1064,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -1071,7 +1075,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -1085,7 +1089,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -1127,7 +1131,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -1141,7 +1145,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -1158,7 +1162,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -1169,7 +1173,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -1183,7 +1187,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -1214,7 +1218,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1225,7 +1229,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -1239,7 +1243,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -1256,7 +1260,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -1270,7 +1274,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -1287,7 +1291,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -1304,7 +1308,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -1321,7 +1325,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1338,7 +1342,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -1355,7 +1359,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1372,7 +1376,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1386,7 +1390,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -1400,7 +1404,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1417,7 +1421,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -1431,7 +1435,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>39</v>
       </c>
@@ -1445,7 +1449,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>39</v>
       </c>
@@ -1459,7 +1463,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -1470,7 +1474,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>39</v>
       </c>
@@ -1484,7 +1488,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -1526,7 +1530,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>39</v>
       </c>
@@ -1540,7 +1544,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>39</v>
       </c>
@@ -1557,7 +1561,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>39</v>
       </c>
@@ -1568,7 +1572,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>39</v>
       </c>
@@ -1582,7 +1586,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>39</v>
       </c>
@@ -1610,7 +1614,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>39</v>
       </c>
@@ -1622,6 +1626,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E56" xr:uid="{5BB291EF-653F-4FD8-900C-6852B0E4EEFE}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="In Development"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Citrix.WEMSDK.xlsx
+++ b/Citrix.WEMSDK.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDAFECA-16D0-42A5-8DDB-3A2C975779F0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEAD597-DE3B-4D22-85E8-C1AF0AF73C57}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commands and Aliasses" sheetId="1" r:id="rId1"/>
@@ -818,12 +818,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,7 +851,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -863,7 +862,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -877,7 +876,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -888,7 +887,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -902,7 +901,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -916,7 +915,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -930,7 +929,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -944,7 +943,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -958,7 +957,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -975,7 +974,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -986,7 +985,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1000,7 +999,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -1014,7 +1013,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -1028,7 +1027,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -1039,7 +1038,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -1053,7 +1052,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1064,7 +1063,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -1075,7 +1074,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -1089,7 +1088,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -1119,7 +1118,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
         <v>94</v>
@@ -1131,7 +1130,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -1145,7 +1144,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -1162,7 +1161,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -1173,7 +1172,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -1187,7 +1186,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -1218,7 +1217,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1229,7 +1228,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -1243,7 +1242,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -1260,7 +1259,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -1274,7 +1273,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -1291,7 +1290,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -1308,7 +1307,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -1325,7 +1324,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1342,7 +1341,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -1359,7 +1358,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1376,7 +1375,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1390,7 +1389,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -1404,7 +1403,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1421,7 +1420,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -1435,7 +1434,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>39</v>
       </c>
@@ -1449,7 +1448,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>39</v>
       </c>
@@ -1463,7 +1462,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -1474,7 +1473,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>39</v>
       </c>
@@ -1488,7 +1487,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -1518,7 +1517,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>118</v>
+        <v>39</v>
       </c>
       <c r="B49" t="s">
         <v>43</v>
@@ -1530,7 +1529,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>39</v>
       </c>
@@ -1544,7 +1543,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>39</v>
       </c>
@@ -1561,7 +1560,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>39</v>
       </c>
@@ -1572,7 +1571,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>39</v>
       </c>
@@ -1586,7 +1585,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>39</v>
       </c>
@@ -1614,7 +1613,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>39</v>
       </c>
@@ -1626,13 +1625,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E56" xr:uid="{5BB291EF-653F-4FD8-900C-6852B0E4EEFE}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="In Development"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E56" xr:uid="{5BB291EF-653F-4FD8-900C-6852B0E4EEFE}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Citrix.WEMSDK.xlsx
+++ b/Citrix.WEMSDK.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEAD597-DE3B-4D22-85E8-C1AF0AF73C57}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474BC521-0DEA-4336-8B39-07AF875C4B33}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commands and Aliasses" sheetId="1" r:id="rId1"/>
@@ -821,8 +821,8 @@
   <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>118</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
         <v>103</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>118</v>
+        <v>39</v>
       </c>
       <c r="B55" t="s">
         <v>49</v>

--- a/Citrix.WEMSDK.xlsx
+++ b/Citrix.WEMSDK.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474BC521-0DEA-4336-8B39-07AF875C4B33}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69436F8E-A0F5-4539-BAF1-10A9A85AEED5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="155">
   <si>
     <t>Command</t>
   </si>
@@ -378,9 +378,6 @@
   </si>
   <si>
     <t>Command / Alias</t>
-  </si>
-  <si>
-    <t>In Development</t>
   </si>
   <si>
     <t>Password is not decoded!</t>
@@ -822,7 +819,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
+      <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -971,7 +968,7 @@
         <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -996,7 +993,7 @@
         <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1024,7 +1021,7 @@
         <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1046,7 +1043,7 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D16" t="s">
         <v>33</v>
@@ -1104,7 +1101,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>118</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
         <v>92</v>
@@ -1158,7 +1155,7 @@
         <v>110</v>
       </c>
       <c r="E24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1183,7 +1180,7 @@
         <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1200,7 +1197,7 @@
         <v>112</v>
       </c>
       <c r="E27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1214,7 +1211,7 @@
         <v>113</v>
       </c>
       <c r="E28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1239,7 +1236,7 @@
         <v>73</v>
       </c>
       <c r="E30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1247,16 +1244,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1270,7 +1267,7 @@
         <v>74</v>
       </c>
       <c r="E32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1278,16 +1275,16 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" t="s">
         <v>125</v>
       </c>
-      <c r="C33" t="s">
-        <v>126</v>
-      </c>
       <c r="D33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1295,16 +1292,16 @@
         <v>39</v>
       </c>
       <c r="B34" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" t="s">
         <v>127</v>
       </c>
-      <c r="C34" t="s">
-        <v>128</v>
-      </c>
       <c r="D34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1312,16 +1309,16 @@
         <v>39</v>
       </c>
       <c r="B35" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" t="s">
         <v>129</v>
       </c>
-      <c r="C35" t="s">
-        <v>130</v>
-      </c>
       <c r="D35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1329,16 +1326,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" t="s">
         <v>131</v>
       </c>
-      <c r="C36" t="s">
-        <v>132</v>
-      </c>
       <c r="D36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1346,16 +1343,16 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" t="s">
         <v>133</v>
       </c>
-      <c r="C37" t="s">
-        <v>134</v>
-      </c>
       <c r="D37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1363,16 +1360,16 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" t="s">
         <v>135</v>
       </c>
-      <c r="C38" t="s">
-        <v>136</v>
-      </c>
       <c r="D38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1380,13 +1377,13 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1394,13 +1391,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D40" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1408,16 +1405,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" t="s">
         <v>139</v>
       </c>
-      <c r="C41" t="s">
-        <v>140</v>
-      </c>
       <c r="D41" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1425,13 +1422,13 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1439,13 +1436,13 @@
         <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D43" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1503,7 +1500,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>118</v>
+        <v>39</v>
       </c>
       <c r="B48" t="s">
         <v>42</v>
@@ -1557,7 +1554,7 @@
         <v>79</v>
       </c>
       <c r="E51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1582,7 +1579,7 @@
         <v>81</v>
       </c>
       <c r="E53" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1610,7 +1607,7 @@
         <v>83</v>
       </c>
       <c r="E55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">

--- a/Citrix.WEMSDK.xlsx
+++ b/Citrix.WEMSDK.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69436F8E-A0F5-4539-BAF1-10A9A85AEED5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7FB08F-FE26-47E0-BDA6-EF467E27670F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="Issues" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Commands and Aliasses'!$A$1:$E$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Commands and Aliasses'!$A$1:$E$60</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="164">
   <si>
     <t>Command</t>
   </si>
@@ -489,6 +489,33 @@
   </si>
   <si>
     <t>Remove-WEMApplication</t>
+  </si>
+  <si>
+    <t>Get-WEMADObject</t>
+  </si>
+  <si>
+    <t>Returns one or more Active Directoryobjects from the WEM Database.</t>
+  </si>
+  <si>
+    <t>New-WEMADObject</t>
+  </si>
+  <si>
+    <t>Create a new Active Directory object in the WEM Database.</t>
+  </si>
+  <si>
+    <t>In Development</t>
+  </si>
+  <si>
+    <t>Remove-WEMADObject</t>
+  </si>
+  <si>
+    <t>Removes an Active Directory object from the WEM Database.</t>
+  </si>
+  <si>
+    <t>Set-WEMADObject</t>
+  </si>
+  <si>
+    <t>Updates an Active Directory object in the WEM Database.</t>
   </si>
 </sst>
 </file>
@@ -815,11 +842,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,13 +891,10 @@
         <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
+        <v>155</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -878,10 +902,13 @@
         <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -889,13 +916,10 @@
         <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -903,13 +927,13 @@
         <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -917,13 +941,13 @@
         <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -931,13 +955,13 @@
         <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -945,13 +969,13 @@
         <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -959,16 +983,13 @@
         <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -976,10 +997,16 @@
         <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="E11" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -987,13 +1014,10 @@
         <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1001,13 +1025,13 @@
         <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="E13" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1015,13 +1039,13 @@
         <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1029,10 +1053,13 @@
         <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="E15" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1040,13 +1067,10 @@
         <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1054,10 +1078,10 @@
         <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>157</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1065,10 +1089,13 @@
         <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>120</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1076,13 +1103,10 @@
         <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1090,13 +1114,10 @@
         <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>106</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1104,13 +1125,13 @@
         <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1118,13 +1139,13 @@
         <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C22" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1132,13 +1153,13 @@
         <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1146,16 +1167,13 @@
         <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D24" t="s">
-        <v>110</v>
-      </c>
-      <c r="E24" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1163,10 +1181,13 @@
         <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>96</v>
+      </c>
+      <c r="C25" t="s">
+        <v>97</v>
       </c>
       <c r="D25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1174,10 +1195,13 @@
         <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>98</v>
+      </c>
+      <c r="C26" t="s">
+        <v>99</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="E26" t="s">
         <v>119</v>
@@ -1188,16 +1212,10 @@
         <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D27" t="s">
-        <v>112</v>
-      </c>
-      <c r="E27" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1205,10 +1223,10 @@
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="E28" t="s">
         <v>119</v>
@@ -1219,10 +1237,16 @@
         <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>104</v>
+        <v>101</v>
+      </c>
+      <c r="C29" t="s">
+        <v>102</v>
       </c>
       <c r="D29" t="s">
-        <v>114</v>
+        <v>112</v>
+      </c>
+      <c r="E29" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1230,13 +1254,13 @@
         <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="D30" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="E30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1244,16 +1268,10 @@
         <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>154</v>
-      </c>
-      <c r="C31" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="D31" t="s">
-        <v>153</v>
-      </c>
-      <c r="E31" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1261,10 +1279,10 @@
         <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E32" t="s">
         <v>121</v>
@@ -1272,19 +1290,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>159</v>
       </c>
       <c r="B33" t="s">
-        <v>124</v>
-      </c>
-      <c r="C33" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="D33" t="s">
-        <v>142</v>
-      </c>
-      <c r="E33" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1292,13 +1304,13 @@
         <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="C34" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D34" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E34" t="s">
         <v>121</v>
@@ -1309,13 +1321,10 @@
         <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>128</v>
-      </c>
-      <c r="C35" t="s">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="D35" t="s">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="E35" t="s">
         <v>121</v>
@@ -1326,13 +1335,13 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C36" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D36" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E36" t="s">
         <v>121</v>
@@ -1343,13 +1352,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C37" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D37" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E37" t="s">
         <v>121</v>
@@ -1360,13 +1369,13 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C38" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D38" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E38" t="s">
         <v>121</v>
@@ -1377,10 +1386,13 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>136</v>
+        <v>130</v>
+      </c>
+      <c r="C39" t="s">
+        <v>131</v>
       </c>
       <c r="D39" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E39" t="s">
         <v>121</v>
@@ -1391,10 +1403,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>137</v>
+        <v>132</v>
+      </c>
+      <c r="C40" t="s">
+        <v>133</v>
       </c>
       <c r="D40" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E40" t="s">
         <v>121</v>
@@ -1405,13 +1420,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C41" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D41" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E41" t="s">
         <v>121</v>
@@ -1422,10 +1437,10 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D42" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E42" t="s">
         <v>121</v>
@@ -1436,10 +1451,10 @@
         <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D43" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E43" t="s">
         <v>121</v>
@@ -1450,13 +1465,16 @@
         <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="C44" t="s">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="D44" t="s">
-        <v>75</v>
+        <v>150</v>
+      </c>
+      <c r="E44" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1464,10 +1482,13 @@
         <v>39</v>
       </c>
       <c r="B45" t="s">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="D45" t="s">
-        <v>76</v>
+        <v>151</v>
+      </c>
+      <c r="E45" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1475,27 +1496,24 @@
         <v>39</v>
       </c>
       <c r="B46" t="s">
-        <v>40</v>
-      </c>
-      <c r="C46" t="s">
-        <v>51</v>
+        <v>141</v>
       </c>
       <c r="D46" t="s">
-        <v>85</v>
+        <v>152</v>
+      </c>
+      <c r="E46" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>159</v>
       </c>
       <c r="B47" t="s">
-        <v>41</v>
-      </c>
-      <c r="C47" t="s">
-        <v>52</v>
+        <v>162</v>
       </c>
       <c r="D47" t="s">
-        <v>86</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1503,13 +1521,13 @@
         <v>39</v>
       </c>
       <c r="B48" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C48" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D48" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1517,13 +1535,10 @@
         <v>39</v>
       </c>
       <c r="B49" t="s">
-        <v>43</v>
-      </c>
-      <c r="C49" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="D49" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1531,13 +1546,13 @@
         <v>39</v>
       </c>
       <c r="B50" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C50" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D50" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1545,16 +1560,13 @@
         <v>39</v>
       </c>
       <c r="B51" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C51" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D51" t="s">
-        <v>79</v>
-      </c>
-      <c r="E51" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1562,10 +1574,13 @@
         <v>39</v>
       </c>
       <c r="B52" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="C52" t="s">
+        <v>53</v>
       </c>
       <c r="D52" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1573,13 +1588,13 @@
         <v>39</v>
       </c>
       <c r="B53" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="C53" t="s">
+        <v>54</v>
       </c>
       <c r="D53" t="s">
-        <v>81</v>
-      </c>
-      <c r="E53" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1587,13 +1602,13 @@
         <v>39</v>
       </c>
       <c r="B54" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C54" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D54" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1601,10 +1616,13 @@
         <v>39</v>
       </c>
       <c r="B55" t="s">
-        <v>49</v>
+        <v>45</v>
+      </c>
+      <c r="C55" t="s">
+        <v>56</v>
       </c>
       <c r="D55" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E55" t="s">
         <v>119</v>
@@ -1615,14 +1633,67 @@
         <v>39</v>
       </c>
       <c r="B56" t="s">
+        <v>46</v>
+      </c>
+      <c r="D56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" t="s">
+        <v>81</v>
+      </c>
+      <c r="E57" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" t="s">
+        <v>48</v>
+      </c>
+      <c r="C58" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>39</v>
+      </c>
+      <c r="B59" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" t="s">
+        <v>83</v>
+      </c>
+      <c r="E59" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>39</v>
+      </c>
+      <c r="B60" t="s">
         <v>50</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D60" t="s">
         <v>84</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E56" xr:uid="{5BB291EF-653F-4FD8-900C-6852B0E4EEFE}"/>
+  <autoFilter ref="A1:E60" xr:uid="{5BB291EF-653F-4FD8-900C-6852B0E4EEFE}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Citrix.WEMSDK.xlsx
+++ b/Citrix.WEMSDK.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7FB08F-FE26-47E0-BDA6-EF467E27670F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54CCE6C-126A-418F-8894-A498449EF160}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="168">
   <si>
     <t>Command</t>
   </si>
@@ -516,6 +516,18 @@
   </si>
   <si>
     <t>Updates an Active Directory object in the WEM Database.</t>
+  </si>
+  <si>
+    <t>TODO: Enable Directory Search to include Trusted Domains</t>
+  </si>
+  <si>
+    <t>TODO: Make this global so you don't have to pass a connection object to each and every function</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Changelog Name field should contain Netbios account name, not SID</t>
   </si>
 </sst>
 </file>
@@ -559,9 +571,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -845,8 +860,8 @@
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,6 +1098,9 @@
       <c r="D17" t="s">
         <v>158</v>
       </c>
+      <c r="E17" s="2" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -1119,6 +1137,9 @@
       <c r="D20" t="s">
         <v>35</v>
       </c>
+      <c r="E20" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -1290,13 +1311,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>159</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
         <v>160</v>
       </c>
       <c r="D33" t="s">
         <v>161</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1701,11 +1725,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B53A6F-3A05-4B93-AB8B-0138373E3E62}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1725,6 +1749,28 @@
         <v>115</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" t="s">
+        <v>167</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Citrix.WEMSDK.xlsx
+++ b/Citrix.WEMSDK.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54CCE6C-126A-418F-8894-A498449EF160}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF83590F-955D-42E8-BCE4-E7DE69BE7C98}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commands and Aliasses" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="167">
   <si>
     <t>Command</t>
   </si>
@@ -503,9 +503,6 @@
     <t>Create a new Active Directory object in the WEM Database.</t>
   </si>
   <si>
-    <t>In Development</t>
-  </si>
-  <si>
     <t>Remove-WEMADObject</t>
   </si>
   <si>
@@ -521,13 +518,13 @@
     <t>TODO: Enable Directory Search to include Trusted Domains</t>
   </si>
   <si>
-    <t>TODO: Make this global so you don't have to pass a connection object to each and every function</t>
-  </si>
-  <si>
-    <t>New</t>
-  </si>
-  <si>
     <t>Changelog Name field should contain Netbios account name, not SID</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>Added Get-ActiveDirectoryName function that returns an object containing the Netbios account name. Input SID</t>
   </si>
 </sst>
 </file>
@@ -860,8 +857,8 @@
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,7 +1096,7 @@
         <v>158</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1137,9 +1134,6 @@
       <c r="D20" t="s">
         <v>35</v>
       </c>
-      <c r="E20" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -1314,10 +1308,10 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
+        <v>159</v>
+      </c>
+      <c r="D33" t="s">
         <v>160</v>
-      </c>
-      <c r="D33" t="s">
-        <v>161</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>121</v>
@@ -1531,13 +1525,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>159</v>
+        <v>39</v>
       </c>
       <c r="B47" t="s">
+        <v>161</v>
+      </c>
+      <c r="D47" t="s">
         <v>162</v>
-      </c>
-      <c r="D47" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1725,20 +1719,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B53A6F-3A05-4B93-AB8B-0138373E3E62}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="32.42578125" customWidth="1"/>
-    <col min="3" max="3" width="177.140625" customWidth="1"/>
+    <col min="3" max="3" width="88.7109375" customWidth="1"/>
+    <col min="4" max="4" width="102.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -1748,27 +1743,36 @@
       <c r="C1" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
         <v>157</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+      <c r="D2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" t="s">
         <v>166</v>
-      </c>
-      <c r="B3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C3" t="s">
-        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/Citrix.WEMSDK.xlsx
+++ b/Citrix.WEMSDK.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF83590F-955D-42E8-BCE4-E7DE69BE7C98}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F577D6-83CF-4EB7-A003-FDFD7F0B1F25}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,17 +14,23 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Commands and Aliasses'!$A$1:$E$60</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="184">
   <si>
     <t>Command</t>
   </si>
@@ -503,6 +509,9 @@
     <t>Create a new Active Directory object in the WEM Database.</t>
   </si>
   <si>
+    <t>In Development</t>
+  </si>
+  <si>
     <t>Remove-WEMADObject</t>
   </si>
   <si>
@@ -525,6 +534,54 @@
   </si>
   <si>
     <t>Added Get-ActiveDirectoryName function that returns an object containing the Netbios account name. Input SID</t>
+  </si>
+  <si>
+    <t>Get-WEMCondition</t>
+  </si>
+  <si>
+    <t>Returns one or more Filter Condition objects from the WEM Database.</t>
+  </si>
+  <si>
+    <t>Set-WEMCondition</t>
+  </si>
+  <si>
+    <t>New-WEMCondition</t>
+  </si>
+  <si>
+    <t>Remove-WEMCondition</t>
+  </si>
+  <si>
+    <t>Removes a Filter Condition object from the WEM Database.</t>
+  </si>
+  <si>
+    <t>Creates a Filter Condition object from the WEM Database.</t>
+  </si>
+  <si>
+    <t>Updates a Filter Condition object from the WEM Database.</t>
+  </si>
+  <si>
+    <t>Get-WEMRule</t>
+  </si>
+  <si>
+    <t>Set-WEMRule</t>
+  </si>
+  <si>
+    <t>New-WEMRule</t>
+  </si>
+  <si>
+    <t>Remove-WEMRule</t>
+  </si>
+  <si>
+    <t>Returns one or more Filter Rule objects from the WEM Database.</t>
+  </si>
+  <si>
+    <t>Updates a Filter Rule object from the WEM Database.</t>
+  </si>
+  <si>
+    <t>Creates a Filter Rule object from the WEM Database.</t>
+  </si>
+  <si>
+    <t>Removes a Filter Rule object from the WEM Database.</t>
   </si>
 </sst>
 </file>
@@ -854,11 +911,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A47" sqref="A47"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1096,7 +1153,7 @@
         <v>158</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1308,10 +1365,10 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D33" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>121</v>
@@ -1528,10 +1585,10 @@
         <v>39</v>
       </c>
       <c r="B47" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D47" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1708,6 +1765,94 @@
       </c>
       <c r="D60" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>39</v>
+      </c>
+      <c r="B61" t="s">
+        <v>168</v>
+      </c>
+      <c r="D61" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>159</v>
+      </c>
+      <c r="B62" t="s">
+        <v>170</v>
+      </c>
+      <c r="D62" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" t="s">
+        <v>171</v>
+      </c>
+      <c r="D63" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>159</v>
+      </c>
+      <c r="B64" t="s">
+        <v>172</v>
+      </c>
+      <c r="D64" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>159</v>
+      </c>
+      <c r="B65" t="s">
+        <v>176</v>
+      </c>
+      <c r="D65" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>159</v>
+      </c>
+      <c r="B66" t="s">
+        <v>177</v>
+      </c>
+      <c r="D66" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>159</v>
+      </c>
+      <c r="B67" t="s">
+        <v>178</v>
+      </c>
+      <c r="D67" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>159</v>
+      </c>
+      <c r="B68" t="s">
+        <v>179</v>
+      </c>
+      <c r="D68" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -1749,30 +1894,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B2" t="s">
         <v>157</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" t="s">
         <v>165</v>
       </c>
-      <c r="B3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C3" t="s">
-        <v>164</v>
-      </c>
       <c r="D3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/Citrix.WEMSDK.xlsx
+++ b/Citrix.WEMSDK.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F577D6-83CF-4EB7-A003-FDFD7F0B1F25}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B32A263-7D06-40BE-9C7F-9F0904AE6706}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -914,8 +914,8 @@
   <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1780,7 +1780,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>159</v>
+        <v>39</v>
       </c>
       <c r="B62" t="s">
         <v>170</v>
@@ -1802,7 +1802,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>159</v>
+        <v>39</v>
       </c>
       <c r="B64" t="s">
         <v>172</v>

--- a/Citrix.WEMSDK.xlsx
+++ b/Citrix.WEMSDK.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B32A263-7D06-40BE-9C7F-9F0904AE6706}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0F97DA-DA17-4827-B44B-FC38075A2C6A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commands and Aliasses" sheetId="1" r:id="rId1"/>
@@ -915,7 +915,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
+      <selection pane="bottomLeft" activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>159</v>
+        <v>39</v>
       </c>
       <c r="B65" t="s">
         <v>176</v>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>159</v>
+        <v>39</v>
       </c>
       <c r="B67" t="s">
         <v>178</v>

--- a/Citrix.WEMSDK.xlsx
+++ b/Citrix.WEMSDK.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0F97DA-DA17-4827-B44B-FC38075A2C6A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580FBFB5-A214-41D5-AABF-3B5EA9AB9837}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="184">
   <si>
     <t>Command</t>
   </si>
@@ -509,9 +509,6 @@
     <t>Create a new Active Directory object in the WEM Database.</t>
   </si>
   <si>
-    <t>In Development</t>
-  </si>
-  <si>
     <t>Remove-WEMADObject</t>
   </si>
   <si>
@@ -582,6 +579,9 @@
   </si>
   <si>
     <t>Removes a Filter Rule object from the WEM Database.</t>
+  </si>
+  <si>
+    <t>TODO: Decide what to do with Condition References in Rules</t>
   </si>
 </sst>
 </file>
@@ -915,7 +915,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A67" sqref="A67"/>
+      <selection pane="bottomLeft" activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1153,7 +1153,7 @@
         <v>158</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1365,10 +1365,10 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
+        <v>159</v>
+      </c>
+      <c r="D33" t="s">
         <v>160</v>
-      </c>
-      <c r="D33" t="s">
-        <v>161</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>121</v>
@@ -1585,10 +1585,10 @@
         <v>39</v>
       </c>
       <c r="B47" t="s">
+        <v>161</v>
+      </c>
+      <c r="D47" t="s">
         <v>162</v>
-      </c>
-      <c r="D47" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1772,10 +1772,10 @@
         <v>39</v>
       </c>
       <c r="B61" t="s">
+        <v>167</v>
+      </c>
+      <c r="D61" t="s">
         <v>168</v>
-      </c>
-      <c r="D61" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -1783,10 +1783,10 @@
         <v>39</v>
       </c>
       <c r="B62" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D62" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -1794,10 +1794,10 @@
         <v>39</v>
       </c>
       <c r="B63" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D63" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -1805,10 +1805,13 @@
         <v>39</v>
       </c>
       <c r="B64" t="s">
+        <v>171</v>
+      </c>
+      <c r="D64" t="s">
         <v>172</v>
       </c>
-      <c r="D64" t="s">
-        <v>173</v>
+      <c r="E64" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1816,21 +1819,21 @@
         <v>39</v>
       </c>
       <c r="B65" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D65" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>159</v>
+        <v>39</v>
       </c>
       <c r="B66" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D66" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1838,21 +1841,21 @@
         <v>39</v>
       </c>
       <c r="B67" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D67" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>159</v>
+        <v>39</v>
       </c>
       <c r="B68" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D68" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -1868,7 +1871,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1894,30 +1897,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
         <v>157</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" t="s">
         <v>166</v>
-      </c>
-      <c r="B3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D3" t="s">
-        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/Citrix.WEMSDK.xlsx
+++ b/Citrix.WEMSDK.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580FBFB5-A214-41D5-AABF-3B5EA9AB9837}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFDE2FF-103D-4790-A847-608C9C9B6AD9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commands and Aliasses" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="193">
   <si>
     <t>Command</t>
   </si>
@@ -582,6 +582,33 @@
   </si>
   <si>
     <t>TODO: Decide what to do with Condition References in Rules</t>
+  </si>
+  <si>
+    <t>Get-WEMActionGroup</t>
+  </si>
+  <si>
+    <t>New-WEMActionGroup</t>
+  </si>
+  <si>
+    <t>Set-WEMActionGroup</t>
+  </si>
+  <si>
+    <t>Remove-WEMActionGroup</t>
+  </si>
+  <si>
+    <t>Returns one or more Action Group objects from the WEM Database.</t>
+  </si>
+  <si>
+    <t>Updates an Action Group object from the WEM Database.</t>
+  </si>
+  <si>
+    <t>Creates an Action Group object from the WEM Database.</t>
+  </si>
+  <si>
+    <t>Removes an Action Group object from the WEM Database.</t>
+  </si>
+  <si>
+    <t>In Development</t>
   </si>
 </sst>
 </file>
@@ -911,11 +938,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E64" sqref="E64"/>
+      <selection pane="bottomLeft" activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1856,6 +1883,50 @@
       </c>
       <c r="D68" t="s">
         <v>182</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>39</v>
+      </c>
+      <c r="B69" t="s">
+        <v>184</v>
+      </c>
+      <c r="D69" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>39</v>
+      </c>
+      <c r="B70" t="s">
+        <v>185</v>
+      </c>
+      <c r="D70" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>192</v>
+      </c>
+      <c r="B71" t="s">
+        <v>186</v>
+      </c>
+      <c r="D71" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>39</v>
+      </c>
+      <c r="B72" t="s">
+        <v>187</v>
+      </c>
+      <c r="D72" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/Citrix.WEMSDK.xlsx
+++ b/Citrix.WEMSDK.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21815"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFDE2FF-103D-4790-A847-608C9C9B6AD9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02430E3-FF0C-4BFD-AF42-B1E6959C9B07}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="192">
   <si>
     <t>Command</t>
   </si>
@@ -606,9 +606,6 @@
   </si>
   <si>
     <t>Removes an Action Group object from the WEM Database.</t>
-  </si>
-  <si>
-    <t>In Development</t>
   </si>
 </sst>
 </file>
@@ -942,7 +939,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A72" sqref="A72"/>
+      <selection pane="bottomLeft" activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1909,7 +1906,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>192</v>
+        <v>39</v>
       </c>
       <c r="B71" t="s">
         <v>186</v>

--- a/Citrix.WEMSDK.xlsx
+++ b/Citrix.WEMSDK.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21815"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02430E3-FF0C-4BFD-AF42-B1E6959C9B07}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F831C7E-371E-4721-B849-7C3DD1AC46C1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="201">
   <si>
     <t>Command</t>
   </si>
@@ -606,6 +606,33 @@
   </si>
   <si>
     <t>Removes an Action Group object from the WEM Database.</t>
+  </si>
+  <si>
+    <t>In Development</t>
+  </si>
+  <si>
+    <t>Get-WEMAssignment</t>
+  </si>
+  <si>
+    <t>New-WEMAssignment</t>
+  </si>
+  <si>
+    <t>Set-WEMAssignment</t>
+  </si>
+  <si>
+    <t>Remove-WEMAssignment</t>
+  </si>
+  <si>
+    <t>Returns one or more Assignment objects from the WEM Database.</t>
+  </si>
+  <si>
+    <t>Updates an Assignment object from the WEM Database.</t>
+  </si>
+  <si>
+    <t>Creates an Assignment object from the WEM Database.</t>
+  </si>
+  <si>
+    <t>Removes an Assignment object from the WEM Database.</t>
   </si>
 </sst>
 </file>
@@ -935,10 +962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
@@ -1924,6 +1951,50 @@
       </c>
       <c r="D72" t="s">
         <v>191</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>39</v>
+      </c>
+      <c r="B73" t="s">
+        <v>193</v>
+      </c>
+      <c r="D73" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>192</v>
+      </c>
+      <c r="B74" t="s">
+        <v>194</v>
+      </c>
+      <c r="D74" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>192</v>
+      </c>
+      <c r="B75" t="s">
+        <v>195</v>
+      </c>
+      <c r="D75" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>192</v>
+      </c>
+      <c r="B76" t="s">
+        <v>196</v>
+      </c>
+      <c r="D76" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/Citrix.WEMSDK.xlsx
+++ b/Citrix.WEMSDK.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21815"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D629EAA-DE13-4926-8D91-C38918B4F2C8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D977D4C7-1161-4580-ABEC-60ADE157487B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="333">
   <si>
     <t>Command</t>
   </si>
@@ -133,12 +133,6 @@
     <t>Get-WEMRegValue</t>
   </si>
   <si>
-    <t>Create a new Application Action object in the WEM Database.</t>
-  </si>
-  <si>
-    <t>Create a new Printer Action object in the WEM Database.</t>
-  </si>
-  <si>
     <t>Sets up a database connection.</t>
   </si>
   <si>
@@ -250,9 +244,6 @@
     <t>Returns one or more Virtual Drive Action objects from the WEM Database.</t>
   </si>
   <si>
-    <t>Create a new Configuration object in the WEM Database.</t>
-  </si>
-  <si>
     <t>Removes an Action object from the WEM Database.</t>
   </si>
   <si>
@@ -385,9 +376,6 @@
     <t>Command / Alias</t>
   </si>
   <si>
-    <t>Password is not decoded!</t>
-  </si>
-  <si>
     <t>New-WEMApp</t>
   </si>
   <si>
@@ -469,9 +457,6 @@
     <t>New-WEMADObject</t>
   </si>
   <si>
-    <t>Create a new Active Directory object in the WEM Database.</t>
-  </si>
-  <si>
     <t>Remove-WEMADObject</t>
   </si>
   <si>
@@ -532,9 +517,6 @@
     <t>Removes a Filter Rule object from the WEM Database.</t>
   </si>
   <si>
-    <t>TODO: Decide what to do with Condition References in Rules</t>
-  </si>
-  <si>
     <t>Get-WEMActionGroup</t>
   </si>
   <si>
@@ -568,9 +550,6 @@
     <t>Removes an Assignment object from the WEM Database.</t>
   </si>
   <si>
-    <t>Create a new Application Assignment object in the WEM Database.</t>
-  </si>
-  <si>
     <t>Creates an Environment Variable Assignment object in the WEM Database.</t>
   </si>
   <si>
@@ -592,9 +571,6 @@
     <t>Creates a Port Assignment object in the WEM Database.</t>
   </si>
   <si>
-    <t>Create a new Printer Assignment object in the WEM Database.</t>
-  </si>
-  <si>
     <t>Creates a Registry Entry Assignment object in the WEM Database.</t>
   </si>
   <si>
@@ -790,9 +766,6 @@
     <t>New-WEMActionGroupAssignment</t>
   </si>
   <si>
-    <t>Create a new Action Group Assignment object in the WEM Database.</t>
-  </si>
-  <si>
     <t>Removes an Application Assignment object from the WEM Database.</t>
   </si>
   <si>
@@ -1031,6 +1004,33 @@
   </si>
   <si>
     <t>New-WEMRegValueAssignment</t>
+  </si>
+  <si>
+    <t>Cannot get password yet: need encryption algorythm (AES256 and encryption string)</t>
+  </si>
+  <si>
+    <t>TODO: include the Confirm functionality. Decide what to do with Condition References in Rules</t>
+  </si>
+  <si>
+    <t>Creates an Active Directory object in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Creates an Application Action object in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Creates a Configuration object in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Creates a Printer Action object in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Creates an Action Group Assignment object in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Creates an Application Assignment object in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Creates a Printer Assignment object in the WEM Database.</t>
   </si>
 </sst>
 </file>
@@ -1381,13 +1381,13 @@
     <col min="2" max="2" width="38.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="81" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="77.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1399,45 +1399,45 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -1446,45 +1446,45 @@
         <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>6</v>
@@ -1493,12 +1493,12 @@
         <v>26</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>7</v>
@@ -1507,12 +1507,12 @@
         <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>8</v>
@@ -1521,12 +1521,12 @@
         <v>28</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
@@ -1535,12 +1535,12 @@
         <v>29</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>10</v>
@@ -1549,12 +1549,12 @@
         <v>30</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>11</v>
@@ -1563,40 +1563,40 @@
         <v>31</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>117</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>117</v>
+        <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>14</v>
@@ -1605,1491 +1605,1497 @@
         <v>32</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>117</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>33</v>
+        <v>327</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>72</v>
+        <v>328</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>34</v>
+        <v>329</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>166</v>
+        <v>325</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C64" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>173</v>
+        <v>37</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>173</v>
+        <v>37</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>173</v>
+        <v>37</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>173</v>
+        <v>37</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>173</v>
+        <v>37</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>173</v>
+        <v>37</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>173</v>
+        <v>37</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>173</v>
+        <v>37</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>173</v>
+        <v>37</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>173</v>
+        <v>37</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>173</v>
+        <v>37</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>310</v>
-      </c>
       <c r="D85" s="2" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>173</v>
+        <v>37</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>173</v>
+        <v>37</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>252</v>
+        <v>330</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>178</v>
+        <v>331</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>186</v>
+        <v>332</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>173</v>
+        <v>37</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>173</v>
+        <v>37</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>173</v>
+        <v>37</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>173</v>
+        <v>37</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>173</v>
+        <v>37</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>173</v>
+        <v>37</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>173</v>
+        <v>37</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>173</v>
+        <v>37</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>173</v>
+        <v>37</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>173</v>
+        <v>37</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>173</v>
+        <v>37</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>173</v>
+        <v>37</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>173</v>
+        <v>37</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -3123,44 +3129,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/Citrix.WEMSDK.xlsx
+++ b/Citrix.WEMSDK.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21815"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D977D4C7-1161-4580-ABEC-60ADE157487B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE7B17B-6677-42E7-9547-58A55B3DB129}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1371,8 +1371,8 @@
   <dimension ref="A1:E126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2571,7 +2571,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>211</v>
@@ -2585,7 +2585,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>212</v>
@@ -2599,7 +2599,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>213</v>
@@ -2613,7 +2613,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>214</v>
@@ -2627,7 +2627,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>215</v>
@@ -2641,7 +2641,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>216</v>
@@ -2655,7 +2655,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>217</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>218</v>
@@ -2680,7 +2680,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>219</v>
@@ -2691,7 +2691,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>220</v>
@@ -2705,7 +2705,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>221</v>
@@ -2716,7 +2716,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>222</v>
@@ -2944,7 +2944,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>247</v>
@@ -3028,7 +3028,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>253</v>
@@ -3053,7 +3053,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>255</v>
@@ -3089,7 +3089,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>258</v>

--- a/Citrix.WEMSDK.xlsx
+++ b/Citrix.WEMSDK.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21815"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE7B17B-6677-42E7-9547-58A55B3DB129}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36241144-23DE-4457-A301-0AC79E04996A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1372,7 +1372,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A99" sqref="A99"/>
+      <selection pane="bottomLeft" activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2958,7 +2958,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>248</v>
@@ -2972,7 +2972,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>249</v>
@@ -2986,7 +2986,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>250</v>
@@ -3000,7 +3000,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>251</v>
@@ -3014,7 +3014,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>252</v>
@@ -3042,7 +3042,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>254</v>
@@ -3064,7 +3064,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>256</v>
@@ -3078,7 +3078,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>257</v>

--- a/Citrix.WEMSDK.xlsx
+++ b/Citrix.WEMSDK.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21815"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36241144-23DE-4457-A301-0AC79E04996A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34499E6-CD7A-4B16-B951-0A3028E8CA5D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commands and Aliasses" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Commands and Aliasses'!$A$1:$E$126</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="332">
   <si>
     <t>Command</t>
   </si>
@@ -533,9 +534,6 @@
   </si>
   <si>
     <t>Removes an Action Group object from the WEM Database.</t>
-  </si>
-  <si>
-    <t>In Development</t>
   </si>
   <si>
     <t>Get-WEMAssignment</t>
@@ -1371,8 +1369,8 @@
   <dimension ref="A1:E126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B126" sqref="B126"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1454,10 +1452,10 @@
         <v>37</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1566,7 +1564,7 @@
         <v>64</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1591,7 +1589,7 @@
         <v>66</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1630,7 +1628,7 @@
         <v>68</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1652,7 +1650,7 @@
         <v>162</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1663,7 +1661,7 @@
         <v>140</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>145</v>
@@ -1680,7 +1678,7 @@
         <v>114</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1691,7 +1689,7 @@
         <v>152</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1702,7 +1700,7 @@
         <v>18</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1800,7 +1798,7 @@
         <v>106</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1822,10 +1820,10 @@
         <v>20</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1853,7 +1851,7 @@
         <v>157</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1867,7 +1865,7 @@
         <v>109</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1945,10 +1943,10 @@
         <v>37</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>115</v>
@@ -1965,7 +1963,7 @@
         <v>154</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1976,7 +1974,7 @@
         <v>22</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>115</v>
@@ -1993,7 +1991,7 @@
         <v>119</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>115</v>
@@ -2010,7 +2008,7 @@
         <v>121</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>115</v>
@@ -2027,7 +2025,7 @@
         <v>123</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>115</v>
@@ -2044,7 +2042,7 @@
         <v>125</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>115</v>
@@ -2061,7 +2059,7 @@
         <v>127</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>115</v>
@@ -2078,7 +2076,7 @@
         <v>129</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>115</v>
@@ -2092,7 +2090,7 @@
         <v>130</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>115</v>
@@ -2106,7 +2104,7 @@
         <v>131</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>115</v>
@@ -2123,7 +2121,7 @@
         <v>133</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>115</v>
@@ -2151,7 +2149,7 @@
         <v>134</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>115</v>
@@ -2165,7 +2163,7 @@
         <v>135</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>115</v>
@@ -2179,7 +2177,7 @@
         <v>163</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -2215,7 +2213,7 @@
         <v>151</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -2313,7 +2311,7 @@
         <v>75</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -2338,7 +2336,7 @@
         <v>77</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -2363,7 +2361,7 @@
         <v>156</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -2377,7 +2375,7 @@
         <v>79</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -2396,10 +2394,10 @@
         <v>37</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -2407,13 +2405,13 @@
         <v>37</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -2421,13 +2419,13 @@
         <v>37</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -2435,13 +2433,13 @@
         <v>37</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -2449,13 +2447,13 @@
         <v>37</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -2463,13 +2461,13 @@
         <v>37</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -2477,13 +2475,13 @@
         <v>37</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -2491,13 +2489,13 @@
         <v>37</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -2505,10 +2503,10 @@
         <v>37</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -2516,10 +2514,10 @@
         <v>37</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -2527,13 +2525,13 @@
         <v>37</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -2541,10 +2539,10 @@
         <v>37</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -2552,21 +2550,21 @@
         <v>37</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -2574,13 +2572,13 @@
         <v>37</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -2588,13 +2586,13 @@
         <v>37</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -2602,13 +2600,13 @@
         <v>37</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -2616,13 +2614,13 @@
         <v>37</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -2630,13 +2628,13 @@
         <v>37</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -2644,13 +2642,13 @@
         <v>37</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -2658,13 +2656,13 @@
         <v>37</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -2672,10 +2670,10 @@
         <v>37</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -2683,10 +2681,10 @@
         <v>37</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -2694,13 +2692,13 @@
         <v>37</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -2708,10 +2706,10 @@
         <v>37</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -2719,10 +2717,10 @@
         <v>37</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -2730,10 +2728,10 @@
         <v>37</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>115</v>
@@ -2744,13 +2742,13 @@
         <v>37</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>115</v>
@@ -2761,13 +2759,13 @@
         <v>37</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>115</v>
@@ -2778,13 +2776,13 @@
         <v>37</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>115</v>
@@ -2795,13 +2793,13 @@
         <v>37</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>115</v>
@@ -2812,13 +2810,13 @@
         <v>37</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>115</v>
@@ -2829,13 +2827,13 @@
         <v>37</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>115</v>
@@ -2846,13 +2844,13 @@
         <v>37</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>115</v>
@@ -2863,10 +2861,10 @@
         <v>37</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>115</v>
@@ -2877,10 +2875,10 @@
         <v>37</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>115</v>
@@ -2891,13 +2889,13 @@
         <v>37</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>115</v>
@@ -2908,10 +2906,10 @@
         <v>37</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>115</v>
@@ -2922,10 +2920,10 @@
         <v>37</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>115</v>
@@ -2933,13 +2931,13 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -2947,13 +2945,13 @@
         <v>37</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -2961,13 +2959,13 @@
         <v>37</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -2975,13 +2973,13 @@
         <v>37</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -2989,13 +2987,13 @@
         <v>37</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -3003,13 +3001,13 @@
         <v>37</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -3017,13 +3015,13 @@
         <v>37</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -3031,13 +3029,13 @@
         <v>37</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -3045,10 +3043,10 @@
         <v>37</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -3056,10 +3054,10 @@
         <v>37</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -3067,13 +3065,13 @@
         <v>37</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -3081,10 +3079,10 @@
         <v>37</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -3092,10 +3090,10 @@
         <v>37</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/Citrix.WEMSDK.xlsx
+++ b/Citrix.WEMSDK.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21815"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21819"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34499E6-CD7A-4B16-B951-0A3028E8CA5D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB4ADAC-79A2-4316-A16A-CC153D0556D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,10 +12,9 @@
     <sheet name="Issues" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Commands and Aliasses'!$A$1:$E$126</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Commands and Aliasses'!$A$1:$E$127</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="340">
   <si>
     <t>Command</t>
   </si>
@@ -449,27 +448,12 @@
     <t>Remove-WEMApplication</t>
   </si>
   <si>
-    <t>Get-WEMADObject</t>
-  </si>
-  <si>
-    <t>Returns one or more Active Directoryobjects from the WEM Database.</t>
-  </si>
-  <si>
     <t>New-WEMADObject</t>
   </si>
   <si>
     <t>Remove-WEMADObject</t>
   </si>
   <si>
-    <t>Removes an Active Directory object from the WEM Database.</t>
-  </si>
-  <si>
-    <t>Set-WEMADObject</t>
-  </si>
-  <si>
-    <t>Updates an Active Directory object in the WEM Database.</t>
-  </si>
-  <si>
     <t>TODO: Enable Directory Search to include Trusted Domains</t>
   </si>
   <si>
@@ -1010,9 +994,6 @@
     <t>TODO: include the Confirm functionality. Decide what to do with Condition References in Rules</t>
   </si>
   <si>
-    <t>Creates an Active Directory object in the WEM Database.</t>
-  </si>
-  <si>
     <t>Creates an Application Action object in the WEM Database.</t>
   </si>
   <si>
@@ -1029,6 +1010,48 @@
   </si>
   <si>
     <t>Creates a Printer Assignment object in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Returns one or more Active Directory User or Group objects from the WEM Database.</t>
+  </si>
+  <si>
+    <t>Get-WEMADUserObject</t>
+  </si>
+  <si>
+    <t>New-WEMADUserObject</t>
+  </si>
+  <si>
+    <t>Creates an Active Directory User or Group object in the WEM Database.</t>
+  </si>
+  <si>
+    <t>New-WEMADAgentObject</t>
+  </si>
+  <si>
+    <t>Remove-WEMADUserObject</t>
+  </si>
+  <si>
+    <t>Remove-WEMADAgentObject</t>
+  </si>
+  <si>
+    <t>Removes an Active Directory User or Group object from the WEM Database.</t>
+  </si>
+  <si>
+    <t>Set-WEMADUserObject</t>
+  </si>
+  <si>
+    <t>Updates an Active Directory User or Group object in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Get-WEMADAgentObject</t>
+  </si>
+  <si>
+    <t>Returns one or more Active Directory Agent or OU objects from the WEM Database.</t>
+  </si>
+  <si>
+    <t>Creates an Active Directory Agent or OU object in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Removes an Active Directory Agent or OU object from the WEM Database.</t>
   </si>
 </sst>
 </file>
@@ -1366,11 +1389,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E126"/>
+  <dimension ref="A1:E129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1416,10 +1439,10 @@
         <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1427,10 +1450,10 @@
         <v>37</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>138</v>
+        <v>276</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>139</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1438,24 +1461,18 @@
         <v>37</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>327</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>57</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="B6" s="2" t="s">
-        <v>167</v>
+        <v>336</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>169</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1463,10 +1480,13 @@
         <v>37</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>149</v>
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>150</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1474,10 +1494,13 @@
         <v>37</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>5</v>
+        <v>277</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>288</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>58</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1485,13 +1508,10 @@
         <v>37</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>162</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>59</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1499,13 +1519,10 @@
         <v>37</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>60</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1513,13 +1530,10 @@
         <v>37</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1527,13 +1541,13 @@
         <v>37</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1541,13 +1555,13 @@
         <v>37</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>278</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
+        <v>289</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>63</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1555,16 +1569,13 @@
         <v>37</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>323</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1572,10 +1583,13 @@
         <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>12</v>
+        <v>279</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>65</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1583,13 +1597,13 @@
         <v>37</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>323</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1597,13 +1611,13 @@
         <v>37</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>14</v>
+        <v>280</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>32</v>
+        <v>291</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>67</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1611,10 +1625,13 @@
         <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>155</v>
+        <v>9</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>159</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1622,13 +1639,13 @@
         <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>15</v>
+        <v>281</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>292</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1636,10 +1653,13 @@
         <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1647,10 +1667,13 @@
         <v>37</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>162</v>
+        <v>282</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>198</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1658,13 +1681,16 @@
         <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>140</v>
+        <v>11</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>145</v>
+        <v>64</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1672,13 +1698,13 @@
         <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>17</v>
+        <v>283</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>114</v>
+        <v>294</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1686,10 +1712,10 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>194</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1697,10 +1723,10 @@
         <v>37</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>18</v>
+        <v>284</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1708,10 +1734,13 @@
         <v>37</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>33</v>
+        <v>66</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1719,13 +1748,10 @@
         <v>37</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>85</v>
+        <v>285</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>101</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1733,13 +1759,13 @@
         <v>37</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1747,13 +1773,13 @@
         <v>37</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>88</v>
+        <v>286</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>89</v>
+        <v>295</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>103</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1761,13 +1787,10 @@
         <v>37</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>91</v>
+        <v>150</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1775,13 +1798,13 @@
         <v>37</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>105</v>
+        <v>68</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1789,16 +1812,10 @@
         <v>37</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>95</v>
+        <v>287</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1806,10 +1823,10 @@
         <v>37</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1817,13 +1834,10 @@
         <v>37</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>20</v>
+        <v>296</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1831,16 +1845,10 @@
         <v>37</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>98</v>
+        <v>157</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>116</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1848,10 +1856,10 @@
         <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>157</v>
+        <v>237</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>196</v>
+        <v>323</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1859,24 +1867,24 @@
         <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>99</v>
+        <v>328</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>315</v>
+        <v>329</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="B38" s="2" t="s">
-        <v>100</v>
+        <v>330</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>110</v>
+        <v>338</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1884,13 +1892,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>115</v>
+        <v>320</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -1898,13 +1906,13 @@
         <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>164</v>
+        <v>205</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>275</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>115</v>
+        <v>324</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1912,13 +1920,10 @@
         <v>37</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>115</v>
+        <v>189</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1926,16 +1931,10 @@
         <v>37</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>115</v>
+        <v>321</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1943,13 +1942,10 @@
         <v>37</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>168</v>
+        <v>19</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -1957,13 +1953,13 @@
         <v>37</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>153</v>
+        <v>84</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>324</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1971,13 +1967,13 @@
         <v>37</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>22</v>
+        <v>206</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>115</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1985,16 +1981,13 @@
         <v>37</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -2002,16 +1995,13 @@
         <v>37</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>120</v>
+        <v>207</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>121</v>
+        <v>312</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>115</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -2019,16 +2009,13 @@
         <v>37</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -2036,16 +2023,13 @@
         <v>37</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>124</v>
+        <v>208</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>125</v>
+        <v>313</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>115</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -2053,16 +2037,13 @@
         <v>37</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -2070,16 +2051,13 @@
         <v>37</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>128</v>
+        <v>209</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>129</v>
+        <v>314</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>115</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -2087,13 +2065,13 @@
         <v>37</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>130</v>
+        <v>92</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -2101,13 +2079,13 @@
         <v>37</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>131</v>
+        <v>210</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>115</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -2115,16 +2093,16 @@
         <v>37</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>190</v>
+        <v>106</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>115</v>
+        <v>310</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -2132,13 +2110,13 @@
         <v>37</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>158</v>
+        <v>211</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>115</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -2146,13 +2124,10 @@
         <v>37</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -2160,13 +2135,10 @@
         <v>37</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>135</v>
+        <v>212</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>115</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -2174,10 +2146,13 @@
         <v>37</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>163</v>
+        <v>20</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>197</v>
+        <v>322</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -2185,10 +2160,10 @@
         <v>37</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>143</v>
+        <v>213</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>144</v>
+        <v>325</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -2196,13 +2171,16 @@
         <v>37</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>71</v>
+        <v>108</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -2210,10 +2188,13 @@
         <v>37</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>151</v>
+        <v>214</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -2221,10 +2202,10 @@
         <v>37</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>72</v>
+        <v>191</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -2232,13 +2213,13 @@
         <v>37</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>81</v>
+        <v>109</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -2246,13 +2227,10 @@
         <v>37</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>50</v>
+        <v>215</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>82</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -2260,13 +2238,10 @@
         <v>37</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -2274,13 +2249,10 @@
         <v>37</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>52</v>
+        <v>216</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>74</v>
+        <v>175</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -2288,13 +2260,13 @@
         <v>37</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>83</v>
+        <v>70</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -2302,16 +2274,13 @@
         <v>37</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>54</v>
+        <v>159</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>75</v>
+        <v>161</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>315</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -2319,10 +2288,13 @@
         <v>37</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>44</v>
+        <v>239</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>76</v>
+        <v>240</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -2330,27 +2302,24 @@
         <v>37</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>45</v>
+        <v>331</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>315</v>
+        <v>333</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="B71" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>55</v>
+        <v>332</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>78</v>
+        <v>339</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -2358,10 +2327,16 @@
         <v>37</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>156</v>
+        <v>137</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>195</v>
+        <v>136</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -2369,13 +2344,16 @@
         <v>37</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>47</v>
+        <v>217</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>315</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -2383,10 +2361,13 @@
         <v>37</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>48</v>
+        <v>163</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>80</v>
+        <v>165</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -2394,10 +2375,13 @@
         <v>37</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>281</v>
+        <v>148</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>302</v>
+        <v>149</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -2405,13 +2389,13 @@
         <v>37</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>293</v>
+        <v>22</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>313</v>
+        <v>176</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -2419,13 +2403,16 @@
         <v>37</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>283</v>
+        <v>218</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>294</v>
+        <v>230</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>314</v>
+        <v>194</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -2433,13 +2420,16 @@
         <v>37</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>284</v>
+        <v>118</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>295</v>
+        <v>119</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>303</v>
+        <v>177</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -2447,13 +2437,16 @@
         <v>37</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>296</v>
+        <v>121</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>304</v>
+        <v>178</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -2461,219 +2454,270 @@
         <v>37</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>286</v>
+        <v>219</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>297</v>
+        <v>231</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>287</v>
+        <v>122</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>298</v>
+        <v>123</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>288</v>
+        <v>220</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>299</v>
+        <v>232</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>289</v>
+        <v>124</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>290</v>
+        <v>221</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>291</v>
+        <v>126</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>300</v>
+        <v>127</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>292</v>
+        <v>222</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>301</v>
+        <v>128</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>242</v>
+        <v>223</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>235</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>280</v>
+        <v>130</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>316</v>
+        <v>224</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>317</v>
+        <v>131</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>318</v>
+        <v>225</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>214</v>
+        <v>132</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>319</v>
+        <v>133</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>320</v>
+        <v>236</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>321</v>
+        <v>153</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>217</v>
+        <v>134</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>177</v>
+        <v>186</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -2681,10 +2725,13 @@
         <v>37</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>331</v>
+        <v>203</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -2692,13 +2739,13 @@
         <v>37</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>322</v>
+        <v>135</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>178</v>
+        <v>187</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -2706,10 +2753,13 @@
         <v>37</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>179</v>
+        <v>204</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -2717,10 +2767,10 @@
         <v>37</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>221</v>
+        <v>158</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -2728,13 +2778,10 @@
         <v>37</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>115</v>
+        <v>262</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -2742,16 +2789,10 @@
         <v>37</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>234</v>
+        <v>334</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>115</v>
+        <v>335</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -2759,16 +2800,13 @@
         <v>37</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>223</v>
+        <v>23</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>235</v>
+        <v>35</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -2776,16 +2814,13 @@
         <v>37</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>115</v>
+        <v>274</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -2793,16 +2828,10 @@
         <v>37</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>237</v>
+        <v>146</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>115</v>
+        <v>188</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -2810,16 +2839,10 @@
         <v>37</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>238</v>
+        <v>24</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -2827,16 +2850,13 @@
         <v>37</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>227</v>
+        <v>38</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>239</v>
+        <v>49</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -2844,16 +2864,13 @@
         <v>37</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>115</v>
+        <v>273</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -2861,13 +2878,13 @@
         <v>37</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>229</v>
+        <v>39</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -2875,13 +2892,13 @@
         <v>37</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>230</v>
+        <v>243</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>255</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>115</v>
+        <v>263</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -2889,16 +2906,13 @@
         <v>37</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>231</v>
+        <v>40</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>241</v>
+        <v>51</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -2906,13 +2920,13 @@
         <v>37</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>232</v>
+        <v>244</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>115</v>
+        <v>264</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -2920,13 +2934,13 @@
         <v>37</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>233</v>
+        <v>41</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -2934,10 +2948,13 @@
         <v>37</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>266</v>
+        <v>245</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -2945,13 +2962,13 @@
         <v>37</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>246</v>
+        <v>42</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>258</v>
+        <v>53</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>279</v>
+        <v>83</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -2959,13 +2976,13 @@
         <v>37</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -2973,13 +2990,16 @@
         <v>37</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>248</v>
+        <v>43</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>260</v>
+        <v>54</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>268</v>
+        <v>75</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -2987,13 +3007,13 @@
         <v>37</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -3001,13 +3021,10 @@
         <v>37</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>262</v>
+        <v>44</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>270</v>
+        <v>76</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -3015,13 +3032,10 @@
         <v>37</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -3029,13 +3043,13 @@
         <v>37</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>264</v>
+        <v>45</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>272</v>
+        <v>77</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -3043,10 +3057,10 @@
         <v>37</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -3054,10 +3068,13 @@
         <v>37</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>254</v>
+        <v>46</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>274</v>
+        <v>78</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -3065,13 +3082,13 @@
         <v>37</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -3079,10 +3096,10 @@
         <v>37</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>256</v>
+        <v>151</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>276</v>
+        <v>190</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -3090,16 +3107,52 @@
         <v>37</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>257</v>
+        <v>47</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>277</v>
+        <v>79</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E126" xr:uid="{5BB291EF-653F-4FD8-900C-6852B0E4EEFE}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A75:E126">
-      <sortCondition ref="B1:B126"/>
+  <autoFilter ref="A1:E127" xr:uid="{5BB291EF-653F-4FD8-900C-6852B0E4EEFE}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E129">
+      <sortCondition ref="B1:B127"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3141,30 +3194,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/Citrix.WEMSDK.xlsx
+++ b/Citrix.WEMSDK.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21819"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB4ADAC-79A2-4316-A16A-CC153D0556D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B84CCD-B20B-400C-A8C7-3688C5FDFE90}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="340">
   <si>
     <t>Command</t>
   </si>
@@ -1392,8 +1392,8 @@
   <dimension ref="A1:E129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1468,6 +1468,9 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>336</v>
       </c>
@@ -1877,6 +1880,9 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="B38" s="2" t="s">
         <v>330</v>
       </c>
@@ -2312,6 +2318,9 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="B71" s="2" t="s">
         <v>332</v>
       </c>

--- a/Citrix.WEMSDK.xlsx
+++ b/Citrix.WEMSDK.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B84CCD-B20B-400C-A8C7-3688C5FDFE90}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF092E33-F2F8-4D79-829E-0E6169D33E5B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="349">
   <si>
     <t>Command</t>
   </si>
@@ -1052,6 +1052,33 @@
   </si>
   <si>
     <t>Removes an Active Directory Agent or OU object from the WEM Database.</t>
+  </si>
+  <si>
+    <t>New-WEMAdministrator</t>
+  </si>
+  <si>
+    <t>Remove-WEMAdministrator</t>
+  </si>
+  <si>
+    <t>Set-WEMAdministrator</t>
+  </si>
+  <si>
+    <t>Get-WEMAdministrator</t>
+  </si>
+  <si>
+    <t>In Development</t>
+  </si>
+  <si>
+    <t>Returns one or more WEM Administrator objects from the WEM Database.</t>
+  </si>
+  <si>
+    <t>Creates a WEM Administrator object in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Removes a WEM Administrator object from the WEM Database.</t>
+  </si>
+  <si>
+    <t>Updates a WEM Administrator object in the WEM Database.</t>
   </si>
 </sst>
 </file>
@@ -1389,11 +1416,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E129"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A71" sqref="A71"/>
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1461,21 +1488,21 @@
         <v>37</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>37</v>
+        <v>344</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1483,13 +1510,10 @@
         <v>37</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>327</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>57</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1497,13 +1521,13 @@
         <v>37</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>277</v>
+        <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>288</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>308</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1511,10 +1535,13 @@
         <v>37</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>162</v>
+        <v>277</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>288</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>164</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1522,10 +1549,10 @@
         <v>37</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1533,10 +1560,10 @@
         <v>37</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>5</v>
+        <v>144</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>58</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1544,13 +1571,10 @@
         <v>37</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1558,13 +1582,13 @@
         <v>37</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>278</v>
+        <v>6</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>289</v>
+        <v>26</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>309</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1572,13 +1596,13 @@
         <v>37</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>7</v>
+        <v>278</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>27</v>
+        <v>289</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>60</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1586,13 +1610,13 @@
         <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>279</v>
+        <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>290</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>298</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1600,13 +1624,13 @@
         <v>37</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>8</v>
+        <v>279</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>28</v>
+        <v>290</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>61</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1614,13 +1638,13 @@
         <v>37</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>280</v>
+        <v>8</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>291</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>299</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1628,13 +1652,13 @@
         <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>9</v>
+        <v>280</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>29</v>
+        <v>291</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>62</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1642,13 +1666,13 @@
         <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>281</v>
+        <v>9</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>292</v>
+        <v>29</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>300</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1656,13 +1680,13 @@
         <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>10</v>
+        <v>281</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>30</v>
+        <v>292</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>63</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1670,13 +1694,13 @@
         <v>37</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>282</v>
+        <v>10</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>293</v>
+        <v>30</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>301</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1684,16 +1708,13 @@
         <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>11</v>
+        <v>282</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>31</v>
+        <v>293</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1701,13 +1722,16 @@
         <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>283</v>
+        <v>11</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>294</v>
+        <v>31</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>302</v>
+        <v>64</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1715,10 +1739,13 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>12</v>
+        <v>283</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>294</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>65</v>
+        <v>302</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1726,10 +1753,10 @@
         <v>37</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>284</v>
+        <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>303</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1737,13 +1764,10 @@
         <v>37</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>13</v>
+        <v>284</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1751,10 +1775,13 @@
         <v>37</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>285</v>
+        <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>304</v>
+        <v>66</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1762,13 +1789,10 @@
         <v>37</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>32</v>
+        <v>285</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>67</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1776,13 +1800,13 @@
         <v>37</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>286</v>
+        <v>14</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>295</v>
+        <v>32</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>305</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1790,10 +1814,13 @@
         <v>37</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>150</v>
+        <v>286</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>295</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>154</v>
+        <v>305</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1801,13 +1828,10 @@
         <v>37</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>318</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1815,10 +1839,13 @@
         <v>37</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>287</v>
+        <v>15</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>306</v>
+        <v>68</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1826,10 +1853,10 @@
         <v>37</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>16</v>
+        <v>287</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>69</v>
+        <v>306</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1837,10 +1864,10 @@
         <v>37</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>296</v>
+        <v>16</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>307</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1848,10 +1875,10 @@
         <v>37</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>157</v>
+        <v>296</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>193</v>
+        <v>307</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1859,10 +1886,10 @@
         <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>237</v>
+        <v>157</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>323</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1870,13 +1897,10 @@
         <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>328</v>
+        <v>237</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>140</v>
+        <v>323</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1895,16 +1919,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>37</v>
+        <v>344</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>114</v>
+        <v>340</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>320</v>
+        <v>346</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -1912,13 +1933,13 @@
         <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>275</v>
+        <v>328</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>324</v>
+        <v>329</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1926,10 +1947,13 @@
         <v>37</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>147</v>
+        <v>17</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>189</v>
+        <v>320</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1937,10 +1961,13 @@
         <v>37</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>18</v>
+        <v>205</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>275</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1948,10 +1975,10 @@
         <v>37</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>33</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -1959,13 +1986,10 @@
         <v>37</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>101</v>
+        <v>321</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1973,13 +1997,10 @@
         <v>37</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>311</v>
+        <v>19</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>166</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1987,13 +2008,13 @@
         <v>37</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -2001,13 +2022,13 @@
         <v>37</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -2015,13 +2036,13 @@
         <v>37</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -2029,13 +2050,13 @@
         <v>37</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -2043,13 +2064,13 @@
         <v>37</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -2057,13 +2078,13 @@
         <v>37</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -2071,13 +2092,13 @@
         <v>37</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -2085,13 +2106,13 @@
         <v>37</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -2099,16 +2120,13 @@
         <v>37</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>310</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -2116,13 +2134,13 @@
         <v>37</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -2130,10 +2148,16 @@
         <v>37</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -2141,10 +2165,13 @@
         <v>37</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -2152,13 +2179,10 @@
         <v>37</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>310</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -2166,10 +2190,10 @@
         <v>37</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>325</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -2177,16 +2201,13 @@
         <v>37</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>108</v>
+        <v>322</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>116</v>
+        <v>310</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -2194,13 +2215,10 @@
         <v>37</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>317</v>
+        <v>213</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>173</v>
+        <v>325</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -2208,10 +2226,16 @@
         <v>37</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>152</v>
+        <v>97</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>191</v>
+        <v>108</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -2219,13 +2243,13 @@
         <v>37</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>99</v>
+        <v>214</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>310</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -2233,10 +2257,10 @@
         <v>37</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>215</v>
+        <v>152</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -2244,10 +2268,13 @@
         <v>37</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -2255,10 +2282,10 @@
         <v>37</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -2266,13 +2293,10 @@
         <v>37</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -2280,13 +2304,10 @@
         <v>37</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>159</v>
+        <v>216</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>115</v>
+        <v>175</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -2294,10 +2315,10 @@
         <v>37</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>239</v>
+        <v>21</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>240</v>
+        <v>70</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>115</v>
@@ -2308,12 +2329,12 @@
         <v>37</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>331</v>
+        <v>159</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="E70" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2322,12 +2343,12 @@
         <v>37</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>332</v>
+        <v>239</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="E71" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2336,33 +2357,24 @@
         <v>37</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>117</v>
+        <v>332</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E72" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E72" s="3" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>37</v>
+        <v>344</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>229</v>
+        <v>341</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>115</v>
+        <v>347</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -2370,12 +2382,12 @@
         <v>37</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>163</v>
+        <v>331</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E74" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E74" s="3" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2384,13 +2396,16 @@
         <v>37</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>148</v>
+        <v>137</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>319</v>
+        <v>115</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -2398,10 +2413,13 @@
         <v>37</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>22</v>
+        <v>217</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>176</v>
+        <v>238</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>115</v>
@@ -2412,13 +2430,10 @@
         <v>37</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>230</v>
+        <v>163</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>115</v>
@@ -2429,16 +2444,13 @@
         <v>37</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>115</v>
+        <v>319</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -2446,13 +2458,10 @@
         <v>37</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>115</v>
@@ -2463,13 +2472,13 @@
         <v>37</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>115</v>
@@ -2480,13 +2489,13 @@
         <v>37</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>115</v>
@@ -2497,13 +2506,13 @@
         <v>37</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>232</v>
+        <v>121</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>115</v>
@@ -2514,13 +2523,13 @@
         <v>37</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>124</v>
+        <v>219</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>125</v>
+        <v>231</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>115</v>
@@ -2531,13 +2540,13 @@
         <v>37</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>221</v>
+        <v>122</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>233</v>
+        <v>123</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>115</v>
@@ -2548,13 +2557,13 @@
         <v>37</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>126</v>
+        <v>220</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>127</v>
+        <v>232</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>115</v>
@@ -2565,13 +2574,13 @@
         <v>37</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>222</v>
+        <v>124</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>234</v>
+        <v>125</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>115</v>
@@ -2582,13 +2591,13 @@
         <v>37</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>128</v>
+        <v>221</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>129</v>
+        <v>233</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>115</v>
@@ -2599,13 +2608,13 @@
         <v>37</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>223</v>
+        <v>126</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>235</v>
+        <v>127</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>115</v>
@@ -2616,10 +2625,13 @@
         <v>37</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>130</v>
+        <v>222</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>115</v>
@@ -2630,10 +2642,13 @@
         <v>37</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>224</v>
+        <v>128</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>115</v>
@@ -2644,10 +2659,13 @@
         <v>37</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>131</v>
+        <v>223</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>235</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>115</v>
@@ -2658,10 +2676,10 @@
         <v>37</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>225</v>
+        <v>130</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>115</v>
@@ -2672,13 +2690,10 @@
         <v>37</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>133</v>
+        <v>224</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>115</v>
@@ -2689,13 +2704,10 @@
         <v>37</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>236</v>
+        <v>131</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>115</v>
@@ -2706,10 +2718,10 @@
         <v>37</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>153</v>
+        <v>225</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>155</v>
+        <v>201</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>115</v>
@@ -2720,10 +2732,13 @@
         <v>37</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>115</v>
@@ -2734,10 +2749,13 @@
         <v>37</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>236</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>115</v>
@@ -2748,10 +2766,10 @@
         <v>37</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>115</v>
@@ -2762,10 +2780,10 @@
         <v>37</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>228</v>
+        <v>134</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>115</v>
@@ -2776,10 +2794,13 @@
         <v>37</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>158</v>
+        <v>227</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>192</v>
+        <v>203</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -2787,10 +2808,13 @@
         <v>37</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>261</v>
+        <v>135</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>262</v>
+        <v>187</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -2798,10 +2822,13 @@
         <v>37</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>334</v>
+        <v>228</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>335</v>
+        <v>204</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -2809,13 +2836,10 @@
         <v>37</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>71</v>
+        <v>192</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -2823,24 +2847,21 @@
         <v>37</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>37</v>
+        <v>344</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>146</v>
+        <v>342</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>188</v>
+        <v>348</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -2848,10 +2869,10 @@
         <v>37</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>24</v>
+        <v>334</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>72</v>
+        <v>335</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -2859,13 +2880,13 @@
         <v>37</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -2873,13 +2894,13 @@
         <v>37</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -2887,13 +2908,10 @@
         <v>37</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>82</v>
+        <v>188</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -2901,13 +2919,10 @@
         <v>37</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>255</v>
+        <v>24</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>263</v>
+        <v>72</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -2915,13 +2930,13 @@
         <v>37</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -2929,13 +2944,13 @@
         <v>37</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -2943,13 +2958,13 @@
         <v>37</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -2957,13 +2972,13 @@
         <v>37</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -2971,13 +2986,13 @@
         <v>37</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -2985,13 +3000,13 @@
         <v>37</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -2999,16 +3014,13 @@
         <v>37</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>310</v>
+        <v>74</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -3016,13 +3028,13 @@
         <v>37</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -3030,10 +3042,13 @@
         <v>37</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -3041,10 +3056,13 @@
         <v>37</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -3052,10 +3070,13 @@
         <v>37</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>310</v>
@@ -3066,10 +3087,13 @@
         <v>37</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -3077,13 +3101,10 @@
         <v>37</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -3091,13 +3112,10 @@
         <v>37</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -3105,10 +3123,13 @@
         <v>37</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>151</v>
+        <v>45</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>190</v>
+        <v>77</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -3116,13 +3137,10 @@
         <v>37</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>47</v>
+        <v>249</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>310</v>
+        <v>269</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -3130,10 +3148,13 @@
         <v>37</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>251</v>
+        <v>46</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>271</v>
+        <v>78</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -3141,26 +3162,76 @@
         <v>37</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D128" s="2" t="s">
+      <c r="D132" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B129" s="2" t="s">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D129" s="2" t="s">
+      <c r="D133" s="2" t="s">
         <v>272</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E127" xr:uid="{5BB291EF-653F-4FD8-900C-6852B0E4EEFE}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E129">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E133">
       <sortCondition ref="B1:B127"/>
     </sortState>
   </autoFilter>
@@ -3175,7 +3246,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Citrix.WEMSDK.xlsx
+++ b/Citrix.WEMSDK.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF092E33-F2F8-4D79-829E-0E6169D33E5B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC32FB6-BB77-485C-A0EB-7325AFDFFC85}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commands and Aliasses" sheetId="1" r:id="rId1"/>
     <sheet name="Issues" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Commands and Aliasses'!$A$1:$E$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Commands and Aliasses'!$A$1:$E$128</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="351">
   <si>
     <t>Command</t>
   </si>
@@ -1079,6 +1079,12 @@
   </si>
   <si>
     <t>Updates a WEM Administrator object in the WEM Database.</t>
+  </si>
+  <si>
+    <t>New-WEMAdministratorPermissionObject</t>
+  </si>
+  <si>
+    <t>Creates a WEM Administrator Permission object.</t>
   </si>
 </sst>
 </file>
@@ -1416,11 +1422,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:E134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A133" sqref="A133"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1496,7 +1502,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>344</v>
+        <v>37</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>343</v>
@@ -1919,7 +1925,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>344</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>340</v>
@@ -1933,13 +1939,10 @@
         <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>140</v>
+        <v>350</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1947,13 +1950,13 @@
         <v>37</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>114</v>
+        <v>328</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>320</v>
+        <v>329</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1961,13 +1964,13 @@
         <v>37</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>205</v>
+        <v>17</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>275</v>
+        <v>114</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1975,10 +1978,13 @@
         <v>37</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>147</v>
+        <v>205</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>275</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>189</v>
+        <v>324</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -1986,10 +1992,10 @@
         <v>37</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>321</v>
+        <v>189</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1997,10 +2003,10 @@
         <v>37</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>33</v>
+        <v>321</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -2008,13 +2014,10 @@
         <v>37</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -2022,13 +2025,13 @@
         <v>37</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>206</v>
+        <v>84</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>311</v>
+        <v>85</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>166</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -2036,13 +2039,13 @@
         <v>37</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>86</v>
+        <v>206</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>87</v>
+        <v>311</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>102</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -2050,13 +2053,13 @@
         <v>37</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>207</v>
+        <v>86</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>312</v>
+        <v>87</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>167</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -2064,13 +2067,13 @@
         <v>37</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>88</v>
+        <v>207</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>89</v>
+        <v>312</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>103</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -2078,13 +2081,13 @@
         <v>37</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>208</v>
+        <v>88</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>313</v>
+        <v>89</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>168</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -2092,13 +2095,13 @@
         <v>37</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>90</v>
+        <v>208</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>91</v>
+        <v>313</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>104</v>
+        <v>168</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -2106,13 +2109,13 @@
         <v>37</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>209</v>
+        <v>90</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>314</v>
+        <v>91</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>169</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -2120,13 +2123,13 @@
         <v>37</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>92</v>
+        <v>209</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>93</v>
+        <v>314</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>105</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -2134,13 +2137,13 @@
         <v>37</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>210</v>
+        <v>92</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>315</v>
+        <v>93</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>170</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -2148,16 +2151,13 @@
         <v>37</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>94</v>
+        <v>210</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>95</v>
+        <v>315</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>310</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -2165,13 +2165,16 @@
         <v>37</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>316</v>
+        <v>95</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>171</v>
+        <v>106</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -2179,10 +2182,13 @@
         <v>37</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>96</v>
+        <v>211</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -2190,10 +2196,10 @@
         <v>37</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>212</v>
+        <v>96</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>172</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -2201,13 +2207,10 @@
         <v>37</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>20</v>
+        <v>212</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>310</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -2215,10 +2218,13 @@
         <v>37</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>213</v>
+        <v>20</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -2226,16 +2232,10 @@
         <v>37</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>98</v>
+        <v>213</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>116</v>
+        <v>325</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -2243,13 +2243,16 @@
         <v>37</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>214</v>
+        <v>97</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>317</v>
+        <v>98</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>173</v>
+        <v>108</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -2257,10 +2260,13 @@
         <v>37</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>152</v>
+        <v>214</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -2268,13 +2274,10 @@
         <v>37</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>99</v>
+        <v>152</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>310</v>
+        <v>191</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -2282,10 +2285,13 @@
         <v>37</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>215</v>
+        <v>99</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>174</v>
+        <v>109</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -2293,10 +2299,10 @@
         <v>37</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>100</v>
+        <v>215</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>110</v>
+        <v>174</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -2304,10 +2310,10 @@
         <v>37</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>216</v>
+        <v>100</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>175</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -2315,13 +2321,10 @@
         <v>37</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>21</v>
+        <v>216</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>115</v>
+        <v>175</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -2329,10 +2332,10 @@
         <v>37</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>159</v>
+        <v>21</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>161</v>
+        <v>70</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>115</v>
@@ -2343,10 +2346,10 @@
         <v>37</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>239</v>
+        <v>159</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>115</v>
@@ -2357,24 +2360,27 @@
         <v>37</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>332</v>
+        <v>239</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="E72" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>344</v>
+        <v>37</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>347</v>
+        <v>339</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -2382,13 +2388,10 @@
         <v>37</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>115</v>
+        <v>347</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -2396,15 +2399,12 @@
         <v>37</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>117</v>
+        <v>331</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E75" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E75" s="3" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2413,13 +2413,13 @@
         <v>37</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>217</v>
+        <v>137</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>229</v>
+        <v>117</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>238</v>
+        <v>136</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>115</v>
@@ -2430,10 +2430,13 @@
         <v>37</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>163</v>
+        <v>217</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>165</v>
+        <v>238</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>115</v>
@@ -2444,13 +2447,13 @@
         <v>37</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>319</v>
+        <v>115</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -2458,13 +2461,13 @@
         <v>37</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>22</v>
+        <v>148</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>115</v>
+        <v>319</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -2472,13 +2475,10 @@
         <v>37</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>230</v>
+        <v>22</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>115</v>
@@ -2489,13 +2489,13 @@
         <v>37</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>118</v>
+        <v>218</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>119</v>
+        <v>230</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>115</v>
@@ -2506,13 +2506,13 @@
         <v>37</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>115</v>
@@ -2523,13 +2523,13 @@
         <v>37</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>219</v>
+        <v>120</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>231</v>
+        <v>121</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>115</v>
@@ -2540,13 +2540,13 @@
         <v>37</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>122</v>
+        <v>219</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>123</v>
+        <v>231</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>115</v>
@@ -2557,13 +2557,13 @@
         <v>37</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>220</v>
+        <v>122</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>232</v>
+        <v>123</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>115</v>
@@ -2574,13 +2574,13 @@
         <v>37</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>124</v>
+        <v>220</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>125</v>
+        <v>232</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>115</v>
@@ -2591,13 +2591,13 @@
         <v>37</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>221</v>
+        <v>124</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>233</v>
+        <v>125</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>115</v>
@@ -2608,13 +2608,13 @@
         <v>37</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>126</v>
+        <v>221</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>127</v>
+        <v>233</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>115</v>
@@ -2625,13 +2625,13 @@
         <v>37</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>222</v>
+        <v>126</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>234</v>
+        <v>127</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>115</v>
@@ -2642,13 +2642,13 @@
         <v>37</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>128</v>
+        <v>222</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>129</v>
+        <v>234</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>115</v>
@@ -2659,13 +2659,13 @@
         <v>37</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>223</v>
+        <v>128</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>235</v>
+        <v>129</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>115</v>
@@ -2676,10 +2676,13 @@
         <v>37</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>130</v>
+        <v>223</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>235</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>115</v>
@@ -2690,10 +2693,10 @@
         <v>37</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>224</v>
+        <v>130</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>115</v>
@@ -2704,10 +2707,10 @@
         <v>37</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>131</v>
+        <v>224</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>115</v>
@@ -2718,10 +2721,10 @@
         <v>37</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>225</v>
+        <v>131</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>115</v>
@@ -2732,13 +2735,10 @@
         <v>37</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>133</v>
+        <v>225</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>115</v>
@@ -2749,13 +2749,13 @@
         <v>37</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>226</v>
+        <v>132</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>236</v>
+        <v>133</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>115</v>
@@ -2766,10 +2766,13 @@
         <v>37</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>153</v>
+        <v>226</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>236</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>155</v>
+        <v>202</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>115</v>
@@ -2780,10 +2783,10 @@
         <v>37</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>115</v>
@@ -2794,10 +2797,10 @@
         <v>37</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>227</v>
+        <v>134</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>115</v>
@@ -2808,10 +2811,10 @@
         <v>37</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>135</v>
+        <v>227</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>115</v>
@@ -2822,10 +2825,10 @@
         <v>37</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>228</v>
+        <v>135</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>115</v>
@@ -2836,10 +2839,13 @@
         <v>37</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>158</v>
+        <v>228</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>192</v>
+        <v>204</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -2847,32 +2853,32 @@
         <v>37</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>261</v>
+        <v>158</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>262</v>
+        <v>192</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>344</v>
+        <v>37</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>342</v>
+        <v>261</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>348</v>
+        <v>262</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>37</v>
+        <v>344</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -2880,13 +2886,10 @@
         <v>37</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>35</v>
+        <v>334</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>71</v>
+        <v>335</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -2894,13 +2897,13 @@
         <v>37</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>241</v>
+        <v>23</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>253</v>
+        <v>35</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>274</v>
+        <v>71</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -2908,10 +2911,13 @@
         <v>37</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>146</v>
+        <v>241</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>188</v>
+        <v>274</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -2919,10 +2925,10 @@
         <v>37</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>72</v>
+        <v>188</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -2930,13 +2936,10 @@
         <v>37</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -2944,13 +2947,13 @@
         <v>37</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>242</v>
+        <v>38</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>254</v>
+        <v>49</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>273</v>
+        <v>81</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -2958,13 +2961,13 @@
         <v>37</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>39</v>
+        <v>242</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>50</v>
+        <v>254</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>82</v>
+        <v>273</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -2972,13 +2975,13 @@
         <v>37</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>243</v>
+        <v>39</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>263</v>
+        <v>82</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -2986,13 +2989,13 @@
         <v>37</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>40</v>
+        <v>243</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>51</v>
+        <v>255</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>73</v>
+        <v>263</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -3000,13 +3003,13 @@
         <v>37</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>244</v>
+        <v>40</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>256</v>
+        <v>51</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>264</v>
+        <v>73</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -3014,13 +3017,13 @@
         <v>37</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>41</v>
+        <v>244</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>52</v>
+        <v>256</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>74</v>
+        <v>264</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -3028,13 +3031,13 @@
         <v>37</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>245</v>
+        <v>41</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>257</v>
+        <v>52</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>265</v>
+        <v>74</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -3042,13 +3045,13 @@
         <v>37</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>42</v>
+        <v>245</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>53</v>
+        <v>257</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>83</v>
+        <v>265</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -3056,13 +3059,13 @@
         <v>37</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>246</v>
+        <v>42</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>258</v>
+        <v>53</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>266</v>
+        <v>83</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -3070,16 +3073,13 @@
         <v>37</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>43</v>
+        <v>246</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>54</v>
+        <v>258</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>310</v>
+        <v>266</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -3087,13 +3087,16 @@
         <v>37</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>247</v>
+        <v>43</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>259</v>
+        <v>54</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>267</v>
+        <v>75</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -3101,10 +3104,13 @@
         <v>37</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>44</v>
+        <v>247</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>76</v>
+        <v>267</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -3112,10 +3118,10 @@
         <v>37</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>248</v>
+        <v>44</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>268</v>
+        <v>76</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -3123,13 +3129,10 @@
         <v>37</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>45</v>
+        <v>248</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>310</v>
+        <v>268</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -3137,10 +3140,13 @@
         <v>37</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>249</v>
+        <v>45</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>269</v>
+        <v>77</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -3148,13 +3154,10 @@
         <v>37</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>55</v>
+        <v>249</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>78</v>
+        <v>269</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -3162,13 +3165,13 @@
         <v>37</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>250</v>
+        <v>46</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>260</v>
+        <v>55</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>270</v>
+        <v>78</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -3176,10 +3179,13 @@
         <v>37</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>151</v>
+        <v>250</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>260</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>190</v>
+        <v>270</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -3187,13 +3193,10 @@
         <v>37</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>310</v>
+        <v>190</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -3201,10 +3204,13 @@
         <v>37</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>251</v>
+        <v>47</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>271</v>
+        <v>79</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -3212,10 +3218,10 @@
         <v>37</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>48</v>
+        <v>251</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>80</v>
+        <v>271</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -3223,16 +3229,27 @@
         <v>37</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D133" s="2" t="s">
+      <c r="D134" s="2" t="s">
         <v>272</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E127" xr:uid="{5BB291EF-653F-4FD8-900C-6852B0E4EEFE}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E133">
-      <sortCondition ref="B1:B127"/>
+  <autoFilter ref="A1:E128" xr:uid="{5BB291EF-653F-4FD8-900C-6852B0E4EEFE}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E134">
+      <sortCondition ref="B1:B128"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Citrix.WEMSDK.xlsx
+++ b/Citrix.WEMSDK.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC32FB6-BB77-485C-A0EB-7325AFDFFC85}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374DA3AC-4266-4342-9857-B5058BA4DEEE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="350">
   <si>
     <t>Command</t>
   </si>
@@ -1064,9 +1064,6 @@
   </si>
   <si>
     <t>Get-WEMAdministrator</t>
-  </si>
-  <si>
-    <t>In Development</t>
   </si>
   <si>
     <t>Returns one or more WEM Administrator objects from the WEM Database.</t>
@@ -1425,8 +1422,8 @@
   <dimension ref="A1:E134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A134" sqref="A134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1508,7 +1505,7 @@
         <v>343</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1931,7 +1928,7 @@
         <v>340</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -1939,10 +1936,10 @@
         <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -2391,7 +2388,7 @@
         <v>341</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -2872,13 +2869,13 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>344</v>
+        <v>37</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>342</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">

--- a/Citrix.WEMSDK.xlsx
+++ b/Citrix.WEMSDK.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374DA3AC-4266-4342-9857-B5058BA4DEEE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAF7EC5-ADE5-47C0-BA16-D455ED213879}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="Issues" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Commands and Aliasses'!$A$1:$E$128</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Commands and Aliasses'!$A$1:$E$135</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="371">
   <si>
     <t>Command</t>
   </si>
@@ -1082,6 +1082,69 @@
   </si>
   <si>
     <t>Creates a WEM Administrator Permission object.</t>
+  </si>
+  <si>
+    <t>Set-WEMSystemOptimization</t>
+  </si>
+  <si>
+    <t>Updates a WEM System Optimization object in the WEM Database.</t>
+  </si>
+  <si>
+    <t>TODO: Determine if all properties should be available as individual parameters to the function</t>
+  </si>
+  <si>
+    <t>Get-WEMSystemOptimization</t>
+  </si>
+  <si>
+    <t>Returns a WEM System Optimization object from the WEM Database.</t>
+  </si>
+  <si>
+    <t>Returns a WEM Environmental Settings object from the WEM Database.</t>
+  </si>
+  <si>
+    <t>Set-WEMEnvironmentalSettings</t>
+  </si>
+  <si>
+    <t>Updates a WEM Environmental Settings object in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Get-WEMEnvironmentalSettings</t>
+  </si>
+  <si>
+    <t>Get-WEMUSVSettings</t>
+  </si>
+  <si>
+    <t>Returns a WEM USV Settings object from the WEM Database.</t>
+  </si>
+  <si>
+    <t>Set-WEMUSVSettings</t>
+  </si>
+  <si>
+    <t>Updates a WEM USV Settings object in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Set-WEMUPMSettings</t>
+  </si>
+  <si>
+    <t>Updates a WEM UPM Settings object in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Get-WEMUPMSettings</t>
+  </si>
+  <si>
+    <t>Returns a WEM UPM Settings object from the WEM Database.</t>
+  </si>
+  <si>
+    <t>Get-WEMPersonaSettings</t>
+  </si>
+  <si>
+    <t>Returns a WEM Persona Settings object from the WEM Database.</t>
+  </si>
+  <si>
+    <t>Set-WEMPersonaSettings</t>
+  </si>
+  <si>
+    <t>Updates a WEM Persona Settings object in the WEM Database.</t>
   </si>
 </sst>
 </file>
@@ -1419,11 +1482,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E134"/>
+  <dimension ref="A1:E144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A134" sqref="A134"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D131" sqref="D131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1585,13 +1648,10 @@
         <v>37</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>26</v>
+        <v>358</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>59</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1599,13 +1659,13 @@
         <v>37</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>278</v>
+        <v>6</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>289</v>
+        <v>26</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>309</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1613,13 +1673,13 @@
         <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>7</v>
+        <v>278</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>27</v>
+        <v>289</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>60</v>
+        <v>309</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1627,13 +1687,13 @@
         <v>37</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>279</v>
+        <v>7</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>290</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>298</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1641,13 +1701,13 @@
         <v>37</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>8</v>
+        <v>279</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>28</v>
+        <v>290</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>61</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1655,13 +1715,13 @@
         <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>280</v>
+        <v>8</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>291</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>299</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1669,13 +1729,13 @@
         <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>9</v>
+        <v>280</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>29</v>
+        <v>291</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>62</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1683,13 +1743,13 @@
         <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>281</v>
+        <v>9</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>292</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>300</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1697,13 +1757,13 @@
         <v>37</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>10</v>
+        <v>281</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>30</v>
+        <v>292</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>63</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1711,13 +1771,13 @@
         <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>282</v>
+        <v>10</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>293</v>
+        <v>30</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>301</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1725,16 +1785,13 @@
         <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>11</v>
+        <v>282</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>31</v>
+        <v>293</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1742,13 +1799,16 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>283</v>
+        <v>11</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>294</v>
+        <v>31</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>302</v>
+        <v>64</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1756,10 +1816,13 @@
         <v>37</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>12</v>
+        <v>283</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>294</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>65</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1767,10 +1830,10 @@
         <v>37</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>284</v>
+        <v>367</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>303</v>
+        <v>368</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1778,13 +1841,10 @@
         <v>37</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>318</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1792,10 +1852,10 @@
         <v>37</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1803,13 +1863,13 @@
         <v>37</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1817,13 +1877,10 @@
         <v>37</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1831,10 +1888,13 @@
         <v>37</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>150</v>
+        <v>14</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>154</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1842,13 +1902,13 @@
         <v>37</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>15</v>
+        <v>286</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>295</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1856,10 +1916,10 @@
         <v>37</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>287</v>
+        <v>150</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>306</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1867,10 +1927,10 @@
         <v>37</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>16</v>
+        <v>353</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>69</v>
+        <v>354</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1878,10 +1938,13 @@
         <v>37</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>296</v>
+        <v>15</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>307</v>
+        <v>68</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1889,10 +1952,10 @@
         <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>157</v>
+        <v>287</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>193</v>
+        <v>306</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1900,10 +1963,10 @@
         <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>237</v>
+        <v>359</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1911,13 +1974,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>140</v>
+        <v>366</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1925,10 +1985,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>340</v>
+        <v>16</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>345</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -1936,10 +1996,10 @@
         <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>348</v>
+        <v>296</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>349</v>
+        <v>307</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1947,13 +2007,10 @@
         <v>37</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>328</v>
+        <v>157</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>140</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1961,13 +2018,10 @@
         <v>37</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>114</v>
+        <v>237</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1975,13 +2029,13 @@
         <v>37</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>275</v>
+        <v>330</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>324</v>
+        <v>338</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -1989,10 +2043,10 @@
         <v>37</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>147</v>
+        <v>340</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>189</v>
+        <v>345</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -2000,10 +2054,10 @@
         <v>37</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>18</v>
+        <v>348</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>321</v>
+        <v>349</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -2011,10 +2065,13 @@
         <v>37</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>19</v>
+        <v>328</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>33</v>
+        <v>329</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -2022,13 +2079,13 @@
         <v>37</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>101</v>
+        <v>320</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -2036,13 +2093,13 @@
         <v>37</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>311</v>
+        <v>275</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>166</v>
+        <v>324</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -2050,13 +2107,10 @@
         <v>37</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>102</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -2064,13 +2118,10 @@
         <v>37</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>312</v>
+        <v>18</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>167</v>
+        <v>321</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -2078,13 +2129,10 @@
         <v>37</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -2092,13 +2140,13 @@
         <v>37</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>208</v>
+        <v>84</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>313</v>
+        <v>85</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>168</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -2106,13 +2154,13 @@
         <v>37</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>90</v>
+        <v>206</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>91</v>
+        <v>311</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>104</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -2120,13 +2168,13 @@
         <v>37</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>209</v>
+        <v>86</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>314</v>
+        <v>87</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>169</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -2134,13 +2182,13 @@
         <v>37</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>92</v>
+        <v>207</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>93</v>
+        <v>312</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>105</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -2148,13 +2196,13 @@
         <v>37</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>210</v>
+        <v>88</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>315</v>
+        <v>89</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>170</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -2162,16 +2210,13 @@
         <v>37</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>94</v>
+        <v>208</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>95</v>
+        <v>313</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>310</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -2179,13 +2224,13 @@
         <v>37</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>211</v>
+        <v>90</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>316</v>
+        <v>91</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>171</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -2193,10 +2238,13 @@
         <v>37</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>96</v>
+        <v>209</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>314</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>107</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -2204,10 +2252,13 @@
         <v>37</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>212</v>
+        <v>92</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>172</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -2215,13 +2266,13 @@
         <v>37</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>20</v>
+        <v>210</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>310</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -2229,10 +2280,16 @@
         <v>37</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>213</v>
+        <v>94</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>325</v>
+        <v>106</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -2240,16 +2297,13 @@
         <v>37</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>97</v>
+        <v>211</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>98</v>
+        <v>316</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>116</v>
+        <v>171</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -2257,13 +2311,10 @@
         <v>37</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>317</v>
+        <v>96</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>173</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -2271,10 +2322,10 @@
         <v>37</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>152</v>
+        <v>212</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -2282,10 +2333,10 @@
         <v>37</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>109</v>
+        <v>322</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>310</v>
@@ -2296,10 +2347,10 @@
         <v>37</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>174</v>
+        <v>325</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -2307,10 +2358,16 @@
         <v>37</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -2318,10 +2375,13 @@
         <v>37</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -2329,13 +2389,10 @@
         <v>37</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>21</v>
+        <v>152</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>115</v>
+        <v>191</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -2343,13 +2400,13 @@
         <v>37</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>159</v>
+        <v>99</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>161</v>
+        <v>109</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>115</v>
+        <v>310</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -2357,13 +2414,10 @@
         <v>37</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>115</v>
+        <v>174</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -2371,13 +2425,10 @@
         <v>37</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>332</v>
+        <v>100</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -2385,10 +2436,10 @@
         <v>37</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>341</v>
+        <v>216</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>346</v>
+        <v>175</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -2396,12 +2447,12 @@
         <v>37</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>331</v>
+        <v>21</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="E75" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2410,13 +2461,10 @@
         <v>37</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>115</v>
@@ -2427,13 +2475,10 @@
         <v>37</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>115</v>
@@ -2444,12 +2489,12 @@
         <v>37</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>163</v>
+        <v>332</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E78" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E78" s="3" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2458,13 +2503,10 @@
         <v>37</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>148</v>
+        <v>341</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -2472,12 +2514,12 @@
         <v>37</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>22</v>
+        <v>331</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E80" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E80" s="3" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2486,13 +2528,13 @@
         <v>37</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>218</v>
+        <v>137</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>230</v>
+        <v>117</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>115</v>
@@ -2503,13 +2545,13 @@
         <v>37</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>118</v>
+        <v>217</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>119</v>
+        <v>229</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>177</v>
+        <v>238</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>115</v>
@@ -2520,13 +2562,10 @@
         <v>37</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>121</v>
+        <v>163</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>115</v>
@@ -2537,16 +2576,13 @@
         <v>37</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>231</v>
+        <v>148</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>195</v>
+        <v>149</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>115</v>
+        <v>319</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -2554,13 +2590,10 @@
         <v>37</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>115</v>
@@ -2571,13 +2604,13 @@
         <v>37</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>115</v>
@@ -2588,13 +2621,13 @@
         <v>37</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>115</v>
@@ -2605,13 +2638,13 @@
         <v>37</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>221</v>
+        <v>120</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>233</v>
+        <v>121</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>115</v>
@@ -2622,13 +2655,13 @@
         <v>37</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>126</v>
+        <v>219</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>127</v>
+        <v>231</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>115</v>
@@ -2639,13 +2672,13 @@
         <v>37</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>222</v>
+        <v>122</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>234</v>
+        <v>123</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>115</v>
@@ -2656,13 +2689,13 @@
         <v>37</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>128</v>
+        <v>220</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>115</v>
@@ -2673,13 +2706,13 @@
         <v>37</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>223</v>
+        <v>124</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>235</v>
+        <v>125</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>115</v>
@@ -2690,10 +2723,13 @@
         <v>37</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>130</v>
+        <v>221</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>115</v>
@@ -2704,10 +2740,13 @@
         <v>37</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>224</v>
+        <v>126</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>115</v>
@@ -2718,10 +2757,13 @@
         <v>37</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>131</v>
+        <v>222</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>115</v>
@@ -2732,10 +2774,13 @@
         <v>37</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>225</v>
+        <v>128</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>115</v>
@@ -2746,13 +2791,13 @@
         <v>37</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>132</v>
+        <v>223</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>133</v>
+        <v>235</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>115</v>
@@ -2763,13 +2808,10 @@
         <v>37</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>236</v>
+        <v>130</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>115</v>
@@ -2780,10 +2822,10 @@
         <v>37</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>115</v>
@@ -2794,10 +2836,10 @@
         <v>37</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>115</v>
@@ -2808,10 +2850,10 @@
         <v>37</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>115</v>
@@ -2822,10 +2864,13 @@
         <v>37</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>115</v>
@@ -2836,10 +2881,13 @@
         <v>37</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>236</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>115</v>
@@ -2850,10 +2898,13 @@
         <v>37</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>192</v>
+        <v>155</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -2861,10 +2912,13 @@
         <v>37</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>261</v>
+        <v>134</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>262</v>
+        <v>186</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -2872,10 +2926,13 @@
         <v>37</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>342</v>
+        <v>227</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>347</v>
+        <v>203</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -2883,10 +2940,13 @@
         <v>37</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>334</v>
+        <v>135</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>335</v>
+        <v>187</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -2894,13 +2954,13 @@
         <v>37</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>35</v>
+        <v>228</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>71</v>
+        <v>204</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -2908,13 +2968,10 @@
         <v>37</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>253</v>
+        <v>158</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>274</v>
+        <v>192</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -2922,10 +2979,10 @@
         <v>37</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>146</v>
+        <v>261</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>188</v>
+        <v>262</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -2933,10 +2990,10 @@
         <v>37</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>24</v>
+        <v>342</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>72</v>
+        <v>347</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -2944,13 +3001,10 @@
         <v>37</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>49</v>
+        <v>334</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>81</v>
+        <v>335</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -2958,13 +3012,13 @@
         <v>37</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>242</v>
+        <v>23</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>254</v>
+        <v>35</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>273</v>
+        <v>71</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -2972,13 +3026,13 @@
         <v>37</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>39</v>
+        <v>241</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>50</v>
+        <v>253</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>82</v>
+        <v>274</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -2986,13 +3040,10 @@
         <v>37</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>255</v>
+        <v>146</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>263</v>
+        <v>188</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -3000,13 +3051,10 @@
         <v>37</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -3014,13 +3062,13 @@
         <v>37</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>256</v>
+        <v>356</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>264</v>
+        <v>357</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -3028,13 +3076,13 @@
         <v>37</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -3042,13 +3090,13 @@
         <v>37</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -3056,13 +3104,13 @@
         <v>37</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -3070,13 +3118,13 @@
         <v>37</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -3084,16 +3132,13 @@
         <v>37</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>310</v>
+        <v>73</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -3101,13 +3146,13 @@
         <v>37</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -3115,10 +3160,13 @@
         <v>37</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -3126,10 +3174,13 @@
         <v>37</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -3137,13 +3188,13 @@
         <v>37</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>310</v>
+        <v>83</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -3151,10 +3202,13 @@
         <v>37</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -3162,13 +3216,16 @@
         <v>37</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -3176,13 +3233,13 @@
         <v>37</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -3190,10 +3247,13 @@
         <v>37</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>151</v>
+        <v>369</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>190</v>
+        <v>370</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -3201,13 +3261,10 @@
         <v>37</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>310</v>
+        <v>76</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -3215,10 +3272,10 @@
         <v>37</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -3226,10 +3283,13 @@
         <v>37</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -3237,16 +3297,144 @@
         <v>37</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D134" s="2" t="s">
+      <c r="D144" s="2" t="s">
         <v>272</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E128" xr:uid="{5BB291EF-653F-4FD8-900C-6852B0E4EEFE}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E134">
-      <sortCondition ref="B1:B128"/>
+  <autoFilter ref="A1:E135" xr:uid="{5BB291EF-653F-4FD8-900C-6852B0E4EEFE}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E144">
+      <sortCondition ref="B1:B135"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Citrix.WEMSDK.xlsx
+++ b/Citrix.WEMSDK.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAF7EC5-ADE5-47C0-BA16-D455ED213879}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFFEF33-9CA2-4006-96A0-E29E5C163F03}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="Issues" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Commands and Aliasses'!$A$1:$E$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Commands and Aliasses'!$A$1:$E$142</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="390">
   <si>
     <t>Command</t>
   </si>
@@ -1087,18 +1087,9 @@
     <t>Set-WEMSystemOptimization</t>
   </si>
   <si>
-    <t>Updates a WEM System Optimization object in the WEM Database.</t>
-  </si>
-  <si>
-    <t>TODO: Determine if all properties should be available as individual parameters to the function</t>
-  </si>
-  <si>
     <t>Get-WEMSystemOptimization</t>
   </si>
   <si>
-    <t>Returns a WEM System Optimization object from the WEM Database.</t>
-  </si>
-  <si>
     <t>Returns a WEM Environmental Settings object from the WEM Database.</t>
   </si>
   <si>
@@ -1145,6 +1136,72 @@
   </si>
   <si>
     <t>Updates a WEM Persona Settings object in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Get-WEMTransformerSettings</t>
+  </si>
+  <si>
+    <t>Get-WEMKioskSettings</t>
+  </si>
+  <si>
+    <t>Returns a WEM Transformer Settings object from the WEM Database.</t>
+  </si>
+  <si>
+    <t>Set-WEMTransformerSettings</t>
+  </si>
+  <si>
+    <t>Set-WEMKioskSettings</t>
+  </si>
+  <si>
+    <t>Updates a WEM Transformer Settings object in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Reset-WEMEnvironmentalSettings</t>
+  </si>
+  <si>
+    <t>Reset-WEMPersonaSettings</t>
+  </si>
+  <si>
+    <t>Reset-WEMSystemOptimization</t>
+  </si>
+  <si>
+    <t>Reset-WEMTransformerSettings</t>
+  </si>
+  <si>
+    <t>Reset-WEMUSVSettings</t>
+  </si>
+  <si>
+    <t>Reset-WEMUPMSettings</t>
+  </si>
+  <si>
+    <t>Reset-WEMKioskSettings</t>
+  </si>
+  <si>
+    <t>Resets a WEM USV Settings object in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Resets a WEM Environmental Settings object in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Resets a WEM Persona Settings object in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Resets a WEM System Optimization Settings object in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Resets a WEM Transformer Settings object in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Resets a WEM UPM Settings object in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Updates a WEM System Optimization Settings object in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Returns a WEM System Optimization Settings object from the WEM Database.</t>
+  </si>
+  <si>
+    <t>TODO: Determine if all properties should be available as individual parameters to the function,Implement logic for required dependencies</t>
   </si>
 </sst>
 </file>
@@ -1482,11 +1539,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E144"/>
+  <dimension ref="A1:E152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D131" sqref="D131"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1648,10 +1705,10 @@
         <v>37</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1830,10 +1887,10 @@
         <v>37</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1927,10 +1984,10 @@
         <v>37</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>354</v>
+        <v>388</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1938,13 +1995,13 @@
         <v>37</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>15</v>
+        <v>368</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>369</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>318</v>
+        <v>370</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1952,10 +2009,10 @@
         <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>287</v>
+        <v>362</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>306</v>
+        <v>363</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1963,10 +2020,13 @@
         <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>359</v>
+        <v>15</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>360</v>
+        <v>68</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1974,10 +2034,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>365</v>
+        <v>287</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>366</v>
+        <v>306</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1985,10 +2045,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>16</v>
+        <v>356</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>69</v>
+        <v>357</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -1996,10 +2056,10 @@
         <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>296</v>
+        <v>16</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>307</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -2007,10 +2067,10 @@
         <v>37</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>157</v>
+        <v>296</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>193</v>
+        <v>307</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -2018,10 +2078,10 @@
         <v>37</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>237</v>
+        <v>157</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>323</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -2029,13 +2089,10 @@
         <v>37</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>330</v>
+        <v>237</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>140</v>
+        <v>323</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -2043,10 +2100,13 @@
         <v>37</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>345</v>
+        <v>338</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -2054,10 +2114,10 @@
         <v>37</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -2065,13 +2125,10 @@
         <v>37</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>140</v>
+        <v>349</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -2079,13 +2136,13 @@
         <v>37</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>114</v>
+        <v>328</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>320</v>
+        <v>329</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -2093,13 +2150,13 @@
         <v>37</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>205</v>
+        <v>17</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>275</v>
+        <v>114</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -2107,10 +2164,13 @@
         <v>37</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>147</v>
+        <v>205</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>275</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>189</v>
+        <v>324</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -2118,10 +2178,10 @@
         <v>37</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>321</v>
+        <v>189</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -2129,10 +2189,10 @@
         <v>37</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>33</v>
+        <v>321</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -2140,13 +2200,10 @@
         <v>37</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -2154,13 +2211,13 @@
         <v>37</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>206</v>
+        <v>84</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>311</v>
+        <v>85</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>166</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -2168,13 +2225,13 @@
         <v>37</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>86</v>
+        <v>206</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>87</v>
+        <v>311</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>102</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -2182,13 +2239,13 @@
         <v>37</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>207</v>
+        <v>86</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>312</v>
+        <v>87</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>167</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -2196,13 +2253,13 @@
         <v>37</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>88</v>
+        <v>207</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>89</v>
+        <v>312</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>103</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -2210,13 +2267,13 @@
         <v>37</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>208</v>
+        <v>88</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>313</v>
+        <v>89</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>168</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -2224,13 +2281,13 @@
         <v>37</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>90</v>
+        <v>208</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>91</v>
+        <v>313</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>104</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -2238,13 +2295,13 @@
         <v>37</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>209</v>
+        <v>90</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>314</v>
+        <v>91</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>169</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -2252,13 +2309,13 @@
         <v>37</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>92</v>
+        <v>209</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>93</v>
+        <v>314</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>105</v>
+        <v>169</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -2266,13 +2323,13 @@
         <v>37</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>210</v>
+        <v>92</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>315</v>
+        <v>93</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>170</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -2280,16 +2337,13 @@
         <v>37</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>94</v>
+        <v>210</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>95</v>
+        <v>315</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>310</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -2297,13 +2351,16 @@
         <v>37</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>316</v>
+        <v>95</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>171</v>
+        <v>106</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -2311,10 +2368,13 @@
         <v>37</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>96</v>
+        <v>211</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -2322,10 +2382,10 @@
         <v>37</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>212</v>
+        <v>96</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>172</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -2333,13 +2393,10 @@
         <v>37</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>20</v>
+        <v>212</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>310</v>
+        <v>172</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -2347,10 +2404,13 @@
         <v>37</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>213</v>
+        <v>20</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -2358,16 +2418,10 @@
         <v>37</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>98</v>
+        <v>213</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>116</v>
+        <v>325</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -2375,13 +2429,16 @@
         <v>37</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>214</v>
+        <v>97</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>317</v>
+        <v>98</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>173</v>
+        <v>108</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -2389,10 +2446,13 @@
         <v>37</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>152</v>
+        <v>214</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -2400,13 +2460,10 @@
         <v>37</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>99</v>
+        <v>152</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>310</v>
+        <v>191</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -2414,10 +2471,13 @@
         <v>37</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>215</v>
+        <v>99</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>174</v>
+        <v>109</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -2425,10 +2485,10 @@
         <v>37</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>100</v>
+        <v>215</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>110</v>
+        <v>174</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -2436,10 +2496,10 @@
         <v>37</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>216</v>
+        <v>100</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>175</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -2447,13 +2507,10 @@
         <v>37</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>21</v>
+        <v>216</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>115</v>
+        <v>175</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -2461,10 +2518,10 @@
         <v>37</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>159</v>
+        <v>21</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>161</v>
+        <v>70</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>115</v>
@@ -2475,10 +2532,10 @@
         <v>37</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>239</v>
+        <v>159</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>115</v>
@@ -2489,12 +2546,12 @@
         <v>37</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>332</v>
+        <v>239</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="E78" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2503,10 +2560,13 @@
         <v>37</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>346</v>
+        <v>339</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -2514,13 +2574,10 @@
         <v>37</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>115</v>
+        <v>346</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -2528,15 +2585,12 @@
         <v>37</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>117</v>
+        <v>331</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E81" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E81" s="3" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2545,13 +2599,13 @@
         <v>37</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>217</v>
+        <v>137</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>229</v>
+        <v>117</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>238</v>
+        <v>136</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>115</v>
@@ -2562,10 +2616,13 @@
         <v>37</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>163</v>
+        <v>217</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>165</v>
+        <v>238</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>115</v>
@@ -2576,13 +2633,13 @@
         <v>37</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>319</v>
+        <v>115</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -2590,13 +2647,13 @@
         <v>37</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>22</v>
+        <v>148</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>115</v>
+        <v>319</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -2604,13 +2661,10 @@
         <v>37</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>230</v>
+        <v>22</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>115</v>
@@ -2621,13 +2675,13 @@
         <v>37</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>118</v>
+        <v>218</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>119</v>
+        <v>230</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>115</v>
@@ -2638,13 +2692,13 @@
         <v>37</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>115</v>
@@ -2655,13 +2709,13 @@
         <v>37</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>219</v>
+        <v>120</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>231</v>
+        <v>121</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>115</v>
@@ -2672,13 +2726,13 @@
         <v>37</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>122</v>
+        <v>219</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>123</v>
+        <v>231</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>115</v>
@@ -2689,13 +2743,13 @@
         <v>37</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>220</v>
+        <v>122</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>232</v>
+        <v>123</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>115</v>
@@ -2706,13 +2760,13 @@
         <v>37</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>124</v>
+        <v>220</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>125</v>
+        <v>232</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>115</v>
@@ -2723,13 +2777,13 @@
         <v>37</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>221</v>
+        <v>124</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>233</v>
+        <v>125</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>115</v>
@@ -2740,13 +2794,13 @@
         <v>37</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>126</v>
+        <v>221</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>127</v>
+        <v>233</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>115</v>
@@ -2757,13 +2811,13 @@
         <v>37</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>222</v>
+        <v>126</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>234</v>
+        <v>127</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>115</v>
@@ -2774,13 +2828,13 @@
         <v>37</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>128</v>
+        <v>222</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>129</v>
+        <v>234</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>115</v>
@@ -2791,13 +2845,13 @@
         <v>37</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>223</v>
+        <v>128</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>235</v>
+        <v>129</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>115</v>
@@ -2808,10 +2862,13 @@
         <v>37</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>130</v>
+        <v>223</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>235</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>115</v>
@@ -2822,10 +2879,10 @@
         <v>37</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>224</v>
+        <v>130</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>115</v>
@@ -2836,10 +2893,10 @@
         <v>37</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>131</v>
+        <v>224</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>115</v>
@@ -2850,10 +2907,10 @@
         <v>37</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>225</v>
+        <v>131</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>115</v>
@@ -2864,13 +2921,10 @@
         <v>37</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>133</v>
+        <v>225</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>115</v>
@@ -2881,13 +2935,13 @@
         <v>37</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>226</v>
+        <v>132</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>236</v>
+        <v>133</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>115</v>
@@ -2898,10 +2952,13 @@
         <v>37</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>153</v>
+        <v>226</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>236</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>155</v>
+        <v>202</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>115</v>
@@ -2912,10 +2969,10 @@
         <v>37</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>115</v>
@@ -2926,10 +2983,10 @@
         <v>37</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>227</v>
+        <v>134</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>115</v>
@@ -2940,10 +2997,10 @@
         <v>37</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>135</v>
+        <v>227</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>115</v>
@@ -2954,10 +3011,10 @@
         <v>37</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>228</v>
+        <v>135</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>115</v>
@@ -2968,10 +3025,13 @@
         <v>37</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>158</v>
+        <v>228</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>192</v>
+        <v>204</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -2979,10 +3039,13 @@
         <v>37</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>261</v>
+        <v>374</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>262</v>
+        <v>382</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -2990,10 +3053,13 @@
         <v>37</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>342</v>
+        <v>375</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>347</v>
+        <v>383</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -3001,10 +3067,13 @@
         <v>37</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>334</v>
+        <v>376</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>335</v>
+        <v>384</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -3012,13 +3081,16 @@
         <v>37</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>23</v>
+        <v>377</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>35</v>
+        <v>380</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>71</v>
+        <v>385</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -3026,13 +3098,13 @@
         <v>37</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>253</v>
+        <v>379</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>274</v>
+        <v>386</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -3040,10 +3112,13 @@
         <v>37</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>146</v>
+        <v>378</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>188</v>
+        <v>381</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -3051,10 +3126,10 @@
         <v>37</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>24</v>
+        <v>158</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>72</v>
+        <v>192</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -3062,13 +3137,10 @@
         <v>37</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>356</v>
+        <v>261</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>352</v>
+        <v>262</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -3076,13 +3148,10 @@
         <v>37</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>49</v>
+        <v>342</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>81</v>
+        <v>347</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -3090,13 +3159,10 @@
         <v>37</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>254</v>
+        <v>334</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>273</v>
+        <v>335</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -3104,13 +3170,13 @@
         <v>37</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -3118,13 +3184,13 @@
         <v>37</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -3132,13 +3198,10 @@
         <v>37</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>51</v>
+        <v>146</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>73</v>
+        <v>188</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -3146,27 +3209,24 @@
         <v>37</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>256</v>
+        <v>24</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>52</v>
+        <v>353</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>74</v>
+        <v>354</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -3174,13 +3234,13 @@
         <v>37</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>245</v>
+        <v>38</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>257</v>
+        <v>49</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>265</v>
+        <v>81</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -3188,13 +3248,13 @@
         <v>37</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>42</v>
+        <v>242</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>53</v>
+        <v>254</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>83</v>
+        <v>273</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -3202,13 +3262,13 @@
         <v>37</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>246</v>
+        <v>39</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>258</v>
+        <v>50</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>266</v>
+        <v>82</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -3216,16 +3276,13 @@
         <v>37</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>43</v>
+        <v>243</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>54</v>
+        <v>255</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>310</v>
+        <v>263</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -3233,13 +3290,13 @@
         <v>37</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>247</v>
+        <v>40</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>259</v>
+        <v>51</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>267</v>
+        <v>73</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -3247,13 +3304,13 @@
         <v>37</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>369</v>
+        <v>244</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>352</v>
+        <v>264</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -3261,10 +3318,13 @@
         <v>37</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -3272,10 +3332,13 @@
         <v>37</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -3283,13 +3346,13 @@
         <v>37</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>310</v>
+        <v>83</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -3297,10 +3360,13 @@
         <v>37</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -3308,13 +3374,16 @@
         <v>37</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -3322,24 +3391,27 @@
         <v>37</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>151</v>
+        <v>366</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>190</v>
+        <v>367</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -3347,13 +3419,10 @@
         <v>37</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>350</v>
+        <v>44</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>352</v>
+        <v>76</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
@@ -3361,13 +3430,10 @@
         <v>37</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>363</v>
+        <v>248</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>352</v>
+        <v>268</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
@@ -3375,10 +3441,10 @@
         <v>37</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>310</v>
@@ -3389,10 +3455,10 @@
         <v>37</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -3400,13 +3466,13 @@
         <v>37</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>361</v>
+        <v>46</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>352</v>
+        <v>78</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -3414,10 +3480,13 @@
         <v>37</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>48</v>
+        <v>250</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>260</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>80</v>
+        <v>270</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
@@ -3425,16 +3494,122 @@
         <v>37</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B152" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D144" s="2" t="s">
+      <c r="D152" s="2" t="s">
         <v>272</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E135" xr:uid="{5BB291EF-653F-4FD8-900C-6852B0E4EEFE}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E144">
-      <sortCondition ref="B1:B135"/>
+  <autoFilter ref="A1:E142" xr:uid="{5BB291EF-653F-4FD8-900C-6852B0E4EEFE}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E152">
+      <sortCondition ref="B1:B142"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Citrix.WEMSDK.xlsx
+++ b/Citrix.WEMSDK.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFFEF33-9CA2-4006-96A0-E29E5C163F03}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE1EAB3-FB2F-4AD0-A4CC-FEE2FCE7B66A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="Issues" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Commands and Aliasses'!$A$1:$E$142</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Commands and Aliasses'!$A$1:$E$145</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="396">
   <si>
     <t>Command</t>
   </si>
@@ -1202,6 +1202,24 @@
   </si>
   <si>
     <t>TODO: Determine if all properties should be available as individual parameters to the function,Implement logic for required dependencies</t>
+  </si>
+  <si>
+    <t>Get-WEMAgentSettings</t>
+  </si>
+  <si>
+    <t>Returns a WEM Agent Settings object from the WEM Database.</t>
+  </si>
+  <si>
+    <t>Reset-WEMAgentSettings</t>
+  </si>
+  <si>
+    <t>Resets a WEM Agent Settings object in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Set-WEMAgentSettings</t>
+  </si>
+  <si>
+    <t>Updates a WEM Agent Settings object in the WEM Database.</t>
   </si>
 </sst>
 </file>
@@ -1539,11 +1557,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E152"/>
+  <dimension ref="A1:E155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1644,13 +1662,10 @@
         <v>37</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>390</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>57</v>
+        <v>391</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1658,13 +1673,13 @@
         <v>37</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>277</v>
+        <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>288</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>308</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1672,10 +1687,13 @@
         <v>37</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>162</v>
+        <v>277</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>288</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>164</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1683,10 +1701,10 @@
         <v>37</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1694,10 +1712,10 @@
         <v>37</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>5</v>
+        <v>144</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>58</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1705,10 +1723,10 @@
         <v>37</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>355</v>
+        <v>5</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>352</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1716,13 +1734,10 @@
         <v>37</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>26</v>
+        <v>355</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>59</v>
+        <v>352</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1730,13 +1745,13 @@
         <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>278</v>
+        <v>6</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>289</v>
+        <v>26</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>309</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1744,13 +1759,13 @@
         <v>37</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>7</v>
+        <v>278</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>27</v>
+        <v>289</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>60</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1758,13 +1773,13 @@
         <v>37</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>279</v>
+        <v>7</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>290</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>298</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1772,13 +1787,13 @@
         <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>8</v>
+        <v>279</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>28</v>
+        <v>290</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>61</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1786,13 +1801,13 @@
         <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>280</v>
+        <v>8</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>291</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>299</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1800,13 +1815,13 @@
         <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>9</v>
+        <v>280</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>29</v>
+        <v>291</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>62</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1814,13 +1829,13 @@
         <v>37</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>281</v>
+        <v>9</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>292</v>
+        <v>29</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>300</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1828,13 +1843,13 @@
         <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>10</v>
+        <v>281</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>30</v>
+        <v>292</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>63</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1842,13 +1857,13 @@
         <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>282</v>
+        <v>10</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>293</v>
+        <v>30</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>301</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1856,16 +1871,13 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>11</v>
+        <v>282</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>31</v>
+        <v>293</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1873,13 +1885,16 @@
         <v>37</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>283</v>
+        <v>11</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>294</v>
+        <v>31</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>302</v>
+        <v>64</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1887,10 +1902,13 @@
         <v>37</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>364</v>
+        <v>283</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>294</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>365</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1898,10 +1916,10 @@
         <v>37</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>12</v>
+        <v>364</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>65</v>
+        <v>365</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1909,10 +1927,10 @@
         <v>37</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>284</v>
+        <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>303</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1920,13 +1938,10 @@
         <v>37</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>13</v>
+        <v>284</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1934,10 +1949,13 @@
         <v>37</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>285</v>
+        <v>13</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>304</v>
+        <v>66</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1945,13 +1963,10 @@
         <v>37</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>32</v>
+        <v>285</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>67</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1959,13 +1974,13 @@
         <v>37</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>286</v>
+        <v>14</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>295</v>
+        <v>32</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>305</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1973,10 +1988,13 @@
         <v>37</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>150</v>
+        <v>286</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>295</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>154</v>
+        <v>305</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1984,10 +2002,10 @@
         <v>37</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>351</v>
+        <v>150</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>388</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1995,13 +2013,10 @@
         <v>37</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -2009,10 +2024,13 @@
         <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>362</v>
+        <v>368</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>369</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -2020,13 +2038,10 @@
         <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>15</v>
+        <v>362</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>318</v>
+        <v>363</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -2034,10 +2049,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>287</v>
+        <v>15</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>306</v>
+        <v>68</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -2045,10 +2063,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>356</v>
+        <v>287</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>357</v>
+        <v>306</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -2056,10 +2074,10 @@
         <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>16</v>
+        <v>356</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>69</v>
+        <v>357</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -2067,10 +2085,10 @@
         <v>37</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>296</v>
+        <v>16</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>307</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -2078,10 +2096,10 @@
         <v>37</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>157</v>
+        <v>296</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>193</v>
+        <v>307</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -2089,10 +2107,10 @@
         <v>37</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>237</v>
+        <v>157</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>323</v>
+        <v>193</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -2100,13 +2118,10 @@
         <v>37</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>330</v>
+        <v>237</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>140</v>
+        <v>323</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -2114,10 +2129,13 @@
         <v>37</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>345</v>
+        <v>338</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -2125,10 +2143,10 @@
         <v>37</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -2136,13 +2154,10 @@
         <v>37</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>140</v>
+        <v>349</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -2150,13 +2165,13 @@
         <v>37</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>114</v>
+        <v>328</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>320</v>
+        <v>329</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -2164,13 +2179,13 @@
         <v>37</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>205</v>
+        <v>17</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>275</v>
+        <v>114</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -2178,10 +2193,13 @@
         <v>37</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>147</v>
+        <v>205</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>275</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>189</v>
+        <v>324</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -2189,10 +2207,10 @@
         <v>37</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>321</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -2200,10 +2218,10 @@
         <v>37</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>33</v>
+        <v>321</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -2211,13 +2229,10 @@
         <v>37</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -2225,13 +2240,13 @@
         <v>37</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>206</v>
+        <v>84</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>311</v>
+        <v>85</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>166</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -2239,13 +2254,13 @@
         <v>37</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>86</v>
+        <v>206</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>87</v>
+        <v>311</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>102</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -2253,13 +2268,13 @@
         <v>37</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>207</v>
+        <v>86</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>312</v>
+        <v>87</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>167</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -2267,13 +2282,13 @@
         <v>37</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>88</v>
+        <v>207</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>89</v>
+        <v>312</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>103</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -2281,13 +2296,13 @@
         <v>37</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>208</v>
+        <v>88</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>313</v>
+        <v>89</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>168</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -2295,13 +2310,13 @@
         <v>37</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>90</v>
+        <v>208</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>91</v>
+        <v>313</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>104</v>
+        <v>168</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -2309,13 +2324,13 @@
         <v>37</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>209</v>
+        <v>90</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>314</v>
+        <v>91</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>169</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -2323,13 +2338,13 @@
         <v>37</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>92</v>
+        <v>209</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>93</v>
+        <v>314</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>105</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -2337,13 +2352,13 @@
         <v>37</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>210</v>
+        <v>92</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>315</v>
+        <v>93</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>170</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -2351,16 +2366,13 @@
         <v>37</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>94</v>
+        <v>210</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>95</v>
+        <v>315</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>310</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -2368,13 +2380,16 @@
         <v>37</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>316</v>
+        <v>95</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>171</v>
+        <v>106</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -2382,10 +2397,13 @@
         <v>37</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>96</v>
+        <v>211</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -2393,10 +2411,10 @@
         <v>37</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>212</v>
+        <v>96</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>172</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -2404,13 +2422,10 @@
         <v>37</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>20</v>
+        <v>212</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>310</v>
+        <v>172</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -2418,10 +2433,13 @@
         <v>37</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>213</v>
+        <v>20</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -2429,16 +2447,10 @@
         <v>37</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>98</v>
+        <v>213</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>116</v>
+        <v>325</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -2446,13 +2458,16 @@
         <v>37</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>214</v>
+        <v>97</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>317</v>
+        <v>98</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>173</v>
+        <v>108</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -2460,10 +2475,13 @@
         <v>37</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>152</v>
+        <v>214</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -2471,13 +2489,10 @@
         <v>37</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>99</v>
+        <v>152</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>310</v>
+        <v>191</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -2485,10 +2500,13 @@
         <v>37</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>215</v>
+        <v>99</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>174</v>
+        <v>109</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -2496,10 +2514,10 @@
         <v>37</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>100</v>
+        <v>215</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>110</v>
+        <v>174</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -2507,10 +2525,10 @@
         <v>37</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>216</v>
+        <v>100</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>175</v>
+        <v>110</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -2518,13 +2536,10 @@
         <v>37</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>21</v>
+        <v>216</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>115</v>
+        <v>175</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -2532,10 +2547,10 @@
         <v>37</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>159</v>
+        <v>21</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>161</v>
+        <v>70</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>115</v>
@@ -2546,10 +2561,10 @@
         <v>37</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>239</v>
+        <v>159</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>115</v>
@@ -2560,12 +2575,12 @@
         <v>37</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>332</v>
+        <v>239</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="E79" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2574,10 +2589,13 @@
         <v>37</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>346</v>
+        <v>339</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -2585,13 +2603,10 @@
         <v>37</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>115</v>
+        <v>346</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -2599,15 +2614,12 @@
         <v>37</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>117</v>
+        <v>331</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E82" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E82" s="3" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2616,13 +2628,13 @@
         <v>37</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>217</v>
+        <v>137</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>229</v>
+        <v>117</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>238</v>
+        <v>136</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>115</v>
@@ -2633,10 +2645,13 @@
         <v>37</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>163</v>
+        <v>217</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>165</v>
+        <v>238</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>115</v>
@@ -2647,13 +2662,13 @@
         <v>37</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>319</v>
+        <v>115</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -2661,13 +2676,13 @@
         <v>37</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>22</v>
+        <v>148</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>115</v>
+        <v>319</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -2675,13 +2690,10 @@
         <v>37</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>230</v>
+        <v>22</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>115</v>
@@ -2692,13 +2704,13 @@
         <v>37</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>118</v>
+        <v>218</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>119</v>
+        <v>230</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>115</v>
@@ -2709,13 +2721,13 @@
         <v>37</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>115</v>
@@ -2726,13 +2738,13 @@
         <v>37</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>219</v>
+        <v>120</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>231</v>
+        <v>121</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>115</v>
@@ -2743,13 +2755,13 @@
         <v>37</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>122</v>
+        <v>219</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>123</v>
+        <v>231</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>115</v>
@@ -2760,13 +2772,13 @@
         <v>37</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>220</v>
+        <v>122</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>232</v>
+        <v>123</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>115</v>
@@ -2777,13 +2789,13 @@
         <v>37</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>124</v>
+        <v>220</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>125</v>
+        <v>232</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>115</v>
@@ -2794,13 +2806,13 @@
         <v>37</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>221</v>
+        <v>124</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>233</v>
+        <v>125</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>115</v>
@@ -2811,13 +2823,13 @@
         <v>37</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>126</v>
+        <v>221</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>127</v>
+        <v>233</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>115</v>
@@ -2828,13 +2840,13 @@
         <v>37</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>222</v>
+        <v>126</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>234</v>
+        <v>127</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>115</v>
@@ -2845,13 +2857,13 @@
         <v>37</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>128</v>
+        <v>222</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>129</v>
+        <v>234</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>115</v>
@@ -2862,13 +2874,13 @@
         <v>37</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>223</v>
+        <v>128</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>235</v>
+        <v>129</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>115</v>
@@ -2879,10 +2891,13 @@
         <v>37</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>130</v>
+        <v>223</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>235</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>115</v>
@@ -2893,10 +2908,10 @@
         <v>37</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>224</v>
+        <v>130</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>115</v>
@@ -2907,10 +2922,10 @@
         <v>37</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>131</v>
+        <v>224</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>115</v>
@@ -2921,10 +2936,10 @@
         <v>37</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>225</v>
+        <v>131</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>115</v>
@@ -2935,13 +2950,10 @@
         <v>37</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>133</v>
+        <v>225</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>115</v>
@@ -2952,13 +2964,13 @@
         <v>37</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>226</v>
+        <v>132</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>236</v>
+        <v>133</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>115</v>
@@ -2969,10 +2981,13 @@
         <v>37</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>153</v>
+        <v>226</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>236</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>155</v>
+        <v>202</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>115</v>
@@ -2983,10 +2998,10 @@
         <v>37</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>115</v>
@@ -2997,10 +3012,10 @@
         <v>37</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>227</v>
+        <v>134</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>115</v>
@@ -3011,10 +3026,10 @@
         <v>37</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>135</v>
+        <v>227</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>115</v>
@@ -3025,10 +3040,10 @@
         <v>37</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>228</v>
+        <v>135</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>115</v>
@@ -3039,10 +3054,10 @@
         <v>37</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>374</v>
+        <v>228</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>382</v>
+        <v>204</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>115</v>
@@ -3053,10 +3068,10 @@
         <v>37</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>115</v>
@@ -3067,10 +3082,10 @@
         <v>37</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>115</v>
@@ -3081,13 +3096,10 @@
         <v>37</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>115</v>
@@ -3098,10 +3110,10 @@
         <v>37</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>115</v>
@@ -3112,10 +3124,13 @@
         <v>37</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>380</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>115</v>
@@ -3126,10 +3141,13 @@
         <v>37</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>158</v>
+        <v>379</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>192</v>
+        <v>386</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -3137,10 +3155,13 @@
         <v>37</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>261</v>
+        <v>378</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>262</v>
+        <v>381</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -3148,10 +3169,10 @@
         <v>37</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>342</v>
+        <v>158</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>347</v>
+        <v>192</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -3159,10 +3180,10 @@
         <v>37</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>334</v>
+        <v>261</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>335</v>
+        <v>262</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -3170,13 +3191,10 @@
         <v>37</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>35</v>
+        <v>342</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>71</v>
+        <v>347</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -3184,24 +3202,24 @@
         <v>37</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>253</v>
+        <v>334</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>146</v>
+        <v>394</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>188</v>
+        <v>395</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -3209,24 +3227,27 @@
         <v>37</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>353</v>
+        <v>241</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>389</v>
+        <v>274</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -3234,13 +3255,10 @@
         <v>37</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>81</v>
+        <v>188</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -3248,27 +3266,24 @@
         <v>37</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>254</v>
+        <v>24</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>50</v>
+        <v>353</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>82</v>
+        <v>354</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -3276,13 +3291,13 @@
         <v>37</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>243</v>
+        <v>38</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>255</v>
+        <v>49</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>263</v>
+        <v>81</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -3290,13 +3305,13 @@
         <v>37</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>40</v>
+        <v>242</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>51</v>
+        <v>254</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>73</v>
+        <v>273</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -3304,13 +3319,13 @@
         <v>37</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>244</v>
+        <v>39</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>256</v>
+        <v>50</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>264</v>
+        <v>82</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -3318,13 +3333,13 @@
         <v>37</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>41</v>
+        <v>243</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>52</v>
+        <v>255</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>74</v>
+        <v>263</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -3332,13 +3347,13 @@
         <v>37</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>245</v>
+        <v>40</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>257</v>
+        <v>51</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>265</v>
+        <v>73</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -3346,13 +3361,13 @@
         <v>37</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>42</v>
+        <v>244</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>53</v>
+        <v>256</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>83</v>
+        <v>264</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -3360,13 +3375,13 @@
         <v>37</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>246</v>
+        <v>41</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>258</v>
+        <v>52</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>266</v>
+        <v>74</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -3374,16 +3389,13 @@
         <v>37</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>43</v>
+        <v>245</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>54</v>
+        <v>257</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>310</v>
+        <v>265</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -3391,27 +3403,27 @@
         <v>37</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>247</v>
+        <v>42</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>259</v>
+        <v>53</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>366</v>
+        <v>246</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>389</v>
+        <v>266</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -3419,10 +3431,16 @@
         <v>37</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
@@ -3430,24 +3448,27 @@
         <v>37</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>45</v>
+        <v>366</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>310</v>
+        <v>367</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -3455,10 +3476,10 @@
         <v>37</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>249</v>
+        <v>44</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>269</v>
+        <v>76</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -3466,13 +3487,10 @@
         <v>37</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>55</v>
+        <v>248</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>78</v>
+        <v>268</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -3480,13 +3498,13 @@
         <v>37</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>260</v>
+        <v>45</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>270</v>
+        <v>77</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
@@ -3494,80 +3512,80 @@
         <v>37</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D144" s="2" t="s">
+      <c r="D147" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A145" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B145" s="2" t="s">
+    <row r="148" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="D145" s="2" t="s">
+      <c r="D148" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E145" s="3" t="s">
+      <c r="E148" s="3" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A146" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B146" s="2" t="s">
+    <row r="149" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C149" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="D146" s="2" t="s">
+      <c r="D149" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="E146" s="3" t="s">
+      <c r="E149" s="3" t="s">
         <v>389</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A147" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="E147" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A148" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -3575,10 +3593,10 @@
         <v>37</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>389</v>
@@ -3589,10 +3607,13 @@
         <v>37</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
@@ -3600,16 +3621,52 @@
         <v>37</v>
       </c>
       <c r="B152" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D152" s="2" t="s">
+      <c r="D155" s="2" t="s">
         <v>272</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E142" xr:uid="{5BB291EF-653F-4FD8-900C-6852B0E4EEFE}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E152">
-      <sortCondition ref="B1:B142"/>
+  <autoFilter ref="A1:E145" xr:uid="{5BB291EF-653F-4FD8-900C-6852B0E4EEFE}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E155">
+      <sortCondition ref="B1:B145"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Citrix.WEMSDK.xlsx
+++ b/Citrix.WEMSDK.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE1EAB3-FB2F-4AD0-A4CC-FEE2FCE7B66A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B52D43-9052-489F-97DD-3331DCFC54D6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="Issues" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Commands and Aliasses'!$A$1:$E$145</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Commands and Aliasses'!$A$1:$E$156</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="425">
   <si>
     <t>Command</t>
   </si>
@@ -1090,72 +1090,42 @@
     <t>Get-WEMSystemOptimization</t>
   </si>
   <si>
-    <t>Returns a WEM Environmental Settings object from the WEM Database.</t>
-  </si>
-  <si>
     <t>Set-WEMEnvironmentalSettings</t>
   </si>
   <si>
-    <t>Updates a WEM Environmental Settings object in the WEM Database.</t>
-  </si>
-  <si>
     <t>Get-WEMEnvironmentalSettings</t>
   </si>
   <si>
     <t>Get-WEMUSVSettings</t>
   </si>
   <si>
-    <t>Returns a WEM USV Settings object from the WEM Database.</t>
-  </si>
-  <si>
     <t>Set-WEMUSVSettings</t>
   </si>
   <si>
-    <t>Updates a WEM USV Settings object in the WEM Database.</t>
-  </si>
-  <si>
     <t>Set-WEMUPMSettings</t>
   </si>
   <si>
-    <t>Updates a WEM UPM Settings object in the WEM Database.</t>
-  </si>
-  <si>
     <t>Get-WEMUPMSettings</t>
   </si>
   <si>
-    <t>Returns a WEM UPM Settings object from the WEM Database.</t>
-  </si>
-  <si>
     <t>Get-WEMPersonaSettings</t>
   </si>
   <si>
-    <t>Returns a WEM Persona Settings object from the WEM Database.</t>
-  </si>
-  <si>
     <t>Set-WEMPersonaSettings</t>
   </si>
   <si>
-    <t>Updates a WEM Persona Settings object in the WEM Database.</t>
-  </si>
-  <si>
     <t>Get-WEMTransformerSettings</t>
   </si>
   <si>
     <t>Get-WEMKioskSettings</t>
   </si>
   <si>
-    <t>Returns a WEM Transformer Settings object from the WEM Database.</t>
-  </si>
-  <si>
     <t>Set-WEMTransformerSettings</t>
   </si>
   <si>
     <t>Set-WEMKioskSettings</t>
   </si>
   <si>
-    <t>Updates a WEM Transformer Settings object in the WEM Database.</t>
-  </si>
-  <si>
     <t>Reset-WEMEnvironmentalSettings</t>
   </si>
   <si>
@@ -1177,49 +1147,172 @@
     <t>Reset-WEMKioskSettings</t>
   </si>
   <si>
-    <t>Resets a WEM USV Settings object in the WEM Database.</t>
-  </si>
-  <si>
-    <t>Resets a WEM Environmental Settings object in the WEM Database.</t>
-  </si>
-  <si>
-    <t>Resets a WEM Persona Settings object in the WEM Database.</t>
-  </si>
-  <si>
-    <t>Resets a WEM System Optimization Settings object in the WEM Database.</t>
-  </si>
-  <si>
-    <t>Resets a WEM Transformer Settings object in the WEM Database.</t>
-  </si>
-  <si>
-    <t>Resets a WEM UPM Settings object in the WEM Database.</t>
-  </si>
-  <si>
-    <t>Updates a WEM System Optimization Settings object in the WEM Database.</t>
-  </si>
-  <si>
-    <t>Returns a WEM System Optimization Settings object from the WEM Database.</t>
-  </si>
-  <si>
-    <t>TODO: Determine if all properties should be available as individual parameters to the function,Implement logic for required dependencies</t>
-  </si>
-  <si>
     <t>Get-WEMAgentSettings</t>
   </si>
   <si>
-    <t>Returns a WEM Agent Settings object from the WEM Database.</t>
-  </si>
-  <si>
     <t>Reset-WEMAgentSettings</t>
   </si>
   <si>
-    <t>Resets a WEM Agent Settings object in the WEM Database.</t>
-  </si>
-  <si>
     <t>Set-WEMAgentSettings</t>
   </si>
   <si>
-    <t>Updates a WEM Agent Settings object in the WEM Database.</t>
+    <t>Updates WEM Agent Settings in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Updates WEM Environmental Settings in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Updates WEM Persona Settings in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Updates WEM System Optimization Settings in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Updates WEM Transformer Settings in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Updates WEM UPM Settings in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Updates WEM USV Settings in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Resets WEM USV Settings in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Resets WEM Agent Settings in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Resets WEM Environmental Settings in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Resets WEM Persona Settings in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Resets WEM System Optimization Settings in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Resets WEM Transformer Settings in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Resets WEM UPM Settings in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Reset-WEMAppLockerSettings</t>
+  </si>
+  <si>
+    <t>Resets WEM AppLocker Settings in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Set-WEMAppLockerSettings</t>
+  </si>
+  <si>
+    <t>Updates WEM AppLocker Settings in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Get-WEMAppLockerSettings</t>
+  </si>
+  <si>
+    <t>Returns WEM Agent Settings from the WEM Database.</t>
+  </si>
+  <si>
+    <t>Returns WEM Environmental Settings from the WEM Database.</t>
+  </si>
+  <si>
+    <t>Returns WEM Persona Settings from the WEM Database.</t>
+  </si>
+  <si>
+    <t>Returns WEM System Optimization Settings from the WEM Database.</t>
+  </si>
+  <si>
+    <t>Returns WEM Transformer Settings from the WEM Database.</t>
+  </si>
+  <si>
+    <t>Returns WEM UPM Settings from the WEM Database.</t>
+  </si>
+  <si>
+    <t>Returns WEM USV Settings from the WEM Database.</t>
+  </si>
+  <si>
+    <t>Returns WEM AppLocker Settings from the WEM Database.</t>
+  </si>
+  <si>
+    <t>Set-WEMGroupPolicyGlobalSettings</t>
+  </si>
+  <si>
+    <t>Updates WEM GroupPolicy Global Settings in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Reset-WEMGroupPolicyGlobalSettings</t>
+  </si>
+  <si>
+    <t>Resets WEM GroupPolicy Global Settings in the WEM Database.</t>
+  </si>
+  <si>
+    <t>As far as I can tell, these settings are NOT available in WEM Admin Console 1906
+TODO: include the Confirm functionality</t>
+  </si>
+  <si>
+    <t>Get-WEMGroupPolicyGlobalSettings</t>
+  </si>
+  <si>
+    <t>Returns WEM GroupPolicy Global Settings from the WEM Database.</t>
+  </si>
+  <si>
+    <t>As far as I can tell, these settings are NOT available in WEM Admin Console 1906</t>
+  </si>
+  <si>
+    <t>Get-WEMParameters</t>
+  </si>
+  <si>
+    <t>Returns WEM Parameters from the WEM Database.</t>
+  </si>
+  <si>
+    <t>Reset-WEMParameters</t>
+  </si>
+  <si>
+    <t>Resets WEM Parameters in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Set-WEMParameters</t>
+  </si>
+  <si>
+    <t>Updates WEM Parameters in the WEM Database.</t>
+  </si>
+  <si>
+    <t>TODO: Determine if all properties should be available as individual parameters to the function</t>
+  </si>
+  <si>
+    <t>TODO: Determine if all properties should be available as individual parameters to the function
+Implement logic for required dependencies</t>
+  </si>
+  <si>
+    <t>Cannot set password yet: need encryption algorythm (AES256 and encryption string)
+TODO: Determine if all properties should be available as individual parameters to the function
+Implement logic for required dependencies</t>
+  </si>
+  <si>
+    <t>As far as I can tell, these settings are NOT available in WEM Admin Console 1906
+TODO: Determine if all properties should be available as individual parameters to the function
+Implement logic for required dependencies</t>
+  </si>
+  <si>
+    <t>Updates WEM System Monitoring Settings in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Resets WEM System Monitoring Settings in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Reset-WEMSystemMonitoringSettings</t>
+  </si>
+  <si>
+    <t>Set-WEMSystemMonitoringSettings</t>
+  </si>
+  <si>
+    <t>Get-WEMSystemMonitoringSettings</t>
+  </si>
+  <si>
+    <t>Returns WEM System Monitoring Settings from the WEM Database.</t>
   </si>
 </sst>
 </file>
@@ -1557,11 +1650,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E155"/>
+  <dimension ref="A1:E167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D123" sqref="D123"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1570,7 +1663,7 @@
     <col min="2" max="2" width="38.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="81" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="77.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="79.5703125" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -1662,10 +1755,10 @@
         <v>37</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1701,10 +1794,10 @@
         <v>37</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>162</v>
+        <v>392</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>164</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1712,10 +1805,10 @@
         <v>37</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1723,10 +1816,10 @@
         <v>37</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>5</v>
+        <v>144</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>58</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1734,10 +1827,10 @@
         <v>37</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>355</v>
+        <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>352</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1745,13 +1838,10 @@
         <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>26</v>
+        <v>353</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>59</v>
+        <v>394</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1759,13 +1849,13 @@
         <v>37</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>278</v>
+        <v>6</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>289</v>
+        <v>26</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>309</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1773,13 +1863,13 @@
         <v>37</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>7</v>
+        <v>278</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>27</v>
+        <v>289</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>60</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1787,13 +1877,13 @@
         <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>279</v>
+        <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>290</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>298</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1801,13 +1891,13 @@
         <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>8</v>
+        <v>279</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>28</v>
+        <v>290</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>61</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1815,13 +1905,13 @@
         <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>280</v>
+        <v>8</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>291</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>299</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1829,13 +1919,13 @@
         <v>37</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>9</v>
+        <v>280</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>29</v>
+        <v>291</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>62</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1843,13 +1933,13 @@
         <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>281</v>
+        <v>9</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>292</v>
+        <v>29</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>300</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1857,13 +1947,13 @@
         <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>10</v>
+        <v>281</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>30</v>
+        <v>292</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>63</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1871,13 +1961,13 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>293</v>
+        <v>406</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>301</v>
+        <v>407</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1885,16 +1975,13 @@
         <v>37</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>318</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1902,13 +1989,13 @@
         <v>37</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1916,10 +2003,16 @@
         <v>37</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>364</v>
+        <v>11</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>365</v>
+        <v>64</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1927,10 +2020,13 @@
         <v>37</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>12</v>
+        <v>283</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>294</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>65</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1938,10 +2034,10 @@
         <v>37</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>284</v>
+        <v>409</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>303</v>
+        <v>410</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1949,13 +2045,10 @@
         <v>37</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>13</v>
+        <v>358</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>318</v>
+        <v>395</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1963,10 +2056,10 @@
         <v>37</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>285</v>
+        <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>304</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1974,13 +2067,10 @@
         <v>37</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>32</v>
+        <v>284</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>67</v>
+        <v>303</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1988,13 +2078,13 @@
         <v>37</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>295</v>
+        <v>13</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>305</v>
+        <v>66</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -2002,10 +2092,10 @@
         <v>37</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>150</v>
+        <v>285</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>154</v>
+        <v>304</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -2013,10 +2103,13 @@
         <v>37</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>351</v>
+        <v>14</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>388</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -2024,13 +2117,13 @@
         <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>368</v>
+        <v>286</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>369</v>
+        <v>295</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>370</v>
+        <v>305</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -2038,10 +2131,10 @@
         <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>362</v>
+        <v>150</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>363</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -2049,13 +2142,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>15</v>
+        <v>423</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>318</v>
+        <v>424</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -2063,10 +2153,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>287</v>
+        <v>351</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>306</v>
+        <v>396</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -2074,10 +2164,13 @@
         <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>356</v>
+        <v>360</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>361</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>357</v>
+        <v>397</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -2085,10 +2178,10 @@
         <v>37</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>16</v>
+        <v>357</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>69</v>
+        <v>398</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -2096,10 +2189,13 @@
         <v>37</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>296</v>
+        <v>15</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>307</v>
+        <v>68</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -2107,10 +2203,10 @@
         <v>37</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>157</v>
+        <v>287</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>193</v>
+        <v>306</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -2118,10 +2214,10 @@
         <v>37</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>237</v>
+        <v>354</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>323</v>
+        <v>399</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -2129,13 +2225,10 @@
         <v>37</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>330</v>
+        <v>16</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>140</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -2143,10 +2236,10 @@
         <v>37</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>340</v>
+        <v>296</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>345</v>
+        <v>307</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -2154,10 +2247,10 @@
         <v>37</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>348</v>
+        <v>157</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>349</v>
+        <v>193</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -2165,13 +2258,10 @@
         <v>37</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>328</v>
+        <v>237</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>140</v>
+        <v>323</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -2179,13 +2269,13 @@
         <v>37</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>114</v>
+        <v>330</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>320</v>
+        <v>338</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -2193,13 +2283,10 @@
         <v>37</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>275</v>
+        <v>340</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -2207,10 +2294,10 @@
         <v>37</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>147</v>
+        <v>348</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>189</v>
+        <v>349</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -2218,10 +2305,13 @@
         <v>37</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>18</v>
+        <v>328</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>321</v>
+        <v>329</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -2229,10 +2319,13 @@
         <v>37</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>33</v>
+        <v>320</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -2240,13 +2333,13 @@
         <v>37</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>84</v>
+        <v>205</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>85</v>
+        <v>275</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>101</v>
+        <v>324</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -2254,13 +2347,10 @@
         <v>37</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>311</v>
+        <v>147</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -2268,13 +2358,10 @@
         <v>37</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>102</v>
+        <v>321</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -2282,13 +2369,10 @@
         <v>37</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>312</v>
+        <v>19</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>167</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -2296,13 +2380,13 @@
         <v>37</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -2310,13 +2394,13 @@
         <v>37</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -2324,13 +2408,13 @@
         <v>37</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -2338,13 +2422,13 @@
         <v>37</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -2352,13 +2436,13 @@
         <v>37</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -2366,13 +2450,13 @@
         <v>37</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -2380,16 +2464,13 @@
         <v>37</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>310</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -2397,13 +2478,13 @@
         <v>37</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -2411,10 +2492,13 @@
         <v>37</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -2422,10 +2506,13 @@
         <v>37</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -2433,10 +2520,13 @@
         <v>37</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>20</v>
+        <v>94</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>322</v>
+        <v>106</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>310</v>
@@ -2447,10 +2537,13 @@
         <v>37</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>325</v>
+        <v>171</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -2458,16 +2551,10 @@
         <v>37</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -2475,13 +2562,10 @@
         <v>37</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>317</v>
+        <v>212</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -2489,10 +2573,13 @@
         <v>37</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>152</v>
+        <v>20</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>191</v>
+        <v>322</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -2500,13 +2587,10 @@
         <v>37</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>99</v>
+        <v>213</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -2514,10 +2598,16 @@
         <v>37</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>215</v>
+        <v>97</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>174</v>
+        <v>108</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -2525,10 +2615,13 @@
         <v>37</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>100</v>
+        <v>214</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>110</v>
+        <v>173</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -2536,10 +2629,10 @@
         <v>37</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>216</v>
+        <v>152</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -2547,13 +2640,13 @@
         <v>37</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>115</v>
+        <v>310</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -2561,13 +2654,10 @@
         <v>37</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>159</v>
+        <v>215</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>115</v>
+        <v>174</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -2575,13 +2665,10 @@
         <v>37</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>239</v>
+        <v>100</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -2589,13 +2676,10 @@
         <v>37</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>332</v>
+        <v>216</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>115</v>
+        <v>175</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -2603,10 +2687,13 @@
         <v>37</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>341</v>
+        <v>21</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>346</v>
+        <v>70</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -2614,12 +2701,12 @@
         <v>37</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>331</v>
+        <v>159</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="E82" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2628,13 +2715,10 @@
         <v>37</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>117</v>
+        <v>239</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>136</v>
+        <v>240</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>115</v>
@@ -2645,15 +2729,12 @@
         <v>37</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>229</v>
+        <v>332</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E84" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E84" s="3" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2662,13 +2743,10 @@
         <v>37</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>163</v>
+        <v>341</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>115</v>
+        <v>346</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -2676,13 +2754,13 @@
         <v>37</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>148</v>
+        <v>331</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>319</v>
+        <v>333</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -2690,10 +2768,13 @@
         <v>37</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>22</v>
+        <v>137</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>115</v>
@@ -2704,13 +2785,13 @@
         <v>37</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>194</v>
+        <v>238</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>115</v>
@@ -2721,13 +2802,10 @@
         <v>37</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>115</v>
@@ -2738,16 +2816,13 @@
         <v>37</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>115</v>
+        <v>319</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -2755,13 +2830,10 @@
         <v>37</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>231</v>
+        <v>22</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>115</v>
@@ -2772,13 +2844,13 @@
         <v>37</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>122</v>
+        <v>218</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>123</v>
+        <v>230</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>115</v>
@@ -2789,13 +2861,13 @@
         <v>37</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>220</v>
+        <v>118</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>232</v>
+        <v>119</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>115</v>
@@ -2806,13 +2878,13 @@
         <v>37</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>115</v>
@@ -2823,13 +2895,13 @@
         <v>37</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>115</v>
@@ -2840,13 +2912,13 @@
         <v>37</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>115</v>
@@ -2857,13 +2929,13 @@
         <v>37</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>115</v>
@@ -2874,13 +2946,13 @@
         <v>37</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>115</v>
@@ -2891,13 +2963,13 @@
         <v>37</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>115</v>
@@ -2908,10 +2980,13 @@
         <v>37</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>115</v>
@@ -2922,10 +2997,13 @@
         <v>37</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>115</v>
@@ -2936,10 +3014,13 @@
         <v>37</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>115</v>
@@ -2950,10 +3031,13 @@
         <v>37</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>235</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>115</v>
@@ -2964,13 +3048,10 @@
         <v>37</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>115</v>
@@ -2981,13 +3062,10 @@
         <v>37</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>115</v>
@@ -2998,10 +3076,10 @@
         <v>37</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>115</v>
@@ -3012,10 +3090,10 @@
         <v>37</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>134</v>
+        <v>225</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>115</v>
@@ -3026,10 +3104,13 @@
         <v>37</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>227</v>
+        <v>132</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>115</v>
@@ -3040,10 +3121,13 @@
         <v>37</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>135</v>
+        <v>226</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>236</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>115</v>
@@ -3054,10 +3138,10 @@
         <v>37</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>228</v>
+        <v>153</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>204</v>
+        <v>155</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>115</v>
@@ -3068,10 +3152,10 @@
         <v>37</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>392</v>
+        <v>134</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>393</v>
+        <v>186</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>115</v>
@@ -3082,10 +3166,10 @@
         <v>37</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>374</v>
+        <v>227</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>382</v>
+        <v>203</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>115</v>
@@ -3096,10 +3180,10 @@
         <v>37</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>375</v>
+        <v>135</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>383</v>
+        <v>187</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>115</v>
@@ -3110,10 +3194,10 @@
         <v>37</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>376</v>
+        <v>228</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>384</v>
+        <v>204</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>115</v>
@@ -3124,13 +3208,10 @@
         <v>37</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>115</v>
@@ -3141,10 +3222,10 @@
         <v>37</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>115</v>
@@ -3155,24 +3236,27 @@
         <v>37</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>158</v>
+        <v>403</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>192</v>
+        <v>404</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -3180,10 +3264,13 @@
         <v>37</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>261</v>
+        <v>411</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>262</v>
+        <v>412</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -3191,10 +3278,13 @@
         <v>37</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>342</v>
+        <v>365</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>347</v>
+        <v>384</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -3202,24 +3292,27 @@
         <v>37</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>334</v>
+        <v>421</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>394</v>
+        <v>366</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>389</v>
+        <v>385</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -3227,13 +3320,16 @@
         <v>37</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>23</v>
+        <v>367</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>35</v>
+        <v>370</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>71</v>
+        <v>386</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -3241,13 +3337,13 @@
         <v>37</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>253</v>
+        <v>369</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>274</v>
+        <v>387</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -3255,10 +3351,13 @@
         <v>37</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>146</v>
+        <v>368</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>188</v>
+        <v>381</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -3266,24 +3365,21 @@
         <v>37</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>24</v>
+        <v>158</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>353</v>
+        <v>261</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>389</v>
+        <v>262</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -3291,13 +3387,10 @@
         <v>37</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>49</v>
+        <v>342</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>81</v>
+        <v>347</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -3305,27 +3398,24 @@
         <v>37</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>254</v>
+        <v>334</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>50</v>
+        <v>373</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>82</v>
+        <v>374</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -3333,13 +3423,13 @@
         <v>37</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>243</v>
+        <v>23</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>255</v>
+        <v>35</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>263</v>
+        <v>71</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -3347,27 +3437,27 @@
         <v>37</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>40</v>
+        <v>241</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>51</v>
+        <v>253</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>256</v>
+        <v>390</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>264</v>
+        <v>391</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -3375,13 +3465,10 @@
         <v>37</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>74</v>
+        <v>188</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -3389,27 +3476,24 @@
         <v>37</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>257</v>
+        <v>24</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>53</v>
+        <v>352</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>83</v>
+        <v>375</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -3417,13 +3501,13 @@
         <v>37</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>246</v>
+        <v>38</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>258</v>
+        <v>49</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>266</v>
+        <v>81</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -3431,16 +3515,13 @@
         <v>37</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>43</v>
+        <v>242</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>54</v>
+        <v>254</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
@@ -3448,27 +3529,27 @@
         <v>37</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>247</v>
+        <v>39</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>259</v>
+        <v>50</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>366</v>
+        <v>243</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>255</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>389</v>
+        <v>263</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -3476,10 +3557,13 @@
         <v>37</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -3487,10 +3571,13 @@
         <v>37</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -3498,13 +3585,13 @@
         <v>37</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>310</v>
+        <v>74</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
@@ -3512,24 +3599,27 @@
         <v>37</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>55</v>
+        <v>401</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>78</v>
+        <v>402</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
@@ -3537,13 +3627,13 @@
         <v>37</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>250</v>
+        <v>42</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>260</v>
+        <v>53</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>270</v>
+        <v>83</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
@@ -3551,69 +3641,72 @@
         <v>37</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>151</v>
+        <v>246</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>350</v>
+        <v>43</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E148" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>371</v>
+        <v>247</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>372</v>
+        <v>259</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="E149" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>360</v>
+        <v>413</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>361</v>
+        <v>414</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>47</v>
+        <v>359</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>310</v>
+        <v>376</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
@@ -3621,24 +3714,21 @@
         <v>37</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>251</v>
+        <v>44</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>358</v>
+        <v>248</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="E153" s="3" t="s">
-        <v>389</v>
+        <v>268</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
@@ -3646,10 +3736,13 @@
         <v>37</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
@@ -3657,16 +3750,175 @@
         <v>37</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A160" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A161" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A162" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A165" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D155" s="2" t="s">
+      <c r="D167" s="2" t="s">
         <v>272</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E145" xr:uid="{5BB291EF-653F-4FD8-900C-6852B0E4EEFE}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E155">
-      <sortCondition ref="B1:B145"/>
+  <autoFilter ref="A1:E156" xr:uid="{5BB291EF-653F-4FD8-900C-6852B0E4EEFE}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E167">
+      <sortCondition ref="B1:B156"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Citrix.WEMSDK.xlsx
+++ b/Citrix.WEMSDK.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B52D43-9052-489F-97DD-3331DCFC54D6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3008864A-39D8-4D44-9954-B012C8E9B3DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commands and Aliasses" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="426">
   <si>
     <t>Command</t>
   </si>
@@ -1313,6 +1313,9 @@
   </si>
   <si>
     <t>Returns WEM System Monitoring Settings from the WEM Database.</t>
+  </si>
+  <si>
+    <t>TODO: Consider different output so filtering is possible. Output is now a hashtable with all the items.</t>
   </si>
 </sst>
 </file>
@@ -1653,8 +1656,8 @@
   <dimension ref="A1:E167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2218,6 +2221,9 @@
       </c>
       <c r="D44" s="2" t="s">
         <v>399</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">

--- a/Citrix.WEMSDK.xlsx
+++ b/Citrix.WEMSDK.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3008864A-39D8-4D44-9954-B012C8E9B3DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAF8742-45CD-489E-AB6D-8ED7FF64CC6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commands and Aliasses" sheetId="1" r:id="rId1"/>
     <sheet name="Issues" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Commands and Aliasses'!$A$1:$E$156</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Commands and Aliasses'!$A$1:$E$160</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -22,9 +22,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="434">
   <si>
     <t>Command</t>
   </si>
@@ -1316,6 +1314,30 @@
   </si>
   <si>
     <t>TODO: Consider different output so filtering is possible. Output is now a hashtable with all the items.</t>
+  </si>
+  <si>
+    <t>Get-WEMStorefrontSetting</t>
+  </si>
+  <si>
+    <t>Returns one or more Storefront Setting objects from the WEM Database.</t>
+  </si>
+  <si>
+    <t>New-WEMStorefrontSetting</t>
+  </si>
+  <si>
+    <t>Creates a Storefront Settings object in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Remove-WEMStorefrontSetting</t>
+  </si>
+  <si>
+    <t>Removes a Storefront Settings object from the WEM Database.</t>
+  </si>
+  <si>
+    <t>Set-WEMStorefrontSetting</t>
+  </si>
+  <si>
+    <t>Updates a Storefront Settings object in the WEM Database.</t>
   </si>
 </sst>
 </file>
@@ -1653,11 +1675,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E167"/>
+  <dimension ref="A1:E171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2145,10 +2167,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -2156,10 +2178,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>351</v>
+        <v>423</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>396</v>
+        <v>424</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -2167,13 +2189,10 @@
         <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -2181,10 +2200,13 @@
         <v>37</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>357</v>
+        <v>360</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>361</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -2192,13 +2214,10 @@
         <v>37</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>15</v>
+        <v>357</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>318</v>
+        <v>398</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -2206,10 +2225,13 @@
         <v>37</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>287</v>
+        <v>15</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>306</v>
+        <v>68</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -2217,13 +2239,10 @@
         <v>37</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>354</v>
+        <v>287</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>425</v>
+        <v>306</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -2231,10 +2250,13 @@
         <v>37</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>16</v>
+        <v>354</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>69</v>
+        <v>399</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -2242,10 +2264,10 @@
         <v>37</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>296</v>
+        <v>16</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>307</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -2253,10 +2275,10 @@
         <v>37</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>157</v>
+        <v>296</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>193</v>
+        <v>307</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -2264,10 +2286,10 @@
         <v>37</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>237</v>
+        <v>157</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>323</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -2275,13 +2297,10 @@
         <v>37</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>330</v>
+        <v>237</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>140</v>
+        <v>323</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -2289,10 +2308,13 @@
         <v>37</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>345</v>
+        <v>338</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -2300,10 +2322,10 @@
         <v>37</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -2311,13 +2333,10 @@
         <v>37</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>140</v>
+        <v>349</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -2325,13 +2344,13 @@
         <v>37</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>114</v>
+        <v>328</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>320</v>
+        <v>329</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -2339,13 +2358,13 @@
         <v>37</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>205</v>
+        <v>17</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>275</v>
+        <v>114</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -2353,10 +2372,13 @@
         <v>37</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>147</v>
+        <v>205</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>275</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>189</v>
+        <v>324</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -2364,10 +2386,10 @@
         <v>37</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>321</v>
+        <v>189</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -2375,10 +2397,10 @@
         <v>37</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>33</v>
+        <v>321</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -2386,13 +2408,10 @@
         <v>37</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -2400,13 +2419,13 @@
         <v>37</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>206</v>
+        <v>84</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>311</v>
+        <v>85</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>166</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -2414,13 +2433,13 @@
         <v>37</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>86</v>
+        <v>206</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>87</v>
+        <v>311</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>102</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -2428,13 +2447,13 @@
         <v>37</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>207</v>
+        <v>86</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>312</v>
+        <v>87</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>167</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -2442,13 +2461,13 @@
         <v>37</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>88</v>
+        <v>207</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>89</v>
+        <v>312</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>103</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -2456,13 +2475,13 @@
         <v>37</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>208</v>
+        <v>88</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>313</v>
+        <v>89</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>168</v>
+        <v>103</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -2470,13 +2489,13 @@
         <v>37</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>90</v>
+        <v>208</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>91</v>
+        <v>313</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>104</v>
+        <v>168</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -2484,13 +2503,13 @@
         <v>37</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>209</v>
+        <v>90</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>314</v>
+        <v>91</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>169</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -2498,13 +2517,13 @@
         <v>37</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>92</v>
+        <v>209</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>93</v>
+        <v>314</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>105</v>
+        <v>169</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -2512,13 +2531,13 @@
         <v>37</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>210</v>
+        <v>92</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>315</v>
+        <v>93</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>170</v>
+        <v>105</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -2526,16 +2545,13 @@
         <v>37</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>94</v>
+        <v>210</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>95</v>
+        <v>315</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>310</v>
+        <v>170</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -2543,13 +2559,16 @@
         <v>37</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>316</v>
+        <v>95</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>171</v>
+        <v>106</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -2557,10 +2576,13 @@
         <v>37</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>96</v>
+        <v>211</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -2568,10 +2590,10 @@
         <v>37</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>212</v>
+        <v>96</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>172</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -2579,13 +2601,10 @@
         <v>37</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>20</v>
+        <v>212</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>310</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -2593,10 +2612,13 @@
         <v>37</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>213</v>
+        <v>20</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -2604,16 +2626,10 @@
         <v>37</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>98</v>
+        <v>213</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>116</v>
+        <v>325</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -2621,13 +2637,16 @@
         <v>37</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>214</v>
+        <v>97</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>317</v>
+        <v>98</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>173</v>
+        <v>108</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -2635,10 +2654,13 @@
         <v>37</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>152</v>
+        <v>214</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -2646,13 +2668,10 @@
         <v>37</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>99</v>
+        <v>152</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>310</v>
+        <v>191</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -2660,10 +2679,10 @@
         <v>37</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>215</v>
+        <v>428</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>174</v>
+        <v>429</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -2671,10 +2690,13 @@
         <v>37</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -2682,10 +2704,10 @@
         <v>37</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -2693,13 +2715,10 @@
         <v>37</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -2707,13 +2726,10 @@
         <v>37</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>159</v>
+        <v>216</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>115</v>
+        <v>175</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -2721,10 +2737,10 @@
         <v>37</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>239</v>
+        <v>21</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>240</v>
+        <v>70</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>115</v>
@@ -2735,12 +2751,12 @@
         <v>37</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>332</v>
+        <v>159</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="E84" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2749,10 +2765,13 @@
         <v>37</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>341</v>
+        <v>239</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>346</v>
+        <v>240</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -2760,10 +2779,10 @@
         <v>37</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>115</v>
@@ -2774,16 +2793,10 @@
         <v>37</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>117</v>
+        <v>341</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>115</v>
+        <v>346</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -2791,15 +2804,12 @@
         <v>37</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>229</v>
+        <v>331</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E88" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E88" s="3" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2808,10 +2818,13 @@
         <v>37</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>163</v>
+        <v>137</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>115</v>
@@ -2822,13 +2835,16 @@
         <v>37</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>148</v>
+        <v>217</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>149</v>
+        <v>238</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>319</v>
+        <v>115</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -2836,10 +2852,10 @@
         <v>37</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>22</v>
+        <v>163</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>115</v>
@@ -2850,16 +2866,13 @@
         <v>37</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>230</v>
+        <v>148</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>115</v>
+        <v>319</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -2867,13 +2880,10 @@
         <v>37</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>115</v>
@@ -2884,13 +2894,13 @@
         <v>37</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>120</v>
+        <v>218</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>121</v>
+        <v>230</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>115</v>
@@ -2901,13 +2911,13 @@
         <v>37</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>219</v>
+        <v>118</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>231</v>
+        <v>119</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>115</v>
@@ -2918,13 +2928,13 @@
         <v>37</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>115</v>
@@ -2935,13 +2945,13 @@
         <v>37</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>115</v>
@@ -2952,13 +2962,13 @@
         <v>37</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>115</v>
@@ -2969,13 +2979,13 @@
         <v>37</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>115</v>
@@ -2986,13 +2996,13 @@
         <v>37</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>115</v>
@@ -3003,13 +3013,13 @@
         <v>37</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>115</v>
@@ -3020,13 +3030,13 @@
         <v>37</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>115</v>
@@ -3037,13 +3047,13 @@
         <v>37</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>115</v>
@@ -3054,10 +3064,13 @@
         <v>37</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>115</v>
@@ -3068,10 +3081,13 @@
         <v>37</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>235</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>115</v>
@@ -3082,10 +3098,10 @@
         <v>37</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>115</v>
@@ -3096,10 +3112,10 @@
         <v>37</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>115</v>
@@ -3110,13 +3126,10 @@
         <v>37</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>115</v>
@@ -3127,13 +3140,10 @@
         <v>37</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>115</v>
@@ -3144,10 +3154,13 @@
         <v>37</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>153</v>
+        <v>132</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>115</v>
@@ -3158,10 +3171,13 @@
         <v>37</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>134</v>
+        <v>226</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>236</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>115</v>
@@ -3172,10 +3188,10 @@
         <v>37</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>227</v>
+        <v>153</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>203</v>
+        <v>155</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>115</v>
@@ -3186,10 +3202,10 @@
         <v>37</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>135</v>
+        <v>430</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>187</v>
+        <v>431</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>115</v>
@@ -3200,10 +3216,10 @@
         <v>37</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>228</v>
+        <v>134</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>115</v>
@@ -3214,10 +3230,10 @@
         <v>37</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>372</v>
+        <v>227</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>382</v>
+        <v>203</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>115</v>
@@ -3228,10 +3244,10 @@
         <v>37</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>388</v>
+        <v>135</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>389</v>
+        <v>187</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>115</v>
@@ -3242,27 +3258,27 @@
         <v>37</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>364</v>
+        <v>228</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>383</v>
+        <v>204</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>403</v>
+        <v>372</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>405</v>
+        <v>382</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -3270,10 +3286,10 @@
         <v>37</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>115</v>
@@ -3284,27 +3300,27 @@
         <v>37</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>115</v>
+        <v>404</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -3312,10 +3328,10 @@
         <v>37</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>366</v>
+        <v>411</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>385</v>
+        <v>412</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>115</v>
@@ -3326,13 +3342,10 @@
         <v>37</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>115</v>
@@ -3343,10 +3356,10 @@
         <v>37</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>369</v>
+        <v>421</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>387</v>
+        <v>420</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>115</v>
@@ -3357,10 +3370,10 @@
         <v>37</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>115</v>
@@ -3371,10 +3384,16 @@
         <v>37</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>158</v>
+        <v>367</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>370</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>192</v>
+        <v>386</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -3382,10 +3401,13 @@
         <v>37</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>261</v>
+        <v>369</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>262</v>
+        <v>387</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -3393,10 +3415,13 @@
         <v>37</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>347</v>
+        <v>381</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -3404,24 +3429,21 @@
         <v>37</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>334</v>
+        <v>158</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>373</v>
+        <v>261</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>416</v>
+        <v>262</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -3429,13 +3451,10 @@
         <v>37</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>35</v>
+        <v>342</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>71</v>
+        <v>347</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -3443,13 +3462,10 @@
         <v>37</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>253</v>
+        <v>334</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>274</v>
+        <v>335</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -3457,10 +3473,10 @@
         <v>37</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>416</v>
@@ -3471,10 +3487,13 @@
         <v>37</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>146</v>
+        <v>23</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>188</v>
+        <v>71</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -3482,10 +3501,13 @@
         <v>37</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>24</v>
+        <v>241</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>72</v>
+        <v>274</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -3493,10 +3515,10 @@
         <v>37</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>416</v>
@@ -3507,13 +3529,10 @@
         <v>37</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>81</v>
+        <v>188</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -3521,27 +3540,24 @@
         <v>37</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>254</v>
+        <v>24</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>50</v>
+        <v>352</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>82</v>
+        <v>375</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
@@ -3549,13 +3565,13 @@
         <v>37</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>243</v>
+        <v>38</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>255</v>
+        <v>49</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>263</v>
+        <v>81</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -3563,13 +3579,13 @@
         <v>37</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>40</v>
+        <v>242</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>51</v>
+        <v>254</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>73</v>
+        <v>273</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -3577,13 +3593,13 @@
         <v>37</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>244</v>
+        <v>39</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>256</v>
+        <v>50</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>264</v>
+        <v>82</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -3591,13 +3607,13 @@
         <v>37</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>41</v>
+        <v>243</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>52</v>
+        <v>255</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>74</v>
+        <v>263</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
@@ -3605,27 +3621,27 @@
         <v>37</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>245</v>
+        <v>40</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>257</v>
+        <v>51</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>401</v>
+        <v>244</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>418</v>
+        <v>264</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
@@ -3633,13 +3649,13 @@
         <v>37</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
@@ -3647,30 +3663,27 @@
         <v>37</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>54</v>
+        <v>401</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>310</v>
+        <v>402</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
@@ -3678,13 +3691,13 @@
         <v>37</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>247</v>
+        <v>42</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>259</v>
+        <v>53</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>267</v>
+        <v>83</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
@@ -3692,27 +3705,30 @@
         <v>37</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>413</v>
+        <v>246</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="E150" s="3" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>359</v>
+        <v>43</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="E151" s="3" t="s">
-        <v>416</v>
+        <v>75</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
@@ -3720,10 +3736,13 @@
         <v>37</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>44</v>
+        <v>247</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>76</v>
+        <v>267</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
@@ -3731,24 +3750,27 @@
         <v>37</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>248</v>
+        <v>413</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>45</v>
+        <v>359</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>310</v>
+        <v>376</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
@@ -3756,10 +3778,13 @@
         <v>37</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>249</v>
+        <v>432</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>269</v>
+        <v>433</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
@@ -3767,13 +3792,10 @@
         <v>37</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
@@ -3781,13 +3803,10 @@
         <v>37</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
@@ -3795,119 +3814,122 @@
         <v>37</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B162" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D158" s="2" t="s">
+      <c r="D162" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A159" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B159" s="2" t="s">
+    <row r="163" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A163" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="D159" s="2" t="s">
+      <c r="D163" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="E159" s="3" t="s">
+      <c r="E163" s="3" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A160" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B160" s="2" t="s">
+    <row r="164" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A164" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B164" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="D160" s="2" t="s">
+      <c r="D164" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="E160" s="3" t="s">
+      <c r="E164" s="3" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A161" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B161" s="2" t="s">
+    <row r="165" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A165" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="C165" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D161" s="2" t="s">
+      <c r="D165" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="E161" s="3" t="s">
+      <c r="E165" s="3" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A162" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B162" s="2" t="s">
+    <row r="166" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A166" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="D162" s="2" t="s">
+      <c r="D166" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="E162" s="3" t="s">
+      <c r="E166" s="3" t="s">
         <v>416</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A163" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A164" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A165" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="E165" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A166" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
@@ -3915,16 +3937,66 @@
         <v>37</v>
       </c>
       <c r="B167" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A169" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D167" s="2" t="s">
+      <c r="D171" s="2" t="s">
         <v>272</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E156" xr:uid="{5BB291EF-653F-4FD8-900C-6852B0E4EEFE}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E167">
-      <sortCondition ref="B1:B156"/>
+  <autoFilter ref="A1:E160" xr:uid="{5BB291EF-653F-4FD8-900C-6852B0E4EEFE}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E171">
+      <sortCondition ref="B1:B160"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Citrix.WEMSDK.xlsx
+++ b/Citrix.WEMSDK.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAF8742-45CD-489E-AB6D-8ED7FF64CC6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75779FDD-D7C7-42FE-9DFA-955C045F7BC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commands and Aliasses" sheetId="1" r:id="rId1"/>
     <sheet name="Issues" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Commands and Aliasses'!$A$1:$E$160</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Commands and Aliasses'!$A$1:$E$178</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="452">
   <si>
     <t>Command</t>
   </si>
@@ -1338,6 +1341,60 @@
   </si>
   <si>
     <t>Updates a Storefront Settings object in the WEM Database.</t>
+  </si>
+  <si>
+    <t>In development</t>
+  </si>
+  <si>
+    <t>Hash value that is generated with Get-FileHash is not the same as the one WEM Admin generates</t>
+  </si>
+  <si>
+    <t>Dependency on Applocker powershell module!</t>
+  </si>
+  <si>
+    <t>Get-WEMAppLockerRule</t>
+  </si>
+  <si>
+    <t>Returns one or more AppLocker Rule objects from the WEM Database.</t>
+  </si>
+  <si>
+    <t>Get-WEMAppLockerRuleConditionObject</t>
+  </si>
+  <si>
+    <t>Returns one or more AppLocker Rule Condition objects from the WEM Database.</t>
+  </si>
+  <si>
+    <t>Get-WEMAppLockerRuleAssignment</t>
+  </si>
+  <si>
+    <t>New-WEMAppLockerRule</t>
+  </si>
+  <si>
+    <t>New-WEMAppLockerRuleConditionObject</t>
+  </si>
+  <si>
+    <t>Creates an AppLocker Rule object in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Creates an AppLocker Rule Condition object.</t>
+  </si>
+  <si>
+    <t>Remove-WEMAppLockerRule</t>
+  </si>
+  <si>
+    <t>Removes an AppLocker Rule object from the WEM Database.</t>
+  </si>
+  <si>
+    <t>Set-WEMAppLockerRule</t>
+  </si>
+  <si>
+    <t>Updates an AppLocker Rule object in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Returns one or more AppLocker Rule Assignment ADUserObject objects from the WEM Database.</t>
+  </si>
+  <si>
+    <t>Used Get-AppLockerFileInfo from AppLocker module (and thus added a dependency on the AppLocker module)</t>
   </si>
 </sst>
 </file>
@@ -1675,17 +1732,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E171"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="81" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="79.5703125" style="2" customWidth="1"/>
@@ -1709,7 +1767,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
@@ -1720,7 +1778,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
@@ -1731,7 +1789,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>37</v>
       </c>
@@ -1742,7 +1800,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>37</v>
       </c>
@@ -1753,7 +1811,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>37</v>
       </c>
@@ -1764,7 +1822,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>37</v>
       </c>
@@ -1775,7 +1833,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>37</v>
       </c>
@@ -1785,8 +1843,11 @@
       <c r="D8" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E8" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
@@ -1800,7 +1861,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>37</v>
       </c>
@@ -1814,2189 +1875,2304 @@
         <v>308</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="E14" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="2" t="s">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="2" t="s">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="2" t="s">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="E18" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="2" t="s">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="2" t="s">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="2" t="s">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="2" t="s">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="2" t="s">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="2" t="s">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="2" t="s">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="2" t="s">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="2" t="s">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="2" t="s">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="2" t="s">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="2" t="s">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="2" t="s">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="E32" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="2" t="s">
+      <c r="E33" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="2" t="s">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="2" t="s">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="2" t="s">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="2" t="s">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="2" t="s">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="2" t="s">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="2" t="s">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="2" t="s">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" s="2" t="s">
+      <c r="E42" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" s="2" t="s">
+      <c r="E43" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42" s="2" t="s">
+      <c r="E44" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>398</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>399</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B47" s="2" t="s">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B48" s="2" t="s">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B49" s="2" t="s">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B50" s="2" t="s">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>338</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>329</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B55" s="2" t="s">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B56" s="2" t="s">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B57" s="2" t="s">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B58" s="2" t="s">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B59" s="2" t="s">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B60" s="2" t="s">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C65" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D65" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B61" s="2" t="s">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C66" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B62" s="2" t="s">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C67" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B63" s="2" t="s">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C68" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B64" s="2" t="s">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B65" s="2" t="s">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C70" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B66" s="2" t="s">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B67" s="2" t="s">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C72" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B68" s="2" t="s">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C73" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B69" s="2" t="s">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C74" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D74" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E74" s="2" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B70" s="2" t="s">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C75" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D75" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B71" s="2" t="s">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D76" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B72" s="2" t="s">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B73" s="2" t="s">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D78" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="E78" s="2" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B74" s="2" t="s">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D79" s="2" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B75" s="2" t="s">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C80" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D80" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E80" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B76" s="2" t="s">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C81" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D81" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B77" s="2" t="s">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D82" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B78" s="2" t="s">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D83" s="2" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B79" s="2" t="s">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D84" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="E84" s="2" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B80" s="2" t="s">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D85" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B81" s="2" t="s">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D86" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B82" s="2" t="s">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D87" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B83" s="2" t="s">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D88" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B84" s="2" t="s">
+      <c r="E88" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D89" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E84" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B85" s="2" t="s">
+      <c r="E89" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D90" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="E85" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B86" s="2" t="s">
+      <c r="E90" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D91" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="E86" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B87" s="2" t="s">
+      <c r="E91" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D92" s="2" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B88" s="2" t="s">
+      <c r="E92" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D93" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="E88" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B89" s="2" t="s">
+      <c r="E93" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C94" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D94" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E89" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B90" s="2" t="s">
+      <c r="E94" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C95" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D95" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="E90" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B91" s="2" t="s">
+      <c r="E95" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D97" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E91" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B92" s="2" t="s">
+      <c r="E97" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D98" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="E98" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B93" s="2" t="s">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D99" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E93" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B94" s="2" t="s">
+      <c r="E99" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C100" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D100" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E94" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B95" s="2" t="s">
+      <c r="E100" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C101" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D101" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E95" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B96" s="2" t="s">
+      <c r="E101" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C102" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D102" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E96" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B97" s="2" t="s">
+      <c r="E102" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C103" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D103" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E97" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B98" s="2" t="s">
+      <c r="E103" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C104" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D104" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E98" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B99" s="2" t="s">
+      <c r="E104" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C105" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D105" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E99" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B100" s="2" t="s">
+      <c r="E105" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C106" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D106" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E100" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B101" s="2" t="s">
+      <c r="E106" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C107" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D107" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E101" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B102" s="2" t="s">
+      <c r="E107" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C108" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D108" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E102" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B103" s="2" t="s">
+      <c r="E108" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C109" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D109" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="E103" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B104" s="2" t="s">
+      <c r="E109" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C110" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="D110" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E104" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B105" s="2" t="s">
+      <c r="E110" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C111" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D111" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E105" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B106" s="2" t="s">
+      <c r="E111" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D112" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E106" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B107" s="2" t="s">
+      <c r="E112" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="D113" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E107" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B108" s="2" t="s">
+      <c r="E113" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="D114" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="E108" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B109" s="2" t="s">
+      <c r="E114" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="D115" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E109" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B110" s="2" t="s">
+      <c r="E115" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C116" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="D116" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E110" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B111" s="2" t="s">
+      <c r="E116" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C117" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="D117" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E111" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B112" s="2" t="s">
+      <c r="E117" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="D118" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E112" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B113" s="2" t="s">
+      <c r="E118" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="D119" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="E113" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B114" s="2" t="s">
+      <c r="E119" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="D120" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E114" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B115" s="2" t="s">
+      <c r="E120" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="D121" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E115" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B116" s="2" t="s">
+      <c r="E121" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="D122" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E116" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B117" s="2" t="s">
+      <c r="E122" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="D123" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="E117" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B118" s="2" t="s">
+      <c r="E123" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="D124" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="E118" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B119" s="2" t="s">
+      <c r="E124" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="D125" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="E119" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B120" s="2" t="s">
+      <c r="E125" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="D126" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="E120" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A121" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B121" s="2" t="s">
+      <c r="E126" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="D121" s="2" t="s">
+      <c r="D127" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="E121" s="3" t="s">
+      <c r="E127" s="3" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B122" s="2" t="s">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="D128" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="E122" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B123" s="2" t="s">
+      <c r="E128" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="D123" s="2" t="s">
+      <c r="D129" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="E123" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B124" s="2" t="s">
+      <c r="E129" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="D130" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="E124" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B125" s="2" t="s">
+      <c r="E130" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="D125" s="2" t="s">
+      <c r="D131" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E125" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A126" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B126" s="2" t="s">
+      <c r="E131" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C132" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="D126" s="2" t="s">
+      <c r="D132" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="E126" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A127" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B127" s="2" t="s">
+      <c r="E132" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="D127" s="2" t="s">
+      <c r="D133" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E127" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B128" s="2" t="s">
+      <c r="E133" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="D128" s="2" t="s">
+      <c r="D134" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="E128" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B129" s="2" t="s">
+      <c r="E134" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D129" s="2" t="s">
+      <c r="D135" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B130" s="2" t="s">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="D130" s="2" t="s">
+      <c r="D136" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B131" s="2" t="s">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="D131" s="2" t="s">
+      <c r="D137" s="2" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A132" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B132" s="2" t="s">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="D132" s="2" t="s">
+      <c r="D138" s="2" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A133" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B133" s="2" t="s">
+    <row r="139" spans="1:5" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="D133" s="2" t="s">
+      <c r="D139" s="2" t="s">
         <v>374</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A134" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A136" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="E136" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A138" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A139" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>375</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>37</v>
+        <v>434</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="C149" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D142" s="2" t="s">
+      <c r="D149" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A143" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B143" s="2" t="s">
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C150" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D143" s="2" t="s">
+      <c r="D150" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A144" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B144" s="2" t="s">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C151" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D144" s="2" t="s">
+      <c r="D151" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A145" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B145" s="2" t="s">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B152" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C152" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D145" s="2" t="s">
+      <c r="D152" s="2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A146" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B146" s="2" t="s">
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C153" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D146" s="2" t="s">
+      <c r="D153" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A147" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B147" s="2" t="s">
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C154" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D147" s="2" t="s">
+      <c r="D154" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A148" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B148" s="2" t="s">
+    <row r="155" spans="1:5" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="D148" s="2" t="s">
+      <c r="D155" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="E148" s="3" t="s">
+      <c r="E155" s="3" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B149" s="2" t="s">
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="C156" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D149" s="2" t="s">
+      <c r="D156" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A150" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B150" s="2" t="s">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="C157" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D150" s="2" t="s">
+      <c r="D157" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A151" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B151" s="2" t="s">
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="C158" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D151" s="2" t="s">
+      <c r="D158" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A153" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="E153" s="3" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A154" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="E154" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A155" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="E155" s="3" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A156" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A157" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A158" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B159" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D159" s="2" t="s">
+      <c r="D165" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A160" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B160" s="2" t="s">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="C166" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D160" s="2" t="s">
+      <c r="D166" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A161" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B161" s="2" t="s">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="C167" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D161" s="2" t="s">
+      <c r="D167" s="2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A162" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B162" s="2" t="s">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B168" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D162" s="2" t="s">
+      <c r="D168" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A163" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B163" s="2" t="s">
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="D163" s="2" t="s">
+      <c r="D170" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="E163" s="3" t="s">
+      <c r="E170" s="3" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A164" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B164" s="2" t="s">
+    <row r="171" spans="1:5" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="D164" s="2" t="s">
+      <c r="D171" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="E164" s="3" t="s">
+      <c r="E171" s="3" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A165" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B165" s="2" t="s">
+    <row r="172" spans="1:5" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B172" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="C172" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D165" s="2" t="s">
+      <c r="D172" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="E165" s="3" t="s">
+      <c r="E172" s="3" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A166" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B166" s="2" t="s">
+    <row r="173" spans="1:5" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B173" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="D166" s="2" t="s">
+      <c r="D173" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="E166" s="3" t="s">
+      <c r="E173" s="3" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A167" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B167" s="2" t="s">
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B174" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D167" s="2" t="s">
+      <c r="D174" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E167" s="2" t="s">
+      <c r="E174" s="2" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A168" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B168" s="2" t="s">
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B175" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="D168" s="2" t="s">
+      <c r="D175" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A169" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B169" s="2" t="s">
+    <row r="176" spans="1:5" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="D169" s="2" t="s">
+      <c r="D176" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="E169" s="3" t="s">
+      <c r="E176" s="3" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A170" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B170" s="2" t="s">
+    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D170" s="2" t="s">
+      <c r="D177" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A171" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B171" s="2" t="s">
+    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D171" s="2" t="s">
+      <c r="D178" s="2" t="s">
         <v>272</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E160" xr:uid="{5BB291EF-653F-4FD8-900C-6852B0E4EEFE}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E171">
-      <sortCondition ref="B1:B160"/>
+  <autoFilter ref="A1:E178" xr:uid="{5BB291EF-653F-4FD8-900C-6852B0E4EEFE}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="In development"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E178">
+      <sortCondition ref="B1:B167"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4006,17 +4182,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B53A6F-3A05-4B93-AB8B-0138373E3E62}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="32.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="34" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="88.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="102.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="2"/>
@@ -4064,6 +4240,20 @@
         <v>143</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Citrix.WEMSDK.xlsx
+++ b/Citrix.WEMSDK.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75779FDD-D7C7-42FE-9DFA-955C045F7BC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D915165E-27DF-44AB-AD56-3E673A277FA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commands and Aliasses" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="451">
   <si>
     <t>Command</t>
   </si>
@@ -144,9 +144,6 @@
   </si>
   <si>
     <t>State</t>
-  </si>
-  <si>
-    <t>Ready for testing</t>
   </si>
   <si>
     <t>Set-WEMEnvironmentVariable</t>
@@ -1343,9 +1340,6 @@
     <t>Updates a Storefront Settings object in the WEM Database.</t>
   </si>
   <si>
-    <t>In development</t>
-  </si>
-  <si>
     <t>Hash value that is generated with Get-FileHash is not the same as the one WEM Admin generates</t>
   </si>
   <si>
@@ -1395,6 +1389,9 @@
   </si>
   <si>
     <t>Used Get-AppLockerFileInfo from AppLocker module (and thus added a dependency on the AppLocker module)</t>
+  </si>
+  <si>
+    <t>Released</t>
   </si>
 </sst>
 </file>
@@ -1732,12 +1729,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E178"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A97" sqref="A97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1767,89 +1763,89 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>4</v>
@@ -1858,120 +1854,120 @@
         <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>6</v>
@@ -1980,26 +1976,26 @@
         <v>26</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>7</v>
@@ -2008,26 +2004,26 @@
         <v>27</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>8</v>
@@ -2036,26 +2032,26 @@
         <v>28</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>9</v>
@@ -2064,40 +2060,40 @@
         <v>29</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>10</v>
@@ -2106,26 +2102,26 @@
         <v>30</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>11</v>
@@ -2134,104 +2130,104 @@
         <v>31</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>410</v>
-      </c>
       <c r="E32" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>14</v>
@@ -2240,315 +2236,315 @@
         <v>32</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="D44" s="2" t="s">
+      <c r="E44" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>398</v>
-      </c>
       <c r="E45" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>329</v>
-      </c>
       <c r="E56" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>445</v>
-      </c>
       <c r="E60" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>19</v>
@@ -2557,1094 +2553,1094 @@
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="D64" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="C66" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B65" s="2" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C67" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C66" s="2" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="C68" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B67" s="2" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C68" s="2" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="C70" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B69" s="2" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C70" s="2" t="s">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="C72" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B71" s="2" t="s">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C73" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C72" s="2" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="C74" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B73" s="2" t="s">
+      <c r="E74" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C75" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D75" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C74" s="2" t="s">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D76" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B75" s="2" t="s">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="D75" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C80" s="2" t="s">
+      <c r="C81" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D84" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B81" s="2" t="s">
+      <c r="E84" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D81" s="2" t="s">
+      <c r="D85" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B84" s="2" t="s">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D86" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E84" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B85" s="2" t="s">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D87" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>240</v>
-      </c>
       <c r="E90" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>333</v>
-      </c>
       <c r="E93" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D98" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="E98" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D99" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E99" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B100" s="2" t="s">
+      <c r="E101" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C103" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D103" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E100" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C102" s="2" t="s">
+      <c r="E103" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="C104" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E102" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B103" s="2" t="s">
+      <c r="E104" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C105" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D105" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E103" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C104" s="2" t="s">
+      <c r="E105" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="C106" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E104" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B105" s="2" t="s">
+      <c r="E106" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C107" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D107" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E105" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C106" s="2" t="s">
+      <c r="E107" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="C108" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E106" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B107" s="2" t="s">
+      <c r="E108" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C109" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="D109" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E107" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C108" s="2" t="s">
+      <c r="E109" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="C110" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E108" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B109" s="2" t="s">
+      <c r="E110" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C111" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="D111" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="E109" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C110" s="2" t="s">
+      <c r="E111" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="D112" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E110" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B111" s="2" t="s">
+      <c r="E112" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="D113" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C117" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="D111" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D115" s="2" t="s">
+      <c r="D117" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E115" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C116" s="2" t="s">
+      <c r="E117" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="D120" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E116" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B117" s="2" t="s">
+      <c r="E120" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D117" s="2" t="s">
+      <c r="D121" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E117" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B120" s="2" t="s">
+      <c r="E121" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="D122" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E120" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B121" s="2" t="s">
+      <c r="E122" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D121" s="2" t="s">
+      <c r="D123" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E121" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>204</v>
-      </c>
       <c r="E123" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="D124" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B139" s="2" t="s">
+      <c r="D139" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="D139" s="2" t="s">
-        <v>374</v>
-      </c>
       <c r="E139" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>23</v>
@@ -3653,524 +3649,519 @@
         <v>35</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="D143" s="2" t="s">
-        <v>391</v>
-      </c>
       <c r="E143" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D145" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="D146" s="2" t="s">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A161" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D161" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="E146" s="3" t="s">
+      <c r="E161" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A170" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A171" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A172" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E172" s="3" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="E155" s="3" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="E160" s="3" t="s">
+    <row r="173" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A173" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E173" s="3" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="E161" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B166" s="2" t="s">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B174" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C166" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D166" s="2" t="s">
+      <c r="D174" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B167" s="2" t="s">
+      <c r="E174" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B175" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C167" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D167" s="2" t="s">
+      <c r="D175" s="2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="E169" s="3" t="s">
+    <row r="176" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A176" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E176" s="3" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="E170" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="E171" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="E172" s="3" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="E173" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B174" s="2" t="s">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D174" s="2" t="s">
+      <c r="D177" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E174" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B175" s="2" t="s">
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="D175" s="2" t="s">
+      <c r="D178" s="2" t="s">
         <v>271</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="E176" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>272</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E178" xr:uid="{5BB291EF-653F-4FD8-900C-6852B0E4EEFE}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="In development"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E178">
       <sortCondition ref="B1:B167"/>
     </sortState>
@@ -4184,7 +4175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B53A6F-3A05-4B93-AB8B-0138373E3E62}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
@@ -4200,13 +4191,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>34</v>
@@ -4214,44 +4205,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>

--- a/Citrix.WEMSDK.xlsx
+++ b/Citrix.WEMSDK.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D915165E-27DF-44AB-AD56-3E673A277FA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98481508-CB9B-472C-8BFA-9DB19F016CB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1732,8 +1732,8 @@
   <dimension ref="A1:E178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A178"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Citrix.WEMSDK.xlsx
+++ b/Citrix.WEMSDK.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22425"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98481508-CB9B-472C-8BFA-9DB19F016CB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F36185-DD93-44F1-88E8-D826BF457BD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,10 +12,9 @@
     <sheet name="Issues" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Commands and Aliasses'!$A$1:$E$178</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Commands and Aliasses'!$A$1:$E$182</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="459">
   <si>
     <t>Command</t>
   </si>
@@ -1245,10 +1244,6 @@
   </si>
   <si>
     <t>Resets WEM GroupPolicy Global Settings in the WEM Database.</t>
-  </si>
-  <si>
-    <t>As far as I can tell, these settings are NOT available in WEM Admin Console 1906
-TODO: include the Confirm functionality</t>
   </si>
   <si>
     <t>Get-WEMGroupPolicyGlobalSettings</t>
@@ -1392,6 +1387,34 @@
   </si>
   <si>
     <t>Released</t>
+  </si>
+  <si>
+    <t>Reset-WEMCitrixOptimizerConfigurations</t>
+  </si>
+  <si>
+    <t>Resets WEM Citrix Optimizer Configurations in the WEM Database.</t>
+  </si>
+  <si>
+    <t>As far as I can tell, these settings are NOT available in WEM Admin Console 1906-2003
+TODO: include the Confirm functionality</t>
+  </si>
+  <si>
+    <t>Get-WEMCitrixOptimizerConfiguration</t>
+  </si>
+  <si>
+    <t>Returns one or more Citrix Optimizer Configuration objects from the WEM Database.</t>
+  </si>
+  <si>
+    <t>Set-WEMCitrixOptimizerConfiguration</t>
+  </si>
+  <si>
+    <t>Updates a Citrix Optimizer Configuration object in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Remove-WEMCitrixOptimizerConfiguration</t>
+  </si>
+  <si>
+    <t>Removes a Citrix Optimizer Configuration object from the WEM Database.</t>
   </si>
 </sst>
 </file>
@@ -1729,11 +1752,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E178"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:E182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1765,7 +1789,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -1776,7 +1800,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>155</v>
@@ -1787,7 +1811,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>275</v>
@@ -1798,7 +1822,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>335</v>
@@ -1809,7 +1833,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>342</v>
@@ -1820,7 +1844,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>326</v>
@@ -1831,7 +1855,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>370</v>
@@ -1840,12 +1864,12 @@
         <v>392</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>4</v>
@@ -1859,7 +1883,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>276</v>
@@ -1873,40 +1897,40 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>437</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>391</v>
@@ -1915,12 +1939,12 @@
         <v>399</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>161</v>
@@ -1931,969 +1955,966 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>143</v>
+        <v>453</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>144</v>
+        <v>454</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>5</v>
+        <v>143</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>57</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>352</v>
+        <v>5</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>424</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>26</v>
+        <v>352</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>58</v>
+        <v>393</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>277</v>
+        <v>6</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>288</v>
+        <v>26</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>308</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>7</v>
+        <v>277</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>27</v>
+        <v>288</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>59</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>278</v>
+        <v>7</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>289</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>297</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>8</v>
+        <v>278</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>28</v>
+        <v>289</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>60</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>279</v>
+        <v>8</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>290</v>
+        <v>28</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>298</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>9</v>
+        <v>279</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>29</v>
+        <v>290</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>61</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>280</v>
+        <v>9</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>291</v>
+        <v>29</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>299</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>405</v>
+        <v>280</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>291</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>407</v>
+        <v>299</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>30</v>
+        <v>404</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>62</v>
+        <v>405</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>281</v>
+        <v>10</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>292</v>
+        <v>30</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>300</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>11</v>
+        <v>281</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>31</v>
+        <v>292</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>282</v>
+        <v>11</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>293</v>
+        <v>31</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>301</v>
+        <v>63</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>408</v>
+        <v>282</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>424</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>357</v>
+        <v>407</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>12</v>
+        <v>357</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>64</v>
+        <v>394</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>283</v>
+        <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>302</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>13</v>
+        <v>283</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>284</v>
+        <v>13</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>303</v>
+        <v>65</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>32</v>
+        <v>284</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>66</v>
+        <v>303</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>285</v>
+        <v>14</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>294</v>
+        <v>32</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>304</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>149</v>
+        <v>285</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>294</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>153</v>
+        <v>304</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>425</v>
+        <v>149</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>426</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>350</v>
+        <v>421</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>395</v>
+        <v>422</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>356</v>
+        <v>359</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>360</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>15</v>
+        <v>356</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>67</v>
+        <v>397</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>317</v>
+        <v>423</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>286</v>
+        <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>305</v>
+        <v>67</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>353</v>
+        <v>286</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>424</v>
+        <v>305</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>16</v>
+        <v>353</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>68</v>
+        <v>398</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>295</v>
+        <v>16</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>306</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>156</v>
+        <v>295</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>192</v>
+        <v>306</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>236</v>
+        <v>156</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>322</v>
+        <v>192</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>329</v>
+        <v>236</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>139</v>
+        <v>322</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>139</v>
+        <v>348</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>113</v>
+        <v>327</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>319</v>
+        <v>328</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>204</v>
+        <v>17</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>274</v>
+        <v>113</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>440</v>
+        <v>204</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>274</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>442</v>
+        <v>323</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>146</v>
+        <v>440</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>188</v>
+        <v>442</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>320</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>33</v>
+        <v>320</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>205</v>
+        <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>310</v>
+        <v>84</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>165</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>85</v>
+        <v>205</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>86</v>
+        <v>310</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>101</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>206</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>311</v>
+        <v>86</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>166</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>206</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>88</v>
+        <v>311</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>102</v>
+        <v>166</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>207</v>
+        <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>312</v>
+        <v>88</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>167</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>89</v>
+        <v>207</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>90</v>
+        <v>312</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>103</v>
+        <v>167</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>208</v>
+        <v>89</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>313</v>
+        <v>90</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>168</v>
+        <v>103</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>92</v>
+        <v>313</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>104</v>
+        <v>168</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>209</v>
+        <v>91</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>314</v>
+        <v>92</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>169</v>
+        <v>104</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>93</v>
+        <v>209</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>94</v>
+        <v>314</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>309</v>
+        <v>169</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>315</v>
+        <v>94</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>170</v>
+        <v>105</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>95</v>
+        <v>210</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>106</v>
+        <v>170</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>211</v>
+        <v>95</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>171</v>
+        <v>106</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>20</v>
+        <v>211</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>309</v>
+        <v>171</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>212</v>
+        <v>20</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>97</v>
+        <v>212</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>115</v>
+        <v>324</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>213</v>
+        <v>96</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>316</v>
+        <v>97</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>172</v>
+        <v>107</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>151</v>
+        <v>213</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>427</v>
+        <v>151</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>428</v>
+        <v>190</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>98</v>
+        <v>426</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>309</v>
+        <v>427</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>214</v>
+        <v>98</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>173</v>
+        <v>108</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>99</v>
+        <v>214</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>109</v>
+        <v>173</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>215</v>
+        <v>99</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>174</v>
+        <v>109</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>114</v>
+        <v>174</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>160</v>
+        <v>69</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>114</v>
@@ -2901,13 +2922,13 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>238</v>
+        <v>158</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>239</v>
+        <v>160</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>114</v>
@@ -2915,27 +2936,27 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>331</v>
+        <v>238</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E91" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>114</v>
@@ -2943,13 +2964,13 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>114</v>
@@ -2957,33 +2978,30 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>116</v>
+        <v>330</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E94" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E94" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>228</v>
+        <v>116</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>237</v>
+        <v>135</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>114</v>
@@ -2991,13 +3009,16 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>444</v>
+        <v>216</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>445</v>
+        <v>237</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>114</v>
@@ -3005,13 +3026,13 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>162</v>
+        <v>443</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>164</v>
+        <v>444</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>114</v>
@@ -3019,27 +3040,27 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>318</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>22</v>
+        <v>457</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>175</v>
+        <v>458</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>114</v>
@@ -3047,33 +3068,27 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>229</v>
+        <v>147</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>114</v>
+        <v>318</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>114</v>
@@ -3081,16 +3096,16 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>119</v>
+        <v>217</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>120</v>
+        <v>229</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>114</v>
@@ -3098,16 +3113,16 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>218</v>
+        <v>117</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>230</v>
+        <v>118</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>114</v>
@@ -3115,16 +3130,16 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>114</v>
@@ -3132,16 +3147,16 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>114</v>
@@ -3149,16 +3164,16 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>114</v>
@@ -3166,16 +3181,16 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>114</v>
@@ -3183,16 +3198,16 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>114</v>
@@ -3200,16 +3215,16 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>114</v>
@@ -3217,16 +3232,16 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>114</v>
@@ -3234,16 +3249,16 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>114</v>
@@ -3251,13 +3266,16 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>114</v>
@@ -3265,13 +3283,16 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>114</v>
@@ -3279,13 +3300,13 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>114</v>
@@ -3293,13 +3314,13 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>114</v>
@@ -3307,16 +3328,13 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>114</v>
@@ -3324,16 +3342,13 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>114</v>
@@ -3341,13 +3356,16 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>152</v>
+        <v>131</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>114</v>
@@ -3355,13 +3373,16 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>429</v>
+        <v>225</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>235</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>430</v>
+        <v>201</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>114</v>
@@ -3369,13 +3390,13 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>114</v>
@@ -3383,13 +3404,13 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>226</v>
+        <v>428</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>202</v>
+        <v>429</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>114</v>
@@ -3397,13 +3418,13 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>114</v>
@@ -3411,13 +3432,13 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>114</v>
@@ -3425,13 +3446,13 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>371</v>
+        <v>134</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>381</v>
+        <v>186</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>114</v>
@@ -3439,13 +3460,13 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>387</v>
+        <v>227</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>388</v>
+        <v>203</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>114</v>
@@ -3453,41 +3474,41 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>404</v>
+        <v>388</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>410</v>
-      </c>
       <c r="D128" s="2" t="s">
-        <v>411</v>
+        <v>451</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>114</v>
@@ -3495,41 +3516,41 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>114</v>
+        <v>403</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>365</v>
+        <v>409</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>384</v>
+        <v>410</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>114</v>
@@ -3537,16 +3558,13 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>114</v>
@@ -3554,13 +3572,13 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>368</v>
+        <v>419</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>114</v>
@@ -3568,13 +3586,13 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>114</v>
@@ -3582,588 +3600,645 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>157</v>
+        <v>366</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>369</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>191</v>
+        <v>385</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>260</v>
+        <v>368</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>261</v>
+        <v>386</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>346</v>
+        <v>380</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>333</v>
+        <v>157</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>372</v>
+        <v>260</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>415</v>
+        <v>261</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>35</v>
+        <v>341</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>70</v>
+        <v>346</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>252</v>
+        <v>333</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>446</v>
+        <v>372</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+        <v>373</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>389</v>
+        <v>23</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>415</v>
+        <v>70</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>145</v>
+        <v>240</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>252</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>187</v>
+        <v>273</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>24</v>
+        <v>445</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>71</v>
+        <v>446</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>48</v>
+        <v>455</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>80</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="E147" s="3"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>253</v>
+        <v>145</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>272</v>
+        <v>187</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>254</v>
+        <v>351</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>262</v>
+        <v>374</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>400</v>
+        <v>39</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="E155" s="3" t="s">
-        <v>417</v>
+        <v>72</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>41</v>
+        <v>243</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>52</v>
+        <v>255</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>82</v>
+        <v>263</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>245</v>
+        <v>40</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>257</v>
+        <v>51</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>265</v>
+        <v>73</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>42</v>
+        <v>244</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>53</v>
+        <v>256</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>258</v>
+        <v>400</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>266</v>
+        <v>401</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>412</v>
+        <v>41</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="E160" s="3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>358</v>
+        <v>245</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="E161" s="3" t="s">
-        <v>415</v>
+        <v>265</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>44</v>
+        <v>411</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+        <v>412</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>248</v>
+        <v>358</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>268</v>
+        <v>375</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>189</v>
+        <v>76</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B169" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D173" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="D169" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="E169" s="3" t="s">
+      <c r="E173" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A174" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E174" s="3" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A170" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="E170" s="3" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A171" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="B171" s="2" t="s">
+    <row r="175" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A175" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B175" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="D171" s="2" t="s">
+      <c r="D175" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="E171" s="3" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A172" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="B172" s="2" t="s">
+      <c r="E175" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A176" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="C176" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="D172" s="2" t="s">
+      <c r="D176" s="2" t="s">
         <v>377</v>
-      </c>
-      <c r="E172" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A173" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="E173" s="3" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A174" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A175" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A176" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>379</v>
       </c>
       <c r="E176" s="3" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B177" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A180" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B181" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D177" s="2" t="s">
+      <c r="D181" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A178" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="B178" s="2" t="s">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B182" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="D178" s="2" t="s">
+      <c r="D182" s="2" t="s">
         <v>271</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E178" xr:uid="{5BB291EF-653F-4FD8-900C-6852B0E4EEFE}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E178">
-      <sortCondition ref="B1:B167"/>
+  <autoFilter ref="A1:E182" xr:uid="{5BB291EF-653F-4FD8-900C-6852B0E4EEFE}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E182">
+      <sortCondition ref="B1:B171"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4173,11 +4248,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B53A6F-3A05-4B93-AB8B-0138373E3E62}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4236,13 +4312,13 @@
         <v>141</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>

--- a/Citrix.WEMSDK.xlsx
+++ b/Citrix.WEMSDK.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23205"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F36185-DD93-44F1-88E8-D826BF457BD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08867624-D061-46D8-A8E8-479D83235020}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="Issues" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Commands and Aliasses'!$A$1:$E$182</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Commands and Aliasses'!$A$1:$E$191</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="477">
   <si>
     <t>Command</t>
   </si>
@@ -1415,6 +1415,60 @@
   </si>
   <si>
     <t>Removes a Citrix Optimizer Configuration object from the WEM Database.</t>
+  </si>
+  <si>
+    <t>New-WEMGroupPolicyObject</t>
+  </si>
+  <si>
+    <t>New-WEMGroupPolicyObjectAssignment</t>
+  </si>
+  <si>
+    <t>Get-WEMGroupPolicyObject</t>
+  </si>
+  <si>
+    <t>Get-WEMGroupPolicyObjectAssignment</t>
+  </si>
+  <si>
+    <t>Returns one or more Group Policy Object Assignment objects from the WEM Database.</t>
+  </si>
+  <si>
+    <t>Returns one or more Group Policy Object objects from the WEM Database.</t>
+  </si>
+  <si>
+    <t>Creates a Group Policy Object object in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Creates a Group Policy Object Assignment object in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Remove-WEMGroupPolicyObject</t>
+  </si>
+  <si>
+    <t>Remove-WEMGroupPolicyObjectAssignment</t>
+  </si>
+  <si>
+    <t>Removes a Group Policy Object object from the WEM Database.</t>
+  </si>
+  <si>
+    <t>Removes a Group Policy Object Assignment object from the WEM Database.</t>
+  </si>
+  <si>
+    <t>Set-WEMGroupPolicyObject</t>
+  </si>
+  <si>
+    <t>Set-WEMGroupPolicyObjectAssignment</t>
+  </si>
+  <si>
+    <t>Updates a Group Policy Object object in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Updates a Group Policy Object Assignment object in the WEM Database.</t>
+  </si>
+  <si>
+    <t>Net-WEMCitrixOptimizerConfiguration</t>
+  </si>
+  <si>
+    <t>Creates a Citrix Optimizer Configuration object in the WEM Database.</t>
   </si>
 </sst>
 </file>
@@ -1753,11 +1807,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E182"/>
+  <dimension ref="A1:E191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A100" sqref="A100"/>
+      <selection pane="bottomLeft" activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2061,13 +2115,10 @@
         <v>449</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>28</v>
+        <v>461</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>60</v>
+        <v>464</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -2075,13 +2126,10 @@
         <v>449</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>290</v>
+        <v>462</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>298</v>
+        <v>463</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -2089,13 +2137,13 @@
         <v>449</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -2103,13 +2151,13 @@
         <v>449</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -2117,13 +2165,13 @@
         <v>449</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>404</v>
+        <v>9</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>406</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -2131,13 +2179,13 @@
         <v>449</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>10</v>
+        <v>280</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>30</v>
+        <v>291</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>62</v>
+        <v>299</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -2145,13 +2193,13 @@
         <v>449</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>292</v>
+        <v>404</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>300</v>
+        <v>405</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -2159,16 +2207,13 @@
         <v>449</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>317</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -2176,13 +2221,13 @@
         <v>449</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -2190,13 +2235,16 @@
         <v>449</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>407</v>
+        <v>11</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>408</v>
+        <v>63</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>423</v>
+        <v>317</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -2204,13 +2252,13 @@
         <v>449</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>357</v>
+        <v>282</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>423</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -2218,10 +2266,13 @@
         <v>449</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>12</v>
+        <v>407</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>64</v>
+        <v>408</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -2229,10 +2280,13 @@
         <v>449</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>283</v>
+        <v>357</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>302</v>
+        <v>394</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -2240,13 +2294,10 @@
         <v>449</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>317</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -2254,10 +2305,10 @@
         <v>449</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -2265,13 +2316,13 @@
         <v>449</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -2279,13 +2330,10 @@
         <v>449</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -2293,10 +2341,13 @@
         <v>449</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>149</v>
+        <v>14</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>153</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -2304,10 +2355,13 @@
         <v>449</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>424</v>
+        <v>285</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>294</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>425</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -2315,13 +2369,10 @@
         <v>449</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>421</v>
+        <v>149</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>423</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -2329,13 +2380,10 @@
         <v>449</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>350</v>
+        <v>424</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -2343,13 +2391,10 @@
         <v>449</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>360</v>
+        <v>421</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>396</v>
+        <v>422</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>423</v>
@@ -2360,10 +2405,10 @@
         <v>449</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>423</v>
@@ -2374,13 +2419,16 @@
         <v>449</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>15</v>
+        <v>359</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>360</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>67</v>
+        <v>396</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>317</v>
+        <v>423</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -2388,10 +2436,13 @@
         <v>449</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>286</v>
+        <v>356</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>305</v>
+        <v>397</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -2399,13 +2450,13 @@
         <v>449</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>353</v>
+        <v>15</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>398</v>
+        <v>67</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>423</v>
+        <v>317</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -2413,10 +2464,10 @@
         <v>449</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>16</v>
+        <v>286</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>68</v>
+        <v>305</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -2424,10 +2475,13 @@
         <v>449</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>295</v>
+        <v>353</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>306</v>
+        <v>398</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -2435,10 +2489,10 @@
         <v>449</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>192</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -2446,10 +2500,10 @@
         <v>449</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>236</v>
+        <v>295</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -2457,13 +2511,10 @@
         <v>449</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>329</v>
+        <v>156</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>139</v>
+        <v>192</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -2471,10 +2522,10 @@
         <v>449</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>339</v>
+        <v>236</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -2482,10 +2533,13 @@
         <v>449</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>348</v>
+        <v>337</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -2493,13 +2547,10 @@
         <v>449</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>139</v>
+        <v>344</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -2507,13 +2558,10 @@
         <v>449</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>113</v>
+        <v>347</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>319</v>
+        <v>348</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -2521,13 +2569,13 @@
         <v>449</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>274</v>
+        <v>327</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>323</v>
+        <v>328</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -2535,10 +2583,13 @@
         <v>449</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>439</v>
+        <v>17</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>441</v>
+        <v>319</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -2546,13 +2597,13 @@
         <v>449</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>440</v>
+        <v>204</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>274</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>433</v>
+        <v>323</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -2560,10 +2611,10 @@
         <v>449</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>146</v>
+        <v>439</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>188</v>
+        <v>441</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -2571,10 +2622,13 @@
         <v>449</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>18</v>
+        <v>440</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>320</v>
+        <v>442</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -2582,10 +2636,10 @@
         <v>449</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>19</v>
+        <v>475</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>33</v>
+        <v>476</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -2593,13 +2647,10 @@
         <v>449</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>100</v>
+        <v>188</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -2607,13 +2658,10 @@
         <v>449</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>310</v>
+        <v>18</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>165</v>
+        <v>320</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -2621,13 +2669,10 @@
         <v>449</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -2635,13 +2680,13 @@
         <v>449</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>206</v>
+        <v>83</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>311</v>
+        <v>84</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>166</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -2649,13 +2694,13 @@
         <v>449</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>87</v>
+        <v>205</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>88</v>
+        <v>310</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>102</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -2663,13 +2708,13 @@
         <v>449</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>207</v>
+        <v>85</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>312</v>
+        <v>86</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>167</v>
+        <v>101</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -2677,13 +2722,13 @@
         <v>449</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>89</v>
+        <v>206</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>90</v>
+        <v>311</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>103</v>
+        <v>166</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -2691,13 +2736,10 @@
         <v>449</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>313</v>
+        <v>459</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>168</v>
+        <v>465</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -2705,13 +2747,10 @@
         <v>449</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>92</v>
+        <v>460</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>104</v>
+        <v>466</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -2719,13 +2758,13 @@
         <v>449</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>209</v>
+        <v>87</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>314</v>
+        <v>88</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>169</v>
+        <v>102</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -2733,16 +2772,13 @@
         <v>449</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>93</v>
+        <v>207</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>94</v>
+        <v>312</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>309</v>
+        <v>167</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -2750,13 +2786,13 @@
         <v>449</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>210</v>
+        <v>89</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>315</v>
+        <v>90</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>170</v>
+        <v>103</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -2764,10 +2800,13 @@
         <v>449</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>95</v>
+        <v>208</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>313</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>106</v>
+        <v>168</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -2775,10 +2814,13 @@
         <v>449</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>211</v>
+        <v>91</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>171</v>
+        <v>104</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -2786,13 +2828,13 @@
         <v>449</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>20</v>
+        <v>209</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>314</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>309</v>
+        <v>169</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -2800,10 +2842,16 @@
         <v>449</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>212</v>
+        <v>93</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>324</v>
+        <v>105</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -2811,16 +2859,13 @@
         <v>449</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>96</v>
+        <v>210</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>97</v>
+        <v>315</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>115</v>
+        <v>170</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -2828,13 +2873,10 @@
         <v>449</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>316</v>
+        <v>95</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>172</v>
+        <v>106</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -2842,10 +2884,10 @@
         <v>449</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>151</v>
+        <v>211</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -2853,10 +2895,13 @@
         <v>449</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>426</v>
+        <v>20</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>427</v>
+        <v>321</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -2864,13 +2909,10 @@
         <v>449</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>98</v>
+        <v>212</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -2878,10 +2920,16 @@
         <v>449</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>214</v>
+        <v>96</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>173</v>
+        <v>107</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -2889,10 +2937,13 @@
         <v>449</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>99</v>
+        <v>213</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>109</v>
+        <v>172</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -2900,10 +2951,10 @@
         <v>449</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>215</v>
+        <v>151</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -2911,13 +2962,10 @@
         <v>449</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>21</v>
+        <v>426</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>114</v>
+        <v>427</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -2925,13 +2973,13 @@
         <v>449</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>114</v>
+        <v>309</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -2939,13 +2987,10 @@
         <v>449</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>114</v>
+        <v>173</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -2953,13 +2998,10 @@
         <v>449</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>331</v>
+        <v>99</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -2967,13 +3009,10 @@
         <v>449</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>340</v>
+        <v>215</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>114</v>
+        <v>174</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -2981,12 +3020,12 @@
         <v>449</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>330</v>
+        <v>21</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="E94" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2995,13 +3034,10 @@
         <v>449</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>114</v>
@@ -3012,13 +3048,10 @@
         <v>449</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>114</v>
@@ -3029,12 +3062,12 @@
         <v>449</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>443</v>
+        <v>331</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="E97" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E97" s="3" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3043,12 +3076,12 @@
         <v>449</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>162</v>
+        <v>340</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E98" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E98" s="3" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3057,12 +3090,12 @@
         <v>449</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>457</v>
+        <v>330</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="E99" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E99" s="3" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3071,13 +3104,16 @@
         <v>449</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>147</v>
+        <v>136</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>318</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -3085,10 +3121,13 @@
         <v>449</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>22</v>
+        <v>216</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>175</v>
+        <v>237</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>114</v>
@@ -3099,13 +3138,10 @@
         <v>449</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>229</v>
+        <v>443</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>193</v>
+        <v>444</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>114</v>
@@ -3116,13 +3152,10 @@
         <v>449</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>114</v>
@@ -3133,13 +3166,10 @@
         <v>449</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>120</v>
+        <v>457</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>177</v>
+        <v>458</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>114</v>
@@ -3150,16 +3180,13 @@
         <v>449</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>230</v>
+        <v>147</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>194</v>
+        <v>148</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>114</v>
+        <v>318</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -3167,13 +3194,10 @@
         <v>449</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>114</v>
@@ -3184,13 +3208,13 @@
         <v>449</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>114</v>
@@ -3201,13 +3225,13 @@
         <v>449</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>114</v>
@@ -3218,13 +3242,13 @@
         <v>449</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>220</v>
+        <v>119</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>232</v>
+        <v>120</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>114</v>
@@ -3235,13 +3259,13 @@
         <v>449</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>125</v>
+        <v>218</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>126</v>
+        <v>230</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>114</v>
@@ -3252,13 +3276,10 @@
         <v>449</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>233</v>
+        <v>467</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>197</v>
+        <v>469</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>114</v>
@@ -3269,13 +3290,10 @@
         <v>449</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>128</v>
+        <v>468</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>181</v>
+        <v>470</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>114</v>
@@ -3286,13 +3304,13 @@
         <v>449</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>222</v>
+        <v>121</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>234</v>
+        <v>122</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>114</v>
@@ -3303,10 +3321,13 @@
         <v>449</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>129</v>
+        <v>219</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>114</v>
@@ -3317,10 +3338,13 @@
         <v>449</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>223</v>
+        <v>123</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>114</v>
@@ -3331,10 +3355,13 @@
         <v>449</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>130</v>
+        <v>220</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>114</v>
@@ -3345,10 +3372,13 @@
         <v>449</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>224</v>
+        <v>125</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>114</v>
@@ -3359,13 +3389,13 @@
         <v>449</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>131</v>
+        <v>221</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>132</v>
+        <v>233</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>114</v>
@@ -3376,13 +3406,13 @@
         <v>449</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>225</v>
+        <v>127</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>235</v>
+        <v>128</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>114</v>
@@ -3393,10 +3423,13 @@
         <v>449</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>152</v>
+        <v>222</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>114</v>
@@ -3407,10 +3440,10 @@
         <v>449</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>428</v>
+        <v>129</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>429</v>
+        <v>182</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>114</v>
@@ -3421,10 +3454,10 @@
         <v>449</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>133</v>
+        <v>223</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>114</v>
@@ -3435,10 +3468,10 @@
         <v>449</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>226</v>
+        <v>130</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>114</v>
@@ -3449,10 +3482,10 @@
         <v>449</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>134</v>
+        <v>224</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>114</v>
@@ -3463,10 +3496,13 @@
         <v>449</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>227</v>
+        <v>131</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>114</v>
@@ -3477,10 +3513,13 @@
         <v>449</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>371</v>
+        <v>225</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>235</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>381</v>
+        <v>201</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>114</v>
@@ -3491,10 +3530,10 @@
         <v>449</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>387</v>
+        <v>152</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>388</v>
+        <v>154</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>114</v>
@@ -3505,10 +3544,10 @@
         <v>449</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>450</v>
+        <v>428</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>451</v>
+        <v>429</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>114</v>
@@ -3519,27 +3558,27 @@
         <v>449</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>363</v>
+        <v>133</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>382</v>
+        <v>185</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>449</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>402</v>
+        <v>226</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>452</v>
+        <v>202</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -3547,10 +3586,10 @@
         <v>449</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>409</v>
+        <v>134</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>410</v>
+        <v>186</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>114</v>
@@ -3561,10 +3600,10 @@
         <v>449</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>364</v>
+        <v>227</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>383</v>
+        <v>203</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>114</v>
@@ -3575,10 +3614,10 @@
         <v>449</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>419</v>
+        <v>371</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>418</v>
+        <v>381</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>114</v>
@@ -3589,10 +3628,10 @@
         <v>449</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>114</v>
@@ -3603,13 +3642,10 @@
         <v>449</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>369</v>
+        <v>450</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>385</v>
+        <v>451</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>114</v>
@@ -3620,27 +3656,27 @@
         <v>449</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>449</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>114</v>
+        <v>403</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -3648,10 +3684,13 @@
         <v>449</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>157</v>
+        <v>409</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>191</v>
+        <v>410</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
@@ -3659,10 +3698,13 @@
         <v>449</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>260</v>
+        <v>364</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>261</v>
+        <v>383</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
@@ -3670,10 +3712,13 @@
         <v>449</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>341</v>
+        <v>419</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>346</v>
+        <v>418</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -3681,24 +3726,30 @@
         <v>449</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>333</v>
+        <v>365</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+        <v>384</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>449</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>372</v>
+        <v>366</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>369</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>414</v>
+        <v>385</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -3706,13 +3757,13 @@
         <v>449</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>35</v>
+        <v>368</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>70</v>
+        <v>386</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
@@ -3720,13 +3771,13 @@
         <v>449</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>252</v>
+        <v>367</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>273</v>
+        <v>380</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
@@ -3734,24 +3785,21 @@
         <v>449</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>445</v>
+        <v>157</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>449</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>389</v>
+        <v>260</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>414</v>
+        <v>261</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
@@ -3759,47 +3807,49 @@
         <v>449</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>455</v>
+        <v>341</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="E147" s="3"/>
+        <v>346</v>
+      </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>449</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>145</v>
+        <v>333</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>449</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>24</v>
+        <v>372</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+        <v>373</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>449</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>351</v>
+        <v>23</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="E150" s="3" t="s">
-        <v>414</v>
+        <v>70</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
@@ -3807,13 +3857,13 @@
         <v>449</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>37</v>
+        <v>240</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>48</v>
+        <v>252</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>80</v>
+        <v>273</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
@@ -3821,27 +3871,24 @@
         <v>449</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>253</v>
+        <v>445</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>449</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>49</v>
+        <v>389</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>81</v>
+        <v>390</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
@@ -3849,27 +3896,22 @@
         <v>449</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>254</v>
+        <v>455</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>262</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="E154" s="3"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>449</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>72</v>
+        <v>187</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
@@ -3877,27 +3919,24 @@
         <v>449</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>255</v>
+        <v>24</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>449</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>73</v>
+        <v>374</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
@@ -3905,27 +3944,27 @@
         <v>449</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>244</v>
+        <v>37</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>256</v>
+        <v>48</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>449</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>400</v>
+        <v>241</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="E159" s="3" t="s">
-        <v>416</v>
+        <v>272</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
@@ -3933,13 +3972,13 @@
         <v>449</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
@@ -3947,13 +3986,13 @@
         <v>449</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
@@ -3961,16 +4000,10 @@
         <v>449</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>53</v>
+        <v>471</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>309</v>
+        <v>473</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
@@ -3978,13 +4011,10 @@
         <v>449</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>258</v>
+        <v>472</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>266</v>
+        <v>474</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
@@ -3992,27 +4022,27 @@
         <v>449</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>411</v>
+        <v>39</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="E164" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>449</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>358</v>
+        <v>243</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>255</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="E165" s="3" t="s">
-        <v>414</v>
+        <v>263</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
@@ -4020,10 +4050,13 @@
         <v>449</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
@@ -4031,24 +4064,27 @@
         <v>449</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>449</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>44</v>
+        <v>400</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>309</v>
+        <v>401</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
@@ -4056,10 +4092,13 @@
         <v>449</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>248</v>
+        <v>41</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>268</v>
+        <v>82</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
@@ -4067,13 +4106,13 @@
         <v>449</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>45</v>
+        <v>245</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>54</v>
+        <v>257</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>77</v>
+        <v>265</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
@@ -4081,13 +4120,16 @@
         <v>449</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>249</v>
+        <v>42</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>259</v>
+        <v>53</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>269</v>
+        <v>74</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
@@ -4095,10 +4137,13 @@
         <v>449</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>150</v>
+        <v>246</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>189</v>
+        <v>266</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
@@ -4106,10 +4151,10 @@
         <v>449</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="E173" s="3" t="s">
         <v>413</v>
@@ -4120,58 +4165,49 @@
         <v>449</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>420</v>
+        <v>358</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="E174" s="3" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>449</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>349</v>
+        <v>43</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="E175" s="3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>449</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>362</v>
+        <v>247</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="E176" s="3" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>449</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>355</v>
+        <v>44</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="E177" s="3" t="s">
-        <v>414</v>
+        <v>76</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
@@ -4179,13 +4215,10 @@
         <v>449</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>46</v>
+        <v>248</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>309</v>
+        <v>268</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
@@ -4193,24 +4226,27 @@
         <v>449</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>250</v>
+        <v>45</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>449</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>354</v>
+        <v>249</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="E180" s="3" t="s">
-        <v>414</v>
+        <v>269</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
@@ -4218,10 +4254,10 @@
         <v>449</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>79</v>
+        <v>189</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
@@ -4229,16 +4265,139 @@
         <v>449</v>
       </c>
       <c r="B182" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A183" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A184" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A185" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A186" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A189" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B191" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="D182" s="2" t="s">
+      <c r="D191" s="2" t="s">
         <v>271</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E182" xr:uid="{5BB291EF-653F-4FD8-900C-6852B0E4EEFE}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E182">
-      <sortCondition ref="B1:B171"/>
+  <autoFilter ref="A1:E191" xr:uid="{5BB291EF-653F-4FD8-900C-6852B0E4EEFE}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E191">
+      <sortCondition ref="B1:B180"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
